--- a/Electrical/PowerBudget.xlsx
+++ b/Electrical/PowerBudget.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Talonj123\MAVRIC\MAVRIC-Electrical\Electrical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james.talbert\MAVRIC-Electrical\Electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7950" yWindow="0" windowWidth="18825" windowHeight="4845" activeTab="3"/>
+    <workbookView xWindow="7950" yWindow="0" windowWidth="18825" windowHeight="4845" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Component Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="Elaboration">Table6[]</definedName>
     <definedName name="ItemIDs">ItemMap[ItemID]</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,9 +86,6 @@
     <t>Output (A)</t>
   </si>
   <si>
-    <t>Output (mAh)</t>
-  </si>
-  <si>
     <t>Battery Pack</t>
   </si>
   <si>
@@ -186,12 +183,15 @@
   </si>
   <si>
     <t>Battery Life (hrs)</t>
+  </si>
+  <si>
+    <t>Battery (mAh)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -236,12 +236,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -257,6 +254,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -314,17 +317,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ComponentData" displayName="ComponentData" ref="A1:I6" totalsRowShown="0">
   <autoFilter ref="A1:I6"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="ID" dataDxfId="19">
+    <tableColumn id="1" name="ID" dataDxfId="20">
       <calculatedColumnFormula>ComponentData[[#This Row],[Manufacturer]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Name" dataDxfId="16"/>
+    <tableColumn id="6" name="Name" dataDxfId="19"/>
     <tableColumn id="2" name="Manufacturer" dataDxfId="18"/>
     <tableColumn id="3" name="Source" dataDxfId="17"/>
-    <tableColumn id="4" name="Price" dataDxfId="15"/>
-    <tableColumn id="5" name="Consumption (W)" dataDxfId="14"/>
-    <tableColumn id="7" name="Output (V)" dataDxfId="13"/>
+    <tableColumn id="4" name="Price" dataDxfId="16"/>
+    <tableColumn id="5" name="Consumption (W)" dataDxfId="15"/>
+    <tableColumn id="7" name="Output (V)" dataDxfId="14"/>
     <tableColumn id="8" name="Output (A)"/>
-    <tableColumn id="9" name="Output (mAh)"/>
+    <tableColumn id="9" name="Battery (mAh)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -345,32 +348,32 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:K16" totalsRowShown="0">
   <autoFilter ref="A1:K16"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="ItemID" dataDxfId="12">
+    <tableColumn id="1" name="ItemID" dataDxfId="13">
       <calculatedColumnFormula>ItemMap[[#This Row],[ItemID]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Component" dataDxfId="11">
-      <calculatedColumnFormula>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</calculatedColumnFormula>
+    <tableColumn id="2" name="Component" dataDxfId="5">
+      <calculatedColumnFormula>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Supply ID" dataDxfId="9"/>
-    <tableColumn id="13" name="Supply Component" dataDxfId="2">
-      <calculatedColumnFormula>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], 2, FALSE))</calculatedColumnFormula>
+    <tableColumn id="5" name="Supply ID" dataDxfId="12"/>
+    <tableColumn id="13" name="Supply Component" dataDxfId="4">
+      <calculatedColumnFormula>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Input Voltage (V)" dataDxfId="3">
-      <calculatedColumnFormula>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], 7, FALSE))</calculatedColumnFormula>
+    <tableColumn id="11" name="Input Voltage (V)" dataDxfId="2">
+      <calculatedColumnFormula>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Input Current (A)" dataDxfId="4">
+    <tableColumn id="9" name="Input Current (A)" dataDxfId="11">
       <calculatedColumnFormula>IF(Table6[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Table6[[#This Row],[Total Consumption (W)]]/Table6[[#This Row],[Input Voltage (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Output Voltage (V)" dataDxfId="6">
-      <calculatedColumnFormula>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 7, FALSE))</calculatedColumnFormula>
+    <tableColumn id="8" name="Output Voltage (V)" dataDxfId="1">
+      <calculatedColumnFormula>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Output Current (A)" dataDxfId="5">
+    <tableColumn id="7" name="Output Current (A)" dataDxfId="10">
       <calculatedColumnFormula>IF(Table6[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Table6[[#This Row],[Children Consumption (W)]]/Table6[[#This Row],[Output Voltage (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Self Consumption (W)" dataDxfId="10">
-      <calculatedColumnFormula>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 6, FALSE))</calculatedColumnFormula>
+    <tableColumn id="3" name="Self Consumption (W)" dataDxfId="0">
+      <calculatedColumnFormula>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Children Consumption (W)" dataDxfId="7">
+    <tableColumn id="4" name="Children Consumption (W)" dataDxfId="9">
       <calculatedColumnFormula>SUMIFS(Table6[Total Consumption (W)], Table6[Supply ID], Table6[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Total Consumption (W)" dataDxfId="8">
@@ -388,13 +391,13 @@
     <tableColumn id="1" name="ItemID">
       <calculatedColumnFormula>ItemMap[[#This Row],[ItemID]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Component">
-      <calculatedColumnFormula>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</calculatedColumnFormula>
+    <tableColumn id="2" name="Component" dataDxfId="3">
+      <calculatedColumnFormula>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Current Output % Capacity" dataDxfId="1">
+    <tableColumn id="3" name="Current Output % Capacity" dataDxfId="7">
       <calculatedColumnFormula>IF(VLOOKUP(Table7[[#This Row],[Component]], ComponentData[], 8, FALSE)&gt;0, VLOOKUP(Table7[[#This Row],[ItemID]], Elaboration, 8, FALSE)/VLOOKUP(Table7[[#This Row],[Component]], ComponentData[], 8, FALSE), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="0">
+    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="6">
       <calculatedColumnFormula>IF(VLOOKUP(Table7[[#This Row],[Component]], ComponentData[], 9, FALSE)&gt;0, VLOOKUP(Table7[[#This Row],[Component]], ComponentData[], 9, FALSE)/(VLOOKUP(Table7[[#This Row],[ItemID]], Elaboration, 8, FALSE)-VLOOKUP(Table7[[#This Row],[ItemID]], Elaboration, 6, FALSE)), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -703,7 +706,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +747,7 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -778,16 +781,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="3">
         <v>7.25</v>
@@ -809,7 +812,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4">
-        <v>-8000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
         <v>12</v>
@@ -823,10 +826,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -846,10 +849,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -902,7 +905,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -910,7 +913,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -918,7 +921,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -926,7 +929,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -934,7 +937,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -942,7 +945,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -950,7 +953,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -958,66 +961,66 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1037,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,28 +1070,28 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
         <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1097,18 +1100,18 @@
         <v>FrontRight ESC</v>
       </c>
       <c r="B2" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>LiPo</v>
       </c>
       <c r="E2" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="F2" s="1">
@@ -1116,7 +1119,7 @@
         <v>85</v>
       </c>
       <c r="G2">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="H2" s="1">
@@ -1124,7 +1127,7 @@
         <v>85</v>
       </c>
       <c r="I2">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 6, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J2" s="1">
@@ -1142,18 +1145,18 @@
         <v>MidRight ESC</v>
       </c>
       <c r="B3" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>LiPo</v>
       </c>
       <c r="E3" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="F3" s="1">
@@ -1161,7 +1164,7 @@
         <v>85</v>
       </c>
       <c r="G3">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="H3" s="1">
@@ -1169,7 +1172,7 @@
         <v>85</v>
       </c>
       <c r="I3">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 6, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J3" s="1">
@@ -1187,18 +1190,18 @@
         <v>BackRight ESC</v>
       </c>
       <c r="B4" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>LiPo</v>
       </c>
       <c r="E4" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="F4" s="1">
@@ -1206,7 +1209,7 @@
         <v>85</v>
       </c>
       <c r="G4">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="H4" s="1">
@@ -1214,7 +1217,7 @@
         <v>85</v>
       </c>
       <c r="I4">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 6, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J4" s="1">
@@ -1232,18 +1235,18 @@
         <v>FrontLeft ESC</v>
       </c>
       <c r="B5" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>LiPo</v>
       </c>
       <c r="E5" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="F5" s="1">
@@ -1251,7 +1254,7 @@
         <v>85</v>
       </c>
       <c r="G5">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="H5" s="1">
@@ -1259,7 +1262,7 @@
         <v>85</v>
       </c>
       <c r="I5">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 6, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J5" s="1">
@@ -1277,18 +1280,18 @@
         <v>MidLeft ESC</v>
       </c>
       <c r="B6" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>LiPo</v>
       </c>
       <c r="E6" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="F6" s="1">
@@ -1296,7 +1299,7 @@
         <v>85</v>
       </c>
       <c r="G6">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="H6" s="1">
@@ -1304,7 +1307,7 @@
         <v>85</v>
       </c>
       <c r="I6">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 6, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J6" s="1">
@@ -1322,18 +1325,18 @@
         <v>BackLeft ESC</v>
       </c>
       <c r="B7" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>LiPo</v>
       </c>
       <c r="E7" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="F7" s="1">
@@ -1341,7 +1344,7 @@
         <v>85</v>
       </c>
       <c r="G7">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="H7" s="1">
@@ -1349,7 +1352,7 @@
         <v>85</v>
       </c>
       <c r="I7">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 6, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J7" s="1">
@@ -1367,15 +1370,15 @@
         <v>Battery Pack</v>
       </c>
       <c r="B8" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>LiPo</v>
       </c>
       <c r="D8" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="E8" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="F8" s="1">
@@ -1383,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="H8" s="1">
@@ -1391,8 +1394,8 @@
         <v>510.58333333333331</v>
       </c>
       <c r="I8">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 6, FALSE))</f>
-        <v>-8000</v>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <f>SUMIFS(Table6[Total Consumption (W)], Table6[Supply ID], Table6[[#This Row],[ItemID]])</f>
@@ -1400,7 +1403,7 @@
       </c>
       <c r="K8" s="1">
         <f>Table6[[#This Row],[Self Consumption (W)]]+Table6[[#This Row],[Children Consumption (W)]]</f>
-        <v>-1873</v>
+        <v>6127</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1409,18 +1412,18 @@
         <v>FrontRight Motor</v>
       </c>
       <c r="B9" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>Motor</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
       <c r="E9" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="F9" s="1">
@@ -1428,7 +1431,7 @@
         <v>85</v>
       </c>
       <c r="G9">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="H9" s="1">
@@ -1436,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 6, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>1020</v>
       </c>
       <c r="J9" s="1">
@@ -1454,18 +1457,18 @@
         <v>MidRight Motor</v>
       </c>
       <c r="B10" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>Motor</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
       <c r="E10" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="F10" s="1">
@@ -1473,7 +1476,7 @@
         <v>85</v>
       </c>
       <c r="G10">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="H10" s="1">
@@ -1481,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 6, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>1020</v>
       </c>
       <c r="J10" s="1">
@@ -1499,18 +1502,18 @@
         <v>BackRight Motor</v>
       </c>
       <c r="B11" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>Motor</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
       <c r="E11" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="F11" s="1">
@@ -1518,7 +1521,7 @@
         <v>85</v>
       </c>
       <c r="G11">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="H11" s="1">
@@ -1526,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 6, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>1020</v>
       </c>
       <c r="J11" s="1">
@@ -1544,18 +1547,18 @@
         <v>FrontLeft Motor</v>
       </c>
       <c r="B12" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>Motor</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
       <c r="E12" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="F12" s="1">
@@ -1563,7 +1566,7 @@
         <v>85</v>
       </c>
       <c r="G12">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="H12" s="1">
@@ -1571,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 6, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>1020</v>
       </c>
       <c r="J12" s="1">
@@ -1589,18 +1592,18 @@
         <v>MidLeft Motor</v>
       </c>
       <c r="B13" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>Motor</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
       <c r="E13" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="F13" s="1">
@@ -1608,7 +1611,7 @@
         <v>85</v>
       </c>
       <c r="G13">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="H13" s="1">
@@ -1616,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 6, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>1020</v>
       </c>
       <c r="J13" s="1">
@@ -1634,18 +1637,18 @@
         <v>BackLeft Motor</v>
       </c>
       <c r="B14" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>Motor</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
       <c r="E14" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="F14" s="1">
@@ -1653,7 +1656,7 @@
         <v>85</v>
       </c>
       <c r="G14">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="H14" s="1">
@@ -1661,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 6, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>1020</v>
       </c>
       <c r="J14" s="1">
@@ -1679,18 +1682,18 @@
         <v>Logic Supply</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>5V Regulator</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>LiPo</v>
       </c>
       <c r="E15" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="F15" s="1">
@@ -1698,7 +1701,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G15" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>5</v>
       </c>
       <c r="H15" s="1">
@@ -1706,7 +1709,7 @@
         <v>1.4</v>
       </c>
       <c r="I15" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 6, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J15" s="1">
@@ -1724,18 +1727,18 @@
         <v>Master Control</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>Raspberry Pi</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), "", VLOOKUP(Table6[[#This Row],[Supply ID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>5V Regulator</v>
       </c>
       <c r="E16" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[Supply ID]]), 0,VLOOKUP(Table6[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>5</v>
       </c>
       <c r="F16" s="1">
@@ -1743,7 +1746,7 @@
         <v>1.4</v>
       </c>
       <c r="G16" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 7, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>3.3</v>
       </c>
       <c r="H16" s="1">
@@ -1751,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], 6, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>7</v>
       </c>
       <c r="J16" s="1">
@@ -1780,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1812,7 +1815,7 @@
         <v>FrontRight ESC</v>
       </c>
       <c r="B2" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
       <c r="C2" s="6">
@@ -1830,7 +1833,7 @@
         <v>MidRight ESC</v>
       </c>
       <c r="B3" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
       <c r="C3" s="6">
@@ -1848,7 +1851,7 @@
         <v>BackRight ESC</v>
       </c>
       <c r="B4" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
       <c r="C4" s="6">
@@ -1866,7 +1869,7 @@
         <v>FrontLeft ESC</v>
       </c>
       <c r="B5" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
       <c r="C5" s="6">
@@ -1884,7 +1887,7 @@
         <v>MidLeft ESC</v>
       </c>
       <c r="B6" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
       <c r="C6" s="6">
@@ -1902,7 +1905,7 @@
         <v>BackLeft ESC</v>
       </c>
       <c r="B7" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
       <c r="C7" s="6">
@@ -1920,7 +1923,7 @@
         <v>Battery Pack</v>
       </c>
       <c r="B8" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>LiPo</v>
       </c>
       <c r="C8" s="6">
@@ -1938,7 +1941,7 @@
         <v>FrontRight Motor</v>
       </c>
       <c r="B9" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>Motor</v>
       </c>
       <c r="C9" s="6">
@@ -1956,7 +1959,7 @@
         <v>MidRight Motor</v>
       </c>
       <c r="B10" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>Motor</v>
       </c>
       <c r="C10" s="6">
@@ -1974,7 +1977,7 @@
         <v>BackRight Motor</v>
       </c>
       <c r="B11" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>Motor</v>
       </c>
       <c r="C11" s="6">
@@ -1992,7 +1995,7 @@
         <v>FrontLeft Motor</v>
       </c>
       <c r="B12" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>Motor</v>
       </c>
       <c r="C12" s="6">
@@ -2010,7 +2013,7 @@
         <v>MidLeft Motor</v>
       </c>
       <c r="B13" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>Motor</v>
       </c>
       <c r="C13" s="6">
@@ -2028,7 +2031,7 @@
         <v>BackLeft Motor</v>
       </c>
       <c r="B14" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>Motor</v>
       </c>
       <c r="C14" s="6">
@@ -2046,7 +2049,7 @@
         <v>Logic Supply</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>5V Regulator</v>
       </c>
       <c r="C15" s="6">
@@ -2064,7 +2067,7 @@
         <v>Master Control</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], 2, FALSE))</f>
+        <f>IF(ISBLANK(Table6[[#This Row],[ItemID]]), "", VLOOKUP(Table6[[#This Row],[ItemID]], ItemMap[], COLUMN(ItemMap[ComponentID])-COLUMN(ItemMap[])+1, FALSE))</f>
         <v>Raspberry Pi</v>
       </c>
       <c r="C16" s="6">

--- a/Electrical/PowerBudget.xlsx
+++ b/Electrical/PowerBudget.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Status:</t>
+  </si>
+  <si>
+    <t>12V Regulator</t>
+  </si>
+  <si>
+    <t>Dirty Power</t>
   </si>
 </sst>
 </file>
@@ -237,7 +243,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -253,83 +259,55 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -360,18 +338,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ComponentData" displayName="ComponentData" ref="A1:I6" totalsRowShown="0">
-  <autoFilter ref="A1:I6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ComponentData" displayName="ComponentData" ref="A1:I7" totalsRowShown="0">
+  <autoFilter ref="A1:I7"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="ID" dataDxfId="27">
+    <tableColumn id="1" name="ID" dataDxfId="23">
       <calculatedColumnFormula>ComponentData[[#This Row],[Manufacturer]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Name" dataDxfId="26"/>
-    <tableColumn id="2" name="Manufacturer" dataDxfId="25"/>
-    <tableColumn id="3" name="Source" dataDxfId="24"/>
-    <tableColumn id="4" name="Price" dataDxfId="23"/>
-    <tableColumn id="5" name="Consumption (W)" dataDxfId="2"/>
-    <tableColumn id="7" name="Output (V)" dataDxfId="22"/>
+    <tableColumn id="6" name="Name" dataDxfId="22"/>
+    <tableColumn id="2" name="Manufacturer" dataDxfId="21"/>
+    <tableColumn id="3" name="Source" dataDxfId="20"/>
+    <tableColumn id="4" name="Price" dataDxfId="19"/>
+    <tableColumn id="5" name="Consumption (W)" dataDxfId="18"/>
+    <tableColumn id="7" name="Output (V)" dataDxfId="17"/>
     <tableColumn id="8" name="Output (A)"/>
     <tableColumn id="9" name="Battery (mAh)"/>
   </tableColumns>
@@ -383,31 +361,31 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Analysis" displayName="Analysis" ref="A1:K19" totalsRowShown="0">
   <autoFilter ref="A1:K19"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="ItemID" dataDxfId="21"/>
-    <tableColumn id="2" name="ComponentID" dataDxfId="20"/>
-    <tableColumn id="5" name="Supply Item" dataDxfId="19"/>
+    <tableColumn id="1" name="ItemID" dataDxfId="16"/>
+    <tableColumn id="2" name="ComponentID" dataDxfId="15"/>
+    <tableColumn id="5" name="Supply Item" dataDxfId="14"/>
     <tableColumn id="13" name="Supply Component" dataDxfId="13">
       <calculatedColumnFormula>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Input Voltage (V)" dataDxfId="18">
+    <tableColumn id="11" name="Input Voltage (V)" dataDxfId="12">
       <calculatedColumnFormula>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Input Current (A)" dataDxfId="17">
+    <tableColumn id="9" name="Input Current (A)" dataDxfId="11">
       <calculatedColumnFormula>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Output Voltage (V)" dataDxfId="10">
       <calculatedColumnFormula>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Output Current (A)" dataDxfId="16">
+    <tableColumn id="7" name="Output Current (A)" dataDxfId="9">
       <calculatedColumnFormula>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Self Consumption (W)" dataDxfId="9">
+    <tableColumn id="3" name="Self Consumption (W)" dataDxfId="8">
       <calculatedColumnFormula>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Children Consumption (W)" dataDxfId="15">
+    <tableColumn id="4" name="Children Consumption (W)" dataDxfId="7">
       <calculatedColumnFormula>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total Consumption (W)" dataDxfId="14">
+    <tableColumn id="6" name="Total Consumption (W)" dataDxfId="6">
       <calculatedColumnFormula>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -416,19 +394,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Results" displayName="Results" ref="A1:D16" totalsRowShown="0">
-  <autoFilter ref="A1:D16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Results" displayName="Results" ref="A1:D17" totalsRowShown="0">
+  <autoFilter ref="A1:D17"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ItemID" dataDxfId="12">
+    <tableColumn id="1" name="ItemID" dataDxfId="5">
       <calculatedColumnFormula>Analysis[[#This Row],[ItemID]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Component" dataDxfId="11">
+    <tableColumn id="2" name="Component" dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Current Output % Capacity" dataDxfId="4">
+    <tableColumn id="3" name="Current Output % Capacity" dataDxfId="3">
       <calculatedColumnFormula>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="3">
+    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="2">
       <calculatedColumnFormula>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -734,13 +712,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +810,12 @@
       <c r="F3" s="4">
         <v>1020</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
       <c r="I3">
         <v>0</v>
       </c>
@@ -849,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="I4">
         <v>5000</v>
@@ -903,6 +886,29 @@
         <v>0.5</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>550</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
@@ -923,7 +929,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,11 +1003,11 @@
       </c>
       <c r="G2">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1">
         <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>510.58333333333331</v>
+        <v>382.9375</v>
       </c>
       <c r="I2">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1024,11 +1030,11 @@
         <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>LiPo</v>
+        <v>12V Regulator</v>
       </c>
       <c r="E3" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1060,104 +1066,104 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>46</v>
+      <c r="A4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>5V Regulator</v>
+        <v>LiPo</v>
       </c>
       <c r="E4" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1">
         <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>1.4</v>
+        <v>382.9375</v>
       </c>
       <c r="G4" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1">
         <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>0</v>
+        <v>510.58333333333331</v>
       </c>
       <c r="I4" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>0</v>
+        <v>6127</v>
       </c>
       <c r="K4" s="1">
         <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
-        <v>7</v>
+        <v>6127</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="str">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>LiPo</v>
+        <v>5V Regulator</v>
       </c>
       <c r="E5" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
         <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="G5">
+        <v>1.4</v>
+      </c>
+      <c r="G5" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="H5" s="1">
         <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1">
         <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
-        <v>1020</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D6" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
+        <v>12V Regulator</v>
       </c>
       <c r="E6" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1169,19 +1175,19 @@
       </c>
       <c r="G6">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1">
         <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="K6" s="1">
         <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
@@ -1190,17 +1196,17 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>LiPo</v>
+        <v>VEX ESC</v>
       </c>
       <c r="E7" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1212,19 +1218,19 @@
       </c>
       <c r="G7">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
         <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="J7" s="1">
         <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
@@ -1233,17 +1239,17 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D8" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
+        <v>12V Regulator</v>
       </c>
       <c r="E8" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1255,19 +1261,19 @@
       </c>
       <c r="G8">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H8" s="1">
         <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="K8" s="1">
         <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
@@ -1276,17 +1282,17 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D9" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>LiPo</v>
+        <v>VEX ESC</v>
       </c>
       <c r="E9" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1298,19 +1304,19 @@
       </c>
       <c r="G9">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="J9" s="1">
         <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
@@ -1319,17 +1325,17 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D10" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
+        <v>12V Regulator</v>
       </c>
       <c r="E10" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1341,19 +1347,19 @@
       </c>
       <c r="G10">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H10" s="1">
         <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I10">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="K10" s="1">
         <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
@@ -1362,17 +1368,17 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D11" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>LiPo</v>
+        <v>VEX ESC</v>
       </c>
       <c r="E11" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1384,19 +1390,19 @@
       </c>
       <c r="G11">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
         <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="J11" s="1">
         <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
@@ -1405,17 +1411,17 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D12" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
+        <v>12V Regulator</v>
       </c>
       <c r="E12" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1427,19 +1433,19 @@
       </c>
       <c r="G12">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H12" s="1">
         <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I12">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
         <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="K12" s="1">
         <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
@@ -1448,17 +1454,17 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D13" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>LiPo</v>
+        <v>VEX ESC</v>
       </c>
       <c r="E13" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1470,19 +1476,19 @@
       </c>
       <c r="G13">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
         <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="J13" s="1">
         <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
@@ -1491,17 +1497,17 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D14" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
+        <v>12V Regulator</v>
       </c>
       <c r="E14" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1513,19 +1519,19 @@
       </c>
       <c r="G14">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H14" s="1">
         <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I14">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
         <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="K14" s="1">
         <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
@@ -1534,17 +1540,17 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D15" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>LiPo</v>
+        <v>VEX ESC</v>
       </c>
       <c r="E15" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1556,19 +1562,19 @@
       </c>
       <c r="G15">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
         <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="J15" s="1">
         <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
@@ -1577,17 +1583,17 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D16" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
+        <v>12V Regulator</v>
       </c>
       <c r="E16" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1599,19 +1605,19 @@
       </c>
       <c r="G16">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H16" s="1">
         <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I16">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
         <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="K16" s="1">
         <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
@@ -1619,22 +1625,28 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="str">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v/>
+        <v>VEX ESC</v>
       </c>
       <c r="E17" s="1">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1">
         <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
+        <v>85</v>
+      </c>
+      <c r="G17">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
@@ -1642,9 +1654,9 @@
         <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v>0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="J17" s="1">
         <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
@@ -1652,7 +1664,7 @@
       </c>
       <c r="K17" s="1">
         <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
-        <v>0</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1731,10 +1743,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 C5:C17">
       <formula1>ItemIDs</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17">
       <formula1>ComponentIDs</formula1>
     </dataValidation>
   </dataValidations>
@@ -1750,7 +1762,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,11 +1798,11 @@
       </c>
       <c r="C2" s="6">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>0.51058333333333328</v>
+        <v>0.95734375000000005</v>
       </c>
       <c r="D2" s="5">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
-        <v>9.7927207442467772</v>
+        <v>13.056960992329035</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1821,15 +1833,15 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>Master Control</v>
+        <v>Dirty Power</v>
       </c>
       <c r="B4" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>Raspberry Pi</v>
+        <v>12V Regulator</v>
       </c>
       <c r="C4" s="6">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>0</v>
+        <v>0.92833333333333334</v>
       </c>
       <c r="D4" s="5" t="str">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
@@ -1839,15 +1851,15 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>FrontRight ESC</v>
+        <v>Master Control</v>
       </c>
       <c r="B5" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
+        <v>Raspberry Pi</v>
       </c>
       <c r="C5" s="6">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>1.4166666666666667</v>
+        <v>0</v>
       </c>
       <c r="D5" s="5" t="str">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
@@ -1857,15 +1869,15 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>FrontRight Motor</v>
+        <v>FrontRight ESC</v>
       </c>
       <c r="B6" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>Motor</v>
+        <v>VEX ESC</v>
       </c>
       <c r="C6" s="6">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>0</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="D6" s="5" t="str">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
@@ -1875,15 +1887,15 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>MidRight ESC</v>
+        <v>FrontRight Motor</v>
       </c>
       <c r="B7" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
+        <v>Motor</v>
       </c>
       <c r="C7" s="6">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>1.4166666666666667</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5" t="str">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
@@ -1893,15 +1905,15 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>MidRight Motor</v>
+        <v>MidRight ESC</v>
       </c>
       <c r="B8" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>Motor</v>
+        <v>VEX ESC</v>
       </c>
       <c r="C8" s="6">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>0</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="D8" s="5" t="str">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
@@ -1911,15 +1923,15 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>BackRight ESC</v>
+        <v>MidRight Motor</v>
       </c>
       <c r="B9" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
+        <v>Motor</v>
       </c>
       <c r="C9" s="6">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>1.4166666666666667</v>
+        <v>0</v>
       </c>
       <c r="D9" s="5" t="str">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
@@ -1929,15 +1941,15 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>BackRight Motor</v>
+        <v>BackRight ESC</v>
       </c>
       <c r="B10" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>Motor</v>
+        <v>VEX ESC</v>
       </c>
       <c r="C10" s="6">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>0</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="D10" s="5" t="str">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
@@ -1947,15 +1959,15 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>FrontLeft ESC</v>
+        <v>BackRight Motor</v>
       </c>
       <c r="B11" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
+        <v>Motor</v>
       </c>
       <c r="C11" s="6">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>1.4166666666666667</v>
+        <v>0</v>
       </c>
       <c r="D11" s="5" t="str">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
@@ -1965,15 +1977,15 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>FrontLeft Motor</v>
+        <v>FrontLeft ESC</v>
       </c>
       <c r="B12" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>Motor</v>
+        <v>VEX ESC</v>
       </c>
       <c r="C12" s="6">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>0</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="D12" s="5" t="str">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
@@ -1983,15 +1995,15 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>MidLeft ESC</v>
+        <v>FrontLeft Motor</v>
       </c>
       <c r="B13" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
+        <v>Motor</v>
       </c>
       <c r="C13" s="6">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>1.4166666666666667</v>
+        <v>0</v>
       </c>
       <c r="D13" s="5" t="str">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
@@ -2001,15 +2013,15 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>MidLeft Motor</v>
+        <v>MidLeft ESC</v>
       </c>
       <c r="B14" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>Motor</v>
+        <v>VEX ESC</v>
       </c>
       <c r="C14" s="6">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>0</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="D14" s="5" t="str">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
@@ -2019,15 +2031,15 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>BackLeft ESC</v>
+        <v>MidLeft Motor</v>
       </c>
       <c r="B15" s="1" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
+        <v>Motor</v>
       </c>
       <c r="C15" s="6">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>1.4166666666666667</v>
+        <v>0</v>
       </c>
       <c r="D15" s="5" t="str">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
@@ -2037,51 +2049,65 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>BackLeft Motor</v>
+        <v>BackLeft ESC</v>
       </c>
       <c r="B16" s="1" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>Motor</v>
+        <v>VEX ESC</v>
       </c>
       <c r="C16" s="6">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>0</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="D16" s="5" t="str">
         <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="str">
+        <f>Analysis[[#This Row],[ItemID]]</f>
+        <v>BackLeft Motor</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>Motor</v>
+      </c>
+      <c r="C17" s="6">
+        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" s="6"/>
       <c r="D23" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C16">
+  <conditionalFormatting sqref="C2:C17">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="percent" val="75"/>
@@ -2100,7 +2126,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A17">
       <formula1>ItemIDs</formula1>
     </dataValidation>
   </dataValidations>

--- a/Electrical/PowerBudget.xlsx
+++ b/Electrical/PowerBudget.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7950" yWindow="0" windowWidth="18825" windowHeight="4845" activeTab="1"/>
+    <workbookView xWindow="7950" yWindow="0" windowWidth="18825" windowHeight="4845" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Component Data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -193,6 +193,48 @@
   </si>
   <si>
     <t>Dirty Power</t>
+  </si>
+  <si>
+    <t>Rocket M3</t>
+  </si>
+  <si>
+    <t>Antenna</t>
+  </si>
+  <si>
+    <t>Ubiquity</t>
+  </si>
+  <si>
+    <t>http://www.doubleradius.com/s.nl/sc.1/category./.f?search=rocket+m3</t>
+  </si>
+  <si>
+    <t>POE Injector</t>
+  </si>
+  <si>
+    <t>Transceiver</t>
+  </si>
+  <si>
+    <t>Homemade POE injection</t>
+  </si>
+  <si>
+    <t>Gabe</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>RM3</t>
+  </si>
+  <si>
+    <t>Comms Power</t>
+  </si>
+  <si>
+    <t>AMO-3G12 - Ubiquiti Antenna 3.4-3.7 GHz 12dBi Omni-directional</t>
+  </si>
+  <si>
+    <t>3GHz Antenna</t>
+  </si>
+  <si>
+    <t>http://www.balticnetworks.com/ubiquiti-airmax-omni-3-4-3-7-ghz-12dbi-omni-directional-antenna.html</t>
   </si>
 </sst>
 </file>
@@ -231,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -239,11 +281,47 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -259,55 +337,20 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -319,7 +362,16 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -338,28 +390,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ComponentData" displayName="ComponentData" ref="A1:I7" totalsRowShown="0">
-  <autoFilter ref="A1:I7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ComponentData" displayName="ComponentData" ref="A1:I10" totalsRowShown="0">
+  <autoFilter ref="A1:I10"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="ID" dataDxfId="23">
-      <calculatedColumnFormula>ComponentData[[#This Row],[Manufacturer]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="Name" dataDxfId="22"/>
-    <tableColumn id="2" name="Manufacturer" dataDxfId="21"/>
-    <tableColumn id="3" name="Source" dataDxfId="20"/>
-    <tableColumn id="4" name="Price" dataDxfId="19"/>
-    <tableColumn id="5" name="Consumption (W)" dataDxfId="18"/>
-    <tableColumn id="7" name="Output (V)" dataDxfId="17"/>
-    <tableColumn id="8" name="Output (A)"/>
-    <tableColumn id="9" name="Battery (mAh)"/>
+    <tableColumn id="1" name="ID" dataDxfId="20"/>
+    <tableColumn id="6" name="Name" dataDxfId="25"/>
+    <tableColumn id="2" name="Manufacturer" dataDxfId="19"/>
+    <tableColumn id="3" name="Source" dataDxfId="17"/>
+    <tableColumn id="4" name="Price" dataDxfId="18"/>
+    <tableColumn id="5" name="Consumption (W)" dataDxfId="24"/>
+    <tableColumn id="7" name="Output (V)" dataDxfId="23"/>
+    <tableColumn id="8" name="Output (A)" dataDxfId="22"/>
+    <tableColumn id="9" name="Battery (mAh)" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Analysis" displayName="Analysis" ref="A1:K19" totalsRowShown="0">
-  <autoFilter ref="A1:K19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Analysis" displayName="Analysis" ref="A1:K36" totalsRowShown="0">
+  <autoFilter ref="A1:K36"/>
   <tableColumns count="11">
     <tableColumn id="1" name="ItemID" dataDxfId="16"/>
     <tableColumn id="2" name="ComponentID" dataDxfId="15"/>
@@ -367,26 +417,26 @@
     <tableColumn id="13" name="Supply Component" dataDxfId="13">
       <calculatedColumnFormula>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Input Voltage (V)" dataDxfId="12">
-      <calculatedColumnFormula>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</calculatedColumnFormula>
+    <tableColumn id="11" name="Input Voltage (V)" dataDxfId="6">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Input Current (A)" dataDxfId="11">
-      <calculatedColumnFormula>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</calculatedColumnFormula>
+    <tableColumn id="9" name="Input Current (A)" dataDxfId="5">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Output Voltage (V)" dataDxfId="10">
-      <calculatedColumnFormula>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</calculatedColumnFormula>
+    <tableColumn id="8" name="Output Voltage (V)" dataDxfId="3">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Output Current (A)" dataDxfId="9">
-      <calculatedColumnFormula>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</calculatedColumnFormula>
+    <tableColumn id="7" name="Output Current (A)" dataDxfId="4">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Self Consumption (W)" dataDxfId="8">
-      <calculatedColumnFormula>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</calculatedColumnFormula>
+    <tableColumn id="3" name="Self Consumption (W)" dataDxfId="2">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Children Consumption (W)" dataDxfId="7">
-      <calculatedColumnFormula>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</calculatedColumnFormula>
+    <tableColumn id="4" name="Children Consumption (W)" dataDxfId="1">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total Consumption (W)" dataDxfId="6">
-      <calculatedColumnFormula>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</calculatedColumnFormula>
+    <tableColumn id="6" name="Total Consumption (W)" dataDxfId="0">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -394,20 +444,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Results" displayName="Results" ref="A1:D17" totalsRowShown="0">
-  <autoFilter ref="A1:D17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Results" displayName="Results" ref="A1:D30" totalsRowShown="0">
+  <autoFilter ref="A1:D30"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ItemID" dataDxfId="5">
-      <calculatedColumnFormula>Analysis[[#This Row],[ItemID]]</calculatedColumnFormula>
+    <tableColumn id="1" name="ItemID" dataDxfId="10">
+      <calculatedColumnFormula>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Component" dataDxfId="4">
-      <calculatedColumnFormula>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
+    <tableColumn id="2" name="Component" dataDxfId="9">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Current Output % Capacity" dataDxfId="3">
-      <calculatedColumnFormula>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</calculatedColumnFormula>
+    <tableColumn id="3" name="Current Output % Capacity" dataDxfId="8">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="2">
-      <calculatedColumnFormula>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</calculatedColumnFormula>
+    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="7">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -712,19 +762,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -772,7 +822,7 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3">
@@ -784,10 +834,10 @@
       <c r="G2" s="5">
         <v>12</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>60</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="5">
         <v>0</v>
       </c>
     </row>
@@ -801,7 +851,7 @@
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="3">
@@ -813,10 +863,10 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
         <v>0</v>
       </c>
     </row>
@@ -826,18 +876,18 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4">
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>16</v>
-      </c>
-      <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5">
         <v>400</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>5000</v>
       </c>
     </row>
@@ -849,7 +899,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4">
         <v>0</v>
@@ -857,10 +907,10 @@
       <c r="G5" s="5">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>10</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>0</v>
       </c>
     </row>
@@ -872,7 +922,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="3">
         <v>30</v>
       </c>
@@ -882,10 +932,10 @@
       <c r="G6" s="5">
         <v>3.3</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>0.5</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>0</v>
       </c>
     </row>
@@ -897,7 +947,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4">
         <v>0</v>
@@ -905,16 +955,103 @@
       <c r="G7" s="5">
         <v>12</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>550</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="3">
+        <v>180</v>
+      </c>
+      <c r="F8" s="4">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="5">
+        <v>24</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="3">
+        <v>150</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -923,13 +1060,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,770 +1120,1418 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E2" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H2" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I2" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J2" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v/>
+      </c>
+      <c r="K2" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>12V Regulator</v>
+      </c>
+      <c r="E3" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>12</v>
+      </c>
+      <c r="F3" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G3" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v>1.4</v>
+      </c>
+      <c r="I3" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>7</v>
+      </c>
+      <c r="K3" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
-        <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>382.9375</v>
-      </c>
-      <c r="I2">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
+      <c r="D4" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>LiPo</v>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>24</v>
+      </c>
+      <c r="F4" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v>0.4375</v>
+      </c>
+      <c r="G4" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>24</v>
+      </c>
+      <c r="H4" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I4" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>2.5</v>
+      </c>
+      <c r="J4" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>8</v>
+      </c>
+      <c r="K4" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>POE Injector</v>
+      </c>
+      <c r="E5" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>24</v>
+      </c>
+      <c r="F5" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G5" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I5" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>8</v>
+      </c>
+      <c r="J5" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>RM3</v>
+      </c>
+      <c r="E6" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="G6" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I6" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>LiPo</v>
+      </c>
+      <c r="E7" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>24</v>
+      </c>
+      <c r="F7" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v>255.29166666666666</v>
+      </c>
+      <c r="G7" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>12</v>
+      </c>
+      <c r="H7" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v>510.58333333333331</v>
+      </c>
+      <c r="I7" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>6127</v>
       </c>
-      <c r="K2" s="1">
-        <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
+      <c r="K7" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v>6127</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D8" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>5V Regulator</v>
+      </c>
+      <c r="E8" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v>1.4</v>
+      </c>
+      <c r="G8" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>3.3</v>
+      </c>
+      <c r="H8" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>7</v>
+      </c>
+      <c r="J8" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D9" s="2" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>12V Regulator</v>
       </c>
-      <c r="E3" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="E9" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12</v>
       </c>
-      <c r="F3" s="1">
-        <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="G3" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>5</v>
-      </c>
-      <c r="H3" s="1">
-        <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>1.4</v>
-      </c>
-      <c r="I3" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>7</v>
-      </c>
-      <c r="K3" s="1">
-        <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F9" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v>85</v>
+      </c>
+      <c r="G9">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>12</v>
+      </c>
+      <c r="H9" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v>85</v>
+      </c>
+      <c r="I9" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>1020</v>
+      </c>
+      <c r="K9" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>VEX ESC</v>
+      </c>
+      <c r="E10" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>12</v>
+      </c>
+      <c r="F10" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v>85</v>
+      </c>
+      <c r="G10">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I10" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>1020</v>
+      </c>
+      <c r="J10" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>LiPo</v>
-      </c>
-      <c r="E4" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>16</v>
-      </c>
-      <c r="F4" s="1">
-        <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>382.9375</v>
-      </c>
-      <c r="G4" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="D11" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>12V Regulator</v>
+      </c>
+      <c r="E11" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12</v>
       </c>
-      <c r="H4" s="1">
-        <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>510.58333333333331</v>
-      </c>
-      <c r="I4" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>6127</v>
-      </c>
-      <c r="K4" s="1">
-        <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
-        <v>6127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>5V Regulator</v>
-      </c>
-      <c r="E5" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
-        <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>1.4</v>
-      </c>
-      <c r="G5" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>3.3</v>
-      </c>
-      <c r="H5" s="1">
-        <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>7</v>
-      </c>
-      <c r="J5" s="1">
-        <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="F11" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v>85</v>
+      </c>
+      <c r="G11">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>12</v>
+      </c>
+      <c r="H11" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v>85</v>
+      </c>
+      <c r="I11" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>1020</v>
+      </c>
+      <c r="K11" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>VEX ESC</v>
+      </c>
+      <c r="E12" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>12</v>
+      </c>
+      <c r="F12" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v>85</v>
+      </c>
+      <c r="G12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I12" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>1020</v>
+      </c>
+      <c r="J12" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D13" s="2" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>12V Regulator</v>
       </c>
-      <c r="E6" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="E13" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12</v>
       </c>
-      <c r="F6" s="1">
-        <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+      <c r="F13" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
         <v>85</v>
       </c>
-      <c r="G6">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="G13">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="H6" s="1">
-        <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+      <c r="H13" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v>85</v>
       </c>
-      <c r="I6">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
+      <c r="I13" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>1020</v>
       </c>
-      <c r="K6" s="1">
-        <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
+      <c r="K13" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v>1020</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="str">
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
-      <c r="E7" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="E14" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12</v>
       </c>
-      <c r="F7" s="1">
-        <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+      <c r="F14" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
         <v>85</v>
       </c>
-      <c r="G7">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="G14">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I14" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>1020</v>
       </c>
-      <c r="J7" s="1">
-        <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
+      <c r="J14" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v>1020</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D15" s="2" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>12V Regulator</v>
       </c>
-      <c r="E8" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="E15" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12</v>
       </c>
-      <c r="F8" s="1">
-        <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+      <c r="F15" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
         <v>85</v>
       </c>
-      <c r="G8">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="G15">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="H8" s="1">
-        <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+      <c r="H15" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v>85</v>
       </c>
-      <c r="I8">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
+      <c r="I15" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>1020</v>
       </c>
-      <c r="K8" s="1">
-        <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
+      <c r="K15" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v>1020</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="str">
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
-      <c r="E9" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="E16" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12</v>
       </c>
-      <c r="F9" s="1">
-        <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+      <c r="F16" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
         <v>85</v>
       </c>
-      <c r="G9">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="G16">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I16" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>1020</v>
       </c>
-      <c r="J9" s="1">
-        <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
+      <c r="J16" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v>1020</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D17" s="2" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>12V Regulator</v>
       </c>
-      <c r="E10" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="E17" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12</v>
       </c>
-      <c r="F10" s="1">
-        <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+      <c r="F17" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
         <v>85</v>
       </c>
-      <c r="G10">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="G17">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="H10" s="1">
-        <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+      <c r="H17" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v>85</v>
       </c>
-      <c r="I10">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
+      <c r="I17" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>1020</v>
       </c>
-      <c r="K10" s="1">
-        <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
+      <c r="K17" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v>1020</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="str">
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
-      <c r="E11" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="E18" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12</v>
       </c>
-      <c r="F11" s="1">
-        <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+      <c r="F18" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
         <v>85</v>
       </c>
-      <c r="G11">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="G18">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I18" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>1020</v>
       </c>
-      <c r="J11" s="1">
-        <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
+      <c r="J18" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v>1020</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D19" s="2" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>12V Regulator</v>
       </c>
-      <c r="E12" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="E19" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12</v>
       </c>
-      <c r="F12" s="1">
-        <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+      <c r="F19" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
         <v>85</v>
       </c>
-      <c r="G12">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="G19">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="H12" s="1">
-        <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+      <c r="H19" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v>85</v>
       </c>
-      <c r="I12">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
+      <c r="I19" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>1020</v>
       </c>
-      <c r="K12" s="1">
-        <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
+      <c r="K19" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v>1020</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="str">
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="str">
         <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
-      <c r="E13" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="E20" s="1">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12</v>
       </c>
-      <c r="F13" s="1">
-        <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+      <c r="F20" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
         <v>85</v>
       </c>
-      <c r="G13">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+      <c r="G20">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I20" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>1020</v>
       </c>
-      <c r="J13" s="1">
-        <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
+      <c r="J20" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v>1020</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>12V Regulator</v>
-      </c>
-      <c r="E14" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>12</v>
-      </c>
-      <c r="F14" s="1">
-        <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="G14">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>12</v>
-      </c>
-      <c r="H14" s="1">
-        <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="I14">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>1020</v>
-      </c>
-      <c r="K14" s="1">
-        <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
-      </c>
-      <c r="E15" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>12</v>
-      </c>
-      <c r="F15" s="1">
-        <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="G15">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>1020</v>
-      </c>
-      <c r="J15" s="1">
-        <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>12V Regulator</v>
-      </c>
-      <c r="E16" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>12</v>
-      </c>
-      <c r="F16" s="1">
-        <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="G16">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>12</v>
-      </c>
-      <c r="H16" s="1">
-        <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="I16">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>1020</v>
-      </c>
-      <c r="K16" s="1">
-        <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
-      </c>
-      <c r="E17" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>12</v>
-      </c>
-      <c r="F17" s="1">
-        <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="G17">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>1020</v>
-      </c>
-      <c r="J17" s="1">
-        <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E18" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E19" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <f>IF(Analysis[[#This Row],[Input Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <f>IF(Analysis[[#This Row],[Output Voltage (V)]]&lt;=0, 0, Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), 0, VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <f>SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]])</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <f>Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]]</f>
-        <v>0</v>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F21" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J21" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v/>
+      </c>
+      <c r="K21" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F22" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J22" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v/>
+      </c>
+      <c r="K22" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F23" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J23" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v/>
+      </c>
+      <c r="K23" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F24" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J24" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v/>
+      </c>
+      <c r="K24" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F25" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J25" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v/>
+      </c>
+      <c r="K25" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F26" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J26" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v/>
+      </c>
+      <c r="K26" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F27" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J27" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v/>
+      </c>
+      <c r="K27" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F28" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J28" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v/>
+      </c>
+      <c r="K28" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F29" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J29" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v/>
+      </c>
+      <c r="K29" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F30" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J30" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v/>
+      </c>
+      <c r="K30" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F31" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J31" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v/>
+      </c>
+      <c r="K31" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F32" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H32" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J32" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v/>
+      </c>
+      <c r="K32" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F33" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J33" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v/>
+      </c>
+      <c r="K33" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F34" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J34" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v/>
+      </c>
+      <c r="K34" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F35" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J35" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v/>
+      </c>
+      <c r="K35" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="str">
+        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="F36" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v/>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J36" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v/>
+      </c>
+      <c r="K36" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 C5:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6 C8:C20">
       <formula1>ItemIDs</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B20">
       <formula1>ComponentIDs</formula1>
     </dataValidation>
   </dataValidations>
@@ -1759,10 +2544,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,37 +2574,37 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>Analysis[[#This Row],[ItemID]]</f>
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>Battery Pack</v>
       </c>
       <c r="B2" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>LiPo</v>
       </c>
-      <c r="C2" s="6">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>0.95734375000000005</v>
-      </c>
-      <c r="D2" s="5">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
-        <v>13.056960992329035</v>
+      <c r="C2" s="6" t="e">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" s="5" t="e">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>Analysis[[#This Row],[ItemID]]</f>
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>Logic Supply</v>
       </c>
       <c r="B3" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>5V Regulator</v>
       </c>
       <c r="C3" s="6">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
         <v>0.13999999999999999</v>
       </c>
       <c r="D3" s="5" t="str">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
       <c r="G3" t="s">
@@ -1832,282 +2617,492 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>Dirty Power</v>
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v>Comms Power</v>
       </c>
       <c r="B4" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>12V Regulator</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>POE Injector</v>
       </c>
       <c r="C4" s="6">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>0.92833333333333334</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D4" s="5" t="str">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>Master Control</v>
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v>Transceiver</v>
       </c>
       <c r="B5" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>Raspberry Pi</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>RM3</v>
       </c>
       <c r="C5" s="6">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
         <v>0</v>
       </c>
       <c r="D5" s="5" t="str">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>FrontRight ESC</v>
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v>Antenna</v>
       </c>
       <c r="B6" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>3GHz Antenna</v>
       </c>
       <c r="C6" s="6">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>1.4166666666666667</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v>0</v>
       </c>
       <c r="D6" s="5" t="str">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>FrontRight Motor</v>
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v>Dirty Power</v>
       </c>
       <c r="B7" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>Motor</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>12V Regulator</v>
       </c>
       <c r="C7" s="6">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v>0.92833333333333334</v>
       </c>
       <c r="D7" s="5" t="str">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>MidRight ESC</v>
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v>Master Control</v>
       </c>
       <c r="B8" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>Raspberry Pi</v>
       </c>
       <c r="C8" s="6">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>1.4166666666666667</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v>0</v>
       </c>
       <c r="D8" s="5" t="str">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>MidRight Motor</v>
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v>FrontRight ESC</v>
       </c>
       <c r="B9" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>Motor</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>VEX ESC</v>
       </c>
       <c r="C9" s="6">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v>1.4166666666666667</v>
       </c>
       <c r="D9" s="5" t="str">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>BackRight ESC</v>
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v>FrontRight Motor</v>
       </c>
       <c r="B10" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>Motor</v>
       </c>
       <c r="C10" s="6">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>1.4166666666666667</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v>0</v>
       </c>
       <c r="D10" s="5" t="str">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>BackRight Motor</v>
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v>MidRight ESC</v>
       </c>
       <c r="B11" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>Motor</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>VEX ESC</v>
       </c>
       <c r="C11" s="6">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v>1.4166666666666667</v>
       </c>
       <c r="D11" s="5" t="str">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>FrontLeft ESC</v>
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v>MidRight Motor</v>
       </c>
       <c r="B12" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>Motor</v>
       </c>
       <c r="C12" s="6">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>1.4166666666666667</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v>0</v>
       </c>
       <c r="D12" s="5" t="str">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>FrontLeft Motor</v>
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v>BackRight ESC</v>
       </c>
       <c r="B13" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>Motor</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>VEX ESC</v>
       </c>
       <c r="C13" s="6">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v>1.4166666666666667</v>
       </c>
       <c r="D13" s="5" t="str">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>MidLeft ESC</v>
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v>BackRight Motor</v>
       </c>
       <c r="B14" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>VEX ESC</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>Motor</v>
       </c>
       <c r="C14" s="6">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>1.4166666666666667</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v>0</v>
       </c>
       <c r="D14" s="5" t="str">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>Analysis[[#This Row],[ItemID]]</f>
-        <v>MidLeft Motor</v>
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v>FrontLeft ESC</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>Motor</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>VEX ESC</v>
       </c>
       <c r="C15" s="6">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v>1.4166666666666667</v>
       </c>
       <c r="D15" s="5" t="str">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>Analysis[[#This Row],[ItemID]]</f>
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v>FrontLeft Motor</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>Motor</v>
+      </c>
+      <c r="C16" s="6">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v>MidLeft ESC</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>VEX ESC</v>
+      </c>
+      <c r="C17" s="6">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v>MidLeft Motor</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>Motor</v>
+      </c>
+      <c r="C18" s="6">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>BackLeft ESC</v>
       </c>
-      <c r="B16" s="1" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+      <c r="B19" s="1" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>VEX ESC</v>
       </c>
-      <c r="C16" s="6">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
+      <c r="C19" s="6">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
         <v>1.4166666666666667</v>
       </c>
-      <c r="D16" s="5" t="str">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="str">
-        <f>Analysis[[#This Row],[ItemID]]</f>
+      <c r="D19" s="5" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>BackLeft Motor</v>
       </c>
-      <c r="B17" s="1" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[ItemID]]), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+      <c r="B20" s="1" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>Motor</v>
       </c>
-      <c r="C17" s="6">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="5" t="str">
-        <f>IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="6">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
+      <c r="A21" t="str">
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v/>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C21" s="6" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v/>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
+      <c r="A22" t="str">
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v/>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C22" s="6" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v/>
+      </c>
+      <c r="D22" s="5" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
+      <c r="A23" t="str">
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v/>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C23" s="6" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v/>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v/>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C24" s="6" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v/>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v/>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C25" s="6" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v/>
+      </c>
+      <c r="D25" s="5" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v/>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C26" s="6" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v/>
+      </c>
+      <c r="D26" s="5" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v/>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C27" s="6" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v/>
+      </c>
+      <c r="D27" s="5" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v/>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C28" s="6" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v/>
+      </c>
+      <c r="D28" s="5" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v/>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C29" s="6" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v/>
+      </c>
+      <c r="D29" s="5" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
+        <v/>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="C30" s="6" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
+        <v/>
+      </c>
+      <c r="D30" s="5" t="str">
+        <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C17">
+  <conditionalFormatting sqref="C2:C30">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="percent" val="75"/>
@@ -2118,15 +3113,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>INDIRECT(ADDRESS(ROW(), COLUMN()))="HOLD"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>INDIRECT(ADDRESS(ROW(), COLUMN()))="GO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A30">
       <formula1>ItemIDs</formula1>
     </dataValidation>
   </dataValidations>

--- a/Electrical/PowerBudget.xlsx
+++ b/Electrical/PowerBudget.xlsx
@@ -288,40 +288,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
@@ -335,6 +302,81 @@
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -393,50 +435,50 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ComponentData" displayName="ComponentData" ref="A1:I10" totalsRowShown="0">
   <autoFilter ref="A1:I10"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="ID" dataDxfId="20"/>
-    <tableColumn id="6" name="Name" dataDxfId="25"/>
-    <tableColumn id="2" name="Manufacturer" dataDxfId="19"/>
-    <tableColumn id="3" name="Source" dataDxfId="17"/>
-    <tableColumn id="4" name="Price" dataDxfId="18"/>
-    <tableColumn id="5" name="Consumption (W)" dataDxfId="24"/>
-    <tableColumn id="7" name="Output (V)" dataDxfId="23"/>
-    <tableColumn id="8" name="Output (A)" dataDxfId="22"/>
-    <tableColumn id="9" name="Battery (mAh)" dataDxfId="21"/>
+    <tableColumn id="1" name="ID" dataDxfId="26"/>
+    <tableColumn id="6" name="Name" dataDxfId="31"/>
+    <tableColumn id="2" name="Manufacturer" dataDxfId="25"/>
+    <tableColumn id="3" name="Source" dataDxfId="23"/>
+    <tableColumn id="4" name="Price" dataDxfId="24"/>
+    <tableColumn id="5" name="Consumption (W)" dataDxfId="30"/>
+    <tableColumn id="7" name="Output (V)" dataDxfId="29"/>
+    <tableColumn id="8" name="Output (A)" dataDxfId="28"/>
+    <tableColumn id="9" name="Battery (mAh)" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Analysis" displayName="Analysis" ref="A1:K36" totalsRowShown="0">
-  <autoFilter ref="A1:K36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Analysis" displayName="Analysis" ref="A1:K30" totalsRowShown="0">
+  <autoFilter ref="A1:K30"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="ItemID" dataDxfId="16"/>
-    <tableColumn id="2" name="ComponentID" dataDxfId="15"/>
-    <tableColumn id="5" name="Supply Item" dataDxfId="14"/>
-    <tableColumn id="13" name="Supply Component" dataDxfId="13">
+    <tableColumn id="1" name="ItemID" dataDxfId="22"/>
+    <tableColumn id="2" name="ComponentID" dataDxfId="21"/>
+    <tableColumn id="5" name="Supply Item" dataDxfId="20"/>
+    <tableColumn id="13" name="Supply Component" dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Input Voltage (V)" dataDxfId="6">
+    <tableColumn id="11" name="Input Voltage (V)" dataDxfId="15">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Input Current (A)" dataDxfId="5">
+    <tableColumn id="9" name="Input Current (A)" dataDxfId="14">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Output Voltage (V)" dataDxfId="3">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</calculatedColumnFormula>
+    <tableColumn id="8" name="Output Voltage (V)" dataDxfId="10">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Output Current (A)" dataDxfId="4">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</calculatedColumnFormula>
+    <tableColumn id="7" name="Output Current (A)" dataDxfId="9">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Self Consumption (W)" dataDxfId="2">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</calculatedColumnFormula>
+    <tableColumn id="3" name="Self Consumption (W)" dataDxfId="8">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Children Consumption (W)" dataDxfId="1">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</calculatedColumnFormula>
+    <tableColumn id="4" name="Children Consumption (W)" dataDxfId="7">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total Consumption (W)" dataDxfId="0">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</calculatedColumnFormula>
+    <tableColumn id="6" name="Total Consumption (W)" dataDxfId="6">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -447,16 +489,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Results" displayName="Results" ref="A1:D30" totalsRowShown="0">
   <autoFilter ref="A1:D30"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ItemID" dataDxfId="10">
+    <tableColumn id="1" name="ItemID" dataDxfId="18">
       <calculatedColumnFormula>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Component" dataDxfId="9">
+    <tableColumn id="2" name="Component" dataDxfId="17">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Current Output % Capacity" dataDxfId="8">
+    <tableColumn id="3" name="Current Output % Capacity" dataDxfId="11">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="7">
+    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="16">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -768,7 +810,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,11 +900,9 @@
         <v>7.25</v>
       </c>
       <c r="F3" s="4">
-        <v>1020</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="G3" s="5"/>
       <c r="H3" s="5">
         <v>0</v>
       </c>
@@ -981,9 +1021,7 @@
       <c r="F8" s="4">
         <v>8</v>
       </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5">
         <v>0</v>
       </c>
@@ -1039,9 +1077,7 @@
       <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="5">
         <v>0</v>
       </c>
@@ -1060,13 +1096,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,25 +1175,25 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
         <v/>
       </c>
-      <c r="G2" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H2" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v/>
-      </c>
-      <c r="I2" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="J2" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v/>
-      </c>
-      <c r="K2" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v/>
+      <c r="G2">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>24</v>
+      </c>
+      <c r="H2" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v>150.72916666666666</v>
+      </c>
+      <c r="I2" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>3617.5</v>
+      </c>
+      <c r="K2" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>3617.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1183,23 +1219,23 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G3" s="1">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>5</v>
       </c>
       <c r="H3" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v>1.4</v>
       </c>
       <c r="I3" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>7</v>
       </c>
       <c r="K3" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v>7</v>
       </c>
     </row>
@@ -1226,23 +1262,23 @@
         <v>0.4375</v>
       </c>
       <c r="G4" s="1">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>24</v>
       </c>
       <c r="H4" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="I4" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>2.5</v>
       </c>
       <c r="J4" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>8</v>
       </c>
       <c r="K4" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v>10.5</v>
       </c>
     </row>
@@ -1269,23 +1305,23 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G5" s="1">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v/>
       </c>
       <c r="I5" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>8</v>
       </c>
       <c r="J5" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v>8</v>
       </c>
     </row>
@@ -1312,23 +1348,23 @@
         <v/>
       </c>
       <c r="G6" s="1">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="H6" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v/>
       </c>
       <c r="I6" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J6" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v>0</v>
       </c>
     </row>
@@ -1352,27 +1388,27 @@
       </c>
       <c r="F7" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>255.29166666666666</v>
+        <v>150.29166666666666</v>
       </c>
       <c r="G7" s="1">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="H7" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>510.58333333333331</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v>300.58333333333331</v>
       </c>
       <c r="I7" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J7" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>6127</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>3607</v>
       </c>
       <c r="K7" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>6127</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>3607</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1398,23 +1434,23 @@
         <v>1.4</v>
       </c>
       <c r="G8" s="1">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>3.3</v>
       </c>
       <c r="H8" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>7</v>
       </c>
       <c r="J8" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v>7</v>
       </c>
     </row>
@@ -1438,27 +1474,27 @@
       </c>
       <c r="F9" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="H9" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>85</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v>50</v>
       </c>
       <c r="I9" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J9" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>600</v>
       </c>
       <c r="K9" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1481,27 +1517,27 @@
       </c>
       <c r="F10" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G10">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="H10" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v/>
       </c>
       <c r="I10" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>600</v>
       </c>
       <c r="J10" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1524,27 +1560,27 @@
       </c>
       <c r="F11" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="H11" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>85</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v>50</v>
       </c>
       <c r="I11" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J11" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>600</v>
       </c>
       <c r="K11" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1567,27 +1603,27 @@
       </c>
       <c r="F12" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="H12" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v/>
       </c>
       <c r="I12" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>600</v>
       </c>
       <c r="J12" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
       <c r="K12" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1610,27 +1646,27 @@
       </c>
       <c r="F13" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G13">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="H13" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>85</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v>50</v>
       </c>
       <c r="I13" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J13" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>600</v>
       </c>
       <c r="K13" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1653,27 +1689,27 @@
       </c>
       <c r="F14" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G14">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="H14" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v/>
       </c>
       <c r="I14" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>600</v>
       </c>
       <c r="J14" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
       <c r="K14" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1696,27 +1732,27 @@
       </c>
       <c r="F15" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="H15" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>85</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v>50</v>
       </c>
       <c r="I15" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J15" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>600</v>
       </c>
       <c r="K15" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1739,27 +1775,27 @@
       </c>
       <c r="F16" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G16">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="H16" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v/>
       </c>
       <c r="I16" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>600</v>
       </c>
       <c r="J16" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
       <c r="K16" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1782,27 +1818,27 @@
       </c>
       <c r="F17" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G17">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="H17" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>85</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v>50</v>
       </c>
       <c r="I17" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J17" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>600</v>
       </c>
       <c r="K17" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1825,27 +1861,27 @@
       </c>
       <c r="F18" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="H18" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v/>
       </c>
       <c r="I18" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>600</v>
       </c>
       <c r="J18" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
       <c r="K18" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1868,27 +1904,27 @@
       </c>
       <c r="F19" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G19">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>12</v>
       </c>
       <c r="H19" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>85</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <v>50</v>
       </c>
       <c r="I19" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="J19" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>600</v>
       </c>
       <c r="K19" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1911,27 +1947,27 @@
       </c>
       <c r="F20" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G20">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v>0</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v/>
       </c>
       <c r="I20" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <v>600</v>
       </c>
       <c r="J20" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
       <c r="K20" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>1020</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1951,23 +1987,23 @@
         <v/>
       </c>
       <c r="G21" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="H21" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v/>
       </c>
       <c r="I21" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="J21" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
       <c r="K21" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v/>
       </c>
     </row>
@@ -1988,23 +2024,23 @@
         <v/>
       </c>
       <c r="G22" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="H22" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v/>
       </c>
       <c r="I22" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="J22" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
       <c r="K22" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v/>
       </c>
     </row>
@@ -2025,23 +2061,23 @@
         <v/>
       </c>
       <c r="G23" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="H23" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v/>
       </c>
       <c r="I23" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="J23" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
       <c r="K23" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v/>
       </c>
     </row>
@@ -2062,23 +2098,23 @@
         <v/>
       </c>
       <c r="G24" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="H24" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v/>
       </c>
       <c r="I24" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="J24" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
       <c r="K24" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v/>
       </c>
     </row>
@@ -2099,23 +2135,23 @@
         <v/>
       </c>
       <c r="G25" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="H25" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v/>
       </c>
       <c r="I25" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="J25" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
       <c r="K25" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v/>
       </c>
     </row>
@@ -2136,23 +2172,23 @@
         <v/>
       </c>
       <c r="G26" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="H26" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v/>
       </c>
       <c r="I26" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="J26" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
       <c r="K26" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v/>
       </c>
     </row>
@@ -2173,23 +2209,23 @@
         <v/>
       </c>
       <c r="G27" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="H27" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v/>
       </c>
       <c r="I27" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="J27" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
       <c r="K27" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v/>
       </c>
     </row>
@@ -2210,23 +2246,23 @@
         <v/>
       </c>
       <c r="G28" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="H28" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v/>
       </c>
       <c r="I28" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="J28" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
       <c r="K28" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v/>
       </c>
     </row>
@@ -2247,23 +2283,23 @@
         <v/>
       </c>
       <c r="G29" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="H29" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v/>
       </c>
       <c r="I29" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="J29" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
       <c r="K29" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v/>
       </c>
     </row>
@@ -2284,245 +2320,23 @@
         <v/>
       </c>
       <c r="G30" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="H30" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
         <v/>
       </c>
       <c r="I30" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="J30" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
       <c r="K30" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E31" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="F31" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v/>
-      </c>
-      <c r="G31" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H31" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v/>
-      </c>
-      <c r="I31" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="J31" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v/>
-      </c>
-      <c r="K31" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E32" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="F32" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v/>
-      </c>
-      <c r="G32" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H32" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v/>
-      </c>
-      <c r="I32" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="J32" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v/>
-      </c>
-      <c r="K32" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="F33" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v/>
-      </c>
-      <c r="G33" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H33" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v/>
-      </c>
-      <c r="I33" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="J33" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v/>
-      </c>
-      <c r="K33" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E34" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="F34" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v/>
-      </c>
-      <c r="G34" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H34" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v/>
-      </c>
-      <c r="I34" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="J34" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v/>
-      </c>
-      <c r="K34" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E35" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="F35" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v/>
-      </c>
-      <c r="G35" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H35" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v/>
-      </c>
-      <c r="I35" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="J35" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v/>
-      </c>
-      <c r="K35" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="str">
-        <f>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E36" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="F36" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v/>
-      </c>
-      <c r="G36" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H36" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v/>
-      </c>
-      <c r="I36" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="J36" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v/>
-      </c>
-      <c r="K36" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
         <v/>
       </c>
     </row>
@@ -2547,7 +2361,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2581,13 +2395,13 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>LiPo</v>
       </c>
-      <c r="C2" s="6" t="e">
+      <c r="C2" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" s="5" t="e">
+        <v>0.37682291666666662</v>
+      </c>
+      <c r="D2" s="5">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
-        <v>#VALUE!</v>
+        <v>33.1720801658604</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2612,7 +2426,7 @@
       </c>
       <c r="H3" t="str">
         <f>IF(COUNTIF(Results[Current Output % Capacity], "&gt;1")=0, "GO", "HOLD")</f>
-        <v>HOLD</v>
+        <v>GO</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2680,7 +2494,7 @@
       </c>
       <c r="C7" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
-        <v>0.92833333333333334</v>
+        <v>0.54651515151515151</v>
       </c>
       <c r="D7" s="5" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
@@ -2716,7 +2530,7 @@
       </c>
       <c r="C9" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
-        <v>1.4166666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D9" s="5" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
@@ -2752,7 +2566,7 @@
       </c>
       <c r="C11" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
-        <v>1.4166666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D11" s="5" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
@@ -2788,7 +2602,7 @@
       </c>
       <c r="C13" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
-        <v>1.4166666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D13" s="5" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
@@ -2824,7 +2638,7 @@
       </c>
       <c r="C15" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
-        <v>1.4166666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D15" s="5" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
@@ -2860,7 +2674,7 @@
       </c>
       <c r="C17" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
-        <v>1.4166666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D17" s="5" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
@@ -2896,7 +2710,7 @@
       </c>
       <c r="C19" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
-        <v>1.4166666666666667</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D19" s="5" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
@@ -3105,18 +2919,20 @@
   <conditionalFormatting sqref="C2:C30">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="percent" val="75"/>
-        <cfvo type="percent" val="100"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.8"/>
+        <cfvo type="num" val="1"/>
         <color theme="9"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>INDIRECT(ADDRESS(ROW(), COLUMN()))="HOLD"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>INDIRECT(ADDRESS(ROW(), COLUMN()))="GO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Electrical/PowerBudget.xlsx
+++ b/Electrical/PowerBudget.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>http://www.balticnetworks.com/ubiquiti-airmax-omni-3-4-3-7-ghz-12dbi-omni-directional-antenna.html</t>
+  </si>
+  <si>
+    <t>Power Rail</t>
+  </si>
+  <si>
+    <t>Voltage (V)</t>
+  </si>
+  <si>
+    <t>Current (W)</t>
+  </si>
+  <si>
+    <t>Power (W)</t>
   </si>
 </sst>
 </file>
@@ -288,7 +300,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="40">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -304,6 +319,15 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -332,24 +356,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -364,6 +370,52 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -420,6 +472,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFB985"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -435,15 +492,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ComponentData" displayName="ComponentData" ref="A1:I10" totalsRowShown="0">
   <autoFilter ref="A1:I10"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="ID" dataDxfId="26"/>
-    <tableColumn id="6" name="Name" dataDxfId="31"/>
-    <tableColumn id="2" name="Manufacturer" dataDxfId="25"/>
-    <tableColumn id="3" name="Source" dataDxfId="23"/>
-    <tableColumn id="4" name="Price" dataDxfId="24"/>
-    <tableColumn id="5" name="Consumption (W)" dataDxfId="30"/>
-    <tableColumn id="7" name="Output (V)" dataDxfId="29"/>
-    <tableColumn id="8" name="Output (A)" dataDxfId="28"/>
-    <tableColumn id="9" name="Battery (mAh)" dataDxfId="27"/>
+    <tableColumn id="1" name="ID" dataDxfId="34"/>
+    <tableColumn id="6" name="Name" dataDxfId="39"/>
+    <tableColumn id="2" name="Manufacturer" dataDxfId="33"/>
+    <tableColumn id="3" name="Source" dataDxfId="31"/>
+    <tableColumn id="4" name="Price" dataDxfId="32"/>
+    <tableColumn id="5" name="Consumption (W)" dataDxfId="38"/>
+    <tableColumn id="7" name="Output (V)" dataDxfId="37"/>
+    <tableColumn id="8" name="Output (A)" dataDxfId="36"/>
+    <tableColumn id="9" name="Battery (mAh)" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -453,31 +510,31 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Analysis" displayName="Analysis" ref="A1:K30" totalsRowShown="0">
   <autoFilter ref="A1:K30"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="ItemID" dataDxfId="22"/>
-    <tableColumn id="2" name="ComponentID" dataDxfId="21"/>
-    <tableColumn id="5" name="Supply Item" dataDxfId="20"/>
-    <tableColumn id="13" name="Supply Component" dataDxfId="19">
+    <tableColumn id="1" name="ItemID" dataDxfId="30"/>
+    <tableColumn id="2" name="ComponentID" dataDxfId="29"/>
+    <tableColumn id="5" name="Supply Item" dataDxfId="28"/>
+    <tableColumn id="13" name="Supply Component" dataDxfId="27">
       <calculatedColumnFormula>IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Input Voltage (V)" dataDxfId="15">
+    <tableColumn id="11" name="Input Voltage (V)" dataDxfId="23">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Input Current (A)" dataDxfId="14">
+    <tableColumn id="9" name="Input Current (A)" dataDxfId="22">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Output Voltage (V)" dataDxfId="10">
+    <tableColumn id="8" name="Output Voltage (V)" dataDxfId="18">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Output Current (A)" dataDxfId="9">
+    <tableColumn id="7" name="Output Current (A)" dataDxfId="17">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Self Consumption (W)" dataDxfId="8">
+    <tableColumn id="3" name="Self Consumption (W)" dataDxfId="16">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Children Consumption (W)" dataDxfId="7">
+    <tableColumn id="4" name="Children Consumption (W)" dataDxfId="15">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total Consumption (W)" dataDxfId="6">
+    <tableColumn id="6" name="Total Consumption (W)" dataDxfId="14">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -489,17 +546,36 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Results" displayName="Results" ref="A1:D30" totalsRowShown="0">
   <autoFilter ref="A1:D30"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ItemID" dataDxfId="18">
+    <tableColumn id="1" name="ItemID" dataDxfId="26">
       <calculatedColumnFormula>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Component" dataDxfId="17">
+    <tableColumn id="2" name="Component" dataDxfId="25">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[ComponentID])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Current Output % Capacity" dataDxfId="11">
+    <tableColumn id="3" name="Current Output % Capacity" dataDxfId="19">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="16">
+    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="24">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RailSummary" displayName="RailSummary" ref="K1:N8" totalsRowShown="0">
+  <autoFilter ref="K1:N8"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Power Rail" dataDxfId="5"/>
+    <tableColumn id="2" name="Voltage (V)" dataDxfId="4">
+      <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output Voltage (V)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Current (W)" dataDxfId="3">
+      <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Power (W)" dataDxfId="0">
+      <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", RailSummary[[#This Row],[Voltage (V)]]*RailSummary[[#This Row],[Current (W)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -810,7 +886,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,7 +976,7 @@
         <v>7.25</v>
       </c>
       <c r="F3" s="4">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5">
@@ -928,7 +1004,7 @@
         <v>400</v>
       </c>
       <c r="I4" s="5">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1019,11 +1095,13 @@
         <v>180</v>
       </c>
       <c r="F8" s="4">
-        <v>8</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>24</v>
+      </c>
       <c r="H8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -1075,12 +1153,10 @@
         <v>150</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="5">
         <v>0</v>
       </c>
@@ -1102,7 +1178,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1257,7 @@
       </c>
       <c r="H2" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>150.72916666666666</v>
+        <v>175.72916666666666</v>
       </c>
       <c r="I2" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1189,11 +1265,11 @@
       </c>
       <c r="J2" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>3617.5</v>
+        <v>4217.5</v>
       </c>
       <c r="K2" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>3617.5</v>
+        <v>4217.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1306,19 +1382,19 @@
       </c>
       <c r="G5" s="1">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="str">
+        <v>24</v>
+      </c>
+      <c r="H5" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v/>
+        <v>0.3125</v>
       </c>
       <c r="I5" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K5" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
@@ -1341,11 +1417,11 @@
       </c>
       <c r="E6" s="1">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", IF(ISBLANK(Analysis[[#This Row],[Supply Item]]), 0,VLOOKUP(Analysis[[#This Row],[Supply Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="str">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v/>
+        <v>0.3125</v>
       </c>
       <c r="G6" s="1">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1357,7 +1433,7 @@
       </c>
       <c r="I6" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J6" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
@@ -1365,7 +1441,7 @@
       </c>
       <c r="K6" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1388,7 +1464,7 @@
       </c>
       <c r="F7" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>150.29166666666666</v>
+        <v>175.29166666666666</v>
       </c>
       <c r="G7" s="1">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1396,7 +1472,7 @@
       </c>
       <c r="H7" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>300.58333333333331</v>
+        <v>350.58333333333331</v>
       </c>
       <c r="I7" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1404,11 +1480,11 @@
       </c>
       <c r="J7" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>3607</v>
+        <v>4207</v>
       </c>
       <c r="K7" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>3607</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1474,7 +1550,7 @@
       </c>
       <c r="F9" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="G9">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1482,7 +1558,7 @@
       </c>
       <c r="H9" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="I9" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1490,11 +1566,11 @@
       </c>
       <c r="J9" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K9" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1517,7 +1593,7 @@
       </c>
       <c r="F10" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="G10">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1529,7 +1605,7 @@
       </c>
       <c r="I10" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J10" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
@@ -1537,7 +1613,7 @@
       </c>
       <c r="K10" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1560,7 +1636,7 @@
       </c>
       <c r="F11" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="G11">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1568,7 +1644,7 @@
       </c>
       <c r="H11" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="I11" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1576,11 +1652,11 @@
       </c>
       <c r="J11" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K11" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1603,7 +1679,7 @@
       </c>
       <c r="F12" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="G12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1615,7 +1691,7 @@
       </c>
       <c r="I12" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J12" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
@@ -1623,7 +1699,7 @@
       </c>
       <c r="K12" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1646,7 +1722,7 @@
       </c>
       <c r="F13" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="G13">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1654,7 +1730,7 @@
       </c>
       <c r="H13" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="I13" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1662,11 +1738,11 @@
       </c>
       <c r="J13" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K13" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1689,7 +1765,7 @@
       </c>
       <c r="F14" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="G14">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1701,7 +1777,7 @@
       </c>
       <c r="I14" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J14" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
@@ -1709,7 +1785,7 @@
       </c>
       <c r="K14" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1732,7 +1808,7 @@
       </c>
       <c r="F15" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="G15">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1740,7 +1816,7 @@
       </c>
       <c r="H15" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="I15" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1748,11 +1824,11 @@
       </c>
       <c r="J15" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K15" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1775,7 +1851,7 @@
       </c>
       <c r="F16" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="G16">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1787,7 +1863,7 @@
       </c>
       <c r="I16" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J16" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
@@ -1795,7 +1871,7 @@
       </c>
       <c r="K16" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1818,7 +1894,7 @@
       </c>
       <c r="F17" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="G17">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1826,7 +1902,7 @@
       </c>
       <c r="H17" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="I17" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1834,11 +1910,11 @@
       </c>
       <c r="J17" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K17" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1861,7 +1937,7 @@
       </c>
       <c r="F18" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="G18">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1873,7 +1949,7 @@
       </c>
       <c r="I18" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J18" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
@@ -1881,7 +1957,7 @@
       </c>
       <c r="K18" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1904,7 +1980,7 @@
       </c>
       <c r="F19" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="G19">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1912,7 +1988,7 @@
       </c>
       <c r="H19" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", Analysis[[#This Row],[Output Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Children Consumption (W)]]/Analysis[[#This Row],[Output Voltage (V)]])</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="I19" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1920,11 +1996,11 @@
       </c>
       <c r="J19" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K19" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1947,7 +2023,7 @@
       </c>
       <c r="F20" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input Voltage (V)]]&lt;=0), "", Analysis[[#This Row],[Total Consumption (W)]]/Analysis[[#This Row],[Input Voltage (V)]])</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="G20">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE))</f>
@@ -1959,7 +2035,7 @@
       </c>
       <c r="I20" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", VLOOKUP(Analysis[[#This Row],[ComponentID]], ComponentData[], COLUMN(ComponentData[Consumption (W)])-COLUMN(ComponentData[])+1, FALSE))</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J20" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", SUMIFS(Analysis[Total Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
@@ -1967,7 +2043,7 @@
       </c>
       <c r="K20" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[ComponentID]]), Analysis[[#This Row],[ComponentID]]=""), "", Analysis[[#This Row],[Self Consumption (W)]]+Analysis[[#This Row],[Children Consumption (W)]])</f>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2358,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,9 +2446,13 @@
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2385,8 +2465,20 @@
       <c r="D1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>Battery Pack</v>
@@ -2397,14 +2489,29 @@
       </c>
       <c r="C2" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
-        <v>0.37682291666666662</v>
+        <v>0.43932291666666662</v>
       </c>
       <c r="D2" s="5">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
-        <v>33.1720801658604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.6905749851807945</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output Voltage (V)])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>24</v>
+      </c>
+      <c r="M2" s="5">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>175.72916666666666</v>
+      </c>
+      <c r="N2" s="4">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", RailSummary[[#This Row],[Voltage (V)]]*RailSummary[[#This Row],[Current (W)]])</f>
+        <v>4217.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>Logic Supply</v>
@@ -2428,8 +2535,23 @@
         <f>IF(COUNTIF(Results[Current Output % Capacity], "&gt;1")=0, "GO", "HOLD")</f>
         <v>GO</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output Voltage (V)])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>24</v>
+      </c>
+      <c r="M3" s="5">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N3" s="4">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", RailSummary[[#This Row],[Voltage (V)]]*RailSummary[[#This Row],[Current (W)]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>Comms Power</v>
@@ -2446,8 +2568,23 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output Voltage (V)])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>5</v>
+      </c>
+      <c r="M4" s="5">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="N4" s="4">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", RailSummary[[#This Row],[Voltage (V)]]*RailSummary[[#This Row],[Current (W)]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>Transceiver</v>
@@ -2458,14 +2595,29 @@
       </c>
       <c r="C5" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="D5" s="5" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output Voltage (V)])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>12</v>
+      </c>
+      <c r="M5" s="5">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v>350.58333333333331</v>
+      </c>
+      <c r="N5" s="4">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", RailSummary[[#This Row],[Voltage (V)]]*RailSummary[[#This Row],[Current (W)]])</f>
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>Antenna</v>
@@ -2482,8 +2634,20 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L6" t="str">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output Voltage (V)])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="M6" s="5" t="str">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N6" s="4" t="str">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", RailSummary[[#This Row],[Voltage (V)]]*RailSummary[[#This Row],[Current (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>Dirty Power</v>
@@ -2494,14 +2658,26 @@
       </c>
       <c r="C7" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
-        <v>0.54651515151515151</v>
+        <v>0.63742424242424234</v>
       </c>
       <c r="D7" s="5" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L7" t="str">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output Voltage (V)])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="M7" s="5" t="str">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N7" s="4" t="str">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", RailSummary[[#This Row],[Voltage (V)]]*RailSummary[[#This Row],[Current (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>Master Control</v>
@@ -2518,8 +2694,20 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L8" t="str">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output Voltage (V)])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="M8" s="5" t="str">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N8" s="4" t="str">
+        <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", RailSummary[[#This Row],[Voltage (V)]]*RailSummary[[#This Row],[Current (W)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>FrontRight ESC</v>
@@ -2530,14 +2718,14 @@
       </c>
       <c r="C9" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
-        <v>0.83333333333333337</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="D9" s="5" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>FrontRight Motor</v>
@@ -2555,7 +2743,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>MidRight ESC</v>
@@ -2566,14 +2754,14 @@
       </c>
       <c r="C11" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
-        <v>0.83333333333333337</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="D11" s="5" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>MidRight Motor</v>
@@ -2591,7 +2779,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>BackRight ESC</v>
@@ -2602,14 +2790,14 @@
       </c>
       <c r="C13" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
-        <v>0.83333333333333337</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="D13" s="5" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>BackRight Motor</v>
@@ -2627,7 +2815,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>FrontLeft ESC</v>
@@ -2638,14 +2826,14 @@
       </c>
       <c r="C15" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
-        <v>0.83333333333333337</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="D15" s="5" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</f>
         <v>FrontLeft Motor</v>
@@ -2674,7 +2862,7 @@
       </c>
       <c r="C17" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
-        <v>0.83333333333333337</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="D17" s="5" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
@@ -2710,7 +2898,7 @@
       </c>
       <c r="C19" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)/VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE), 0))</f>
-        <v>0.83333333333333337</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="D19" s="5" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=""), "", IF(VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)&gt;0, VLOOKUP(Results[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)/(VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Output Current (A)])-COLUMN(Analysis[])+1, FALSE)), ""))</f>
@@ -2920,31 +3108,32 @@
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0.8"/>
+        <cfvo type="num" val="0.99"/>
         <cfvo type="num" val="1"/>
         <color theme="9"/>
-        <color rgb="FFFFEB84"/>
+        <color rgb="FFFFB985"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>INDIRECT(ADDRESS(ROW(), COLUMN()))="HOLD"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>INDIRECT(ADDRESS(ROW(), COLUMN()))="GO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A30 K2:K8">
       <formula1>ItemIDs</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Electrical/PowerBudget.xlsx
+++ b/Electrical/PowerBudget.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james.talbert\MAVRIC-Electrical\Electrical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Talonj123\MAVRIC\MAVRIC-Electrical\Electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7950" yWindow="0" windowWidth="18825" windowHeight="4845" activeTab="3"/>
+    <workbookView xWindow="9900" yWindow="0" windowWidth="18825" windowHeight="4845" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Component Data" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <definedName name="ComponentIDs">ComponentData[ID]</definedName>
     <definedName name="ItemIDs">Analysis[ItemID]</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
   <si>
     <t>Name</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Supply Component</t>
   </si>
   <si>
-    <t>Linear Regulator</t>
-  </si>
-  <si>
     <t>Logic Supply</t>
   </si>
   <si>
@@ -320,13 +317,28 @@
     <t>Regulator</t>
   </si>
   <si>
-    <t>Linear Voltage Regulator</t>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>24 V Lithuim Ion Battery back</t>
+  </si>
+  <si>
+    <t>Adjustable Linear Voltage Regulator</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/DC-Adjustable-Voltage-Regulator-Module-DC-4-5-30V-to-0-8-30V-12A-Buck-Converters/1724570414.html</t>
+  </si>
+  <si>
+    <t>Aihsd</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -341,7 +353,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -349,9 +361,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -392,10 +404,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -421,46 +434,32 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="61">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <fill>
@@ -484,16 +483,47 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -509,6 +539,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
@@ -533,7 +569,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="#,##0.0"/>
@@ -572,6 +610,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -587,37 +626,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="#,##0.0"/>
@@ -670,18 +679,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Talbert, James" refreshedDate="42955.635486805557" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="29">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="James Talbert" refreshedDate="42955.79886516204" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="29">
   <cacheSource type="worksheet">
     <worksheetSource name="Costs"/>
   </cacheSource>
-  <cacheFields count="3">
+  <cacheFields count="4">
     <cacheField name="Item" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Component Name" numFmtId="0">
-      <sharedItems count="10">
+      <sharedItems count="13">
         <s v=""/>
-        <s v="Linear Regulator"/>
+        <s v="24 V Lithuim Ion Battery back"/>
+        <s v="Adjustable Linear Voltage Regulator"/>
         <s v="Raspberry Pi 3 Rev 1.2"/>
         <s v="Homemade POE injection"/>
         <s v="Ubiquity Rocket M3"/>
@@ -690,19 +700,14 @@
         <s v="Banebots RS-550 Motor 19300rpm 12V 70.55oz-in"/>
         <s v="12 RPM HD Premium Planetary Gear Motor w/Encoder"/>
         <s v="26 RPM Premium Planetary Gear Motor w/Encoder"/>
+        <s v="Linear Voltage Regulator" u="1"/>
+        <s v="Linear Regulator" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Cost" numFmtId="164">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="7.25" maxValue="180" count="7">
-        <s v=""/>
-        <n v="30"/>
-        <n v="180"/>
-        <n v="150"/>
-        <n v="60"/>
-        <n v="7.25"/>
-        <n v="50"/>
-      </sharedItems>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="7.25" maxValue="180"/>
     </cacheField>
+    <cacheField name="Field1" numFmtId="0" formula="Cost" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -717,191 +722,181 @@
   <r>
     <s v=""/>
     <x v="0"/>
-    <x v="0"/>
+    <s v=""/>
   </r>
   <r>
     <s v="Battery Pack"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <s v=""/>
   </r>
   <r>
     <s v="Logic Supply"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="2"/>
+    <s v=""/>
   </r>
   <r>
     <s v="Master Control"/>
-    <x v="2"/>
-    <x v="1"/>
+    <x v="3"/>
+    <n v="30"/>
   </r>
   <r>
     <s v="Comms Power"/>
-    <x v="3"/>
-    <x v="0"/>
+    <x v="4"/>
+    <s v=""/>
   </r>
   <r>
     <s v="Transceiver"/>
-    <x v="4"/>
-    <x v="2"/>
+    <x v="5"/>
+    <n v="180"/>
   </r>
   <r>
     <s v="Antenna"/>
-    <x v="5"/>
-    <x v="3"/>
+    <x v="6"/>
+    <n v="150"/>
   </r>
   <r>
     <s v="Dirty Power"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="2"/>
+    <s v=""/>
   </r>
   <r>
     <s v="FrontRight ESC"/>
-    <x v="6"/>
-    <x v="4"/>
+    <x v="7"/>
+    <n v="60"/>
   </r>
   <r>
     <s v="FrontRight Motor"/>
-    <x v="7"/>
-    <x v="5"/>
+    <x v="8"/>
+    <n v="7.25"/>
   </r>
   <r>
     <s v="MidRight ESC"/>
-    <x v="6"/>
-    <x v="4"/>
+    <x v="7"/>
+    <n v="60"/>
   </r>
   <r>
     <s v="MidRight Motor"/>
-    <x v="7"/>
-    <x v="5"/>
+    <x v="8"/>
+    <n v="7.25"/>
   </r>
   <r>
     <s v="BackRight ESC"/>
-    <x v="6"/>
-    <x v="4"/>
+    <x v="7"/>
+    <n v="60"/>
   </r>
   <r>
     <s v="BackRight Motor"/>
-    <x v="7"/>
-    <x v="5"/>
+    <x v="8"/>
+    <n v="7.25"/>
   </r>
   <r>
     <s v="FrontLeft ESC"/>
-    <x v="6"/>
-    <x v="4"/>
+    <x v="7"/>
+    <n v="60"/>
   </r>
   <r>
     <s v="FrontLeft Motor"/>
-    <x v="7"/>
-    <x v="5"/>
+    <x v="8"/>
+    <n v="7.25"/>
   </r>
   <r>
     <s v="MidLeft ESC"/>
-    <x v="6"/>
-    <x v="4"/>
+    <x v="7"/>
+    <n v="60"/>
   </r>
   <r>
     <s v="MidLeft Motor"/>
-    <x v="7"/>
-    <x v="5"/>
+    <x v="8"/>
+    <n v="7.25"/>
   </r>
   <r>
     <s v="BackLeft ESC"/>
-    <x v="6"/>
-    <x v="4"/>
+    <x v="7"/>
+    <n v="60"/>
   </r>
   <r>
     <s v="BackLeft Motor"/>
-    <x v="7"/>
-    <x v="5"/>
+    <x v="8"/>
+    <n v="7.25"/>
   </r>
   <r>
     <s v="Shoulder Motor"/>
-    <x v="8"/>
-    <x v="4"/>
+    <x v="9"/>
+    <n v="60"/>
   </r>
   <r>
     <s v="Base Motor"/>
-    <x v="9"/>
-    <x v="6"/>
+    <x v="10"/>
+    <n v="50"/>
   </r>
   <r>
     <s v="Upper Limb Motor"/>
-    <x v="9"/>
-    <x v="6"/>
+    <x v="10"/>
+    <n v="50"/>
   </r>
   <r>
     <s v=""/>
     <x v="0"/>
-    <x v="0"/>
+    <s v=""/>
   </r>
   <r>
     <s v=""/>
     <x v="0"/>
-    <x v="0"/>
+    <s v=""/>
   </r>
   <r>
     <s v=""/>
     <x v="0"/>
-    <x v="0"/>
+    <s v=""/>
   </r>
   <r>
     <s v=""/>
     <x v="0"/>
-    <x v="0"/>
+    <s v=""/>
   </r>
   <r>
     <s v=""/>
     <x v="0"/>
-    <x v="0"/>
+    <s v=""/>
   </r>
   <r>
     <s v=""/>
     <x v="0"/>
-    <x v="0"/>
+    <s v=""/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component">
-  <location ref="E1:F12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component">
+  <location ref="E1:G12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="0"/>
+    <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
+      <items count="14">
+        <item h="1" x="0"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="6"/>
         <item x="8"/>
-        <item x="9"/>
+        <item x="4"/>
+        <item m="1" x="12"/>
+        <item x="3"/>
         <item x="5"/>
         <item x="7"/>
-        <item x="3"/>
         <item x="1"/>
+        <item m="1" x="11"/>
         <item x="2"/>
-        <item x="4"/>
-        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="8">
-        <item x="5"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
   <rowItems count="11">
-    <i>
-      <x/>
-    </i>
     <i>
       <x v="1"/>
     </i>
@@ -918,9 +913,6 @@
       <x v="5"/>
     </i>
     <i>
-      <x v="6"/>
-    </i>
-    <i>
       <x v="7"/>
     </i>
     <i>
@@ -929,80 +921,113 @@
     <i>
       <x v="9"/>
     </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Total Cost" fld="2" baseField="1" baseItem="0"/>
+  <dataFields count="2">
+    <dataField name="Quantity" fld="2" subtotal="count" baseField="1" baseItem="1"/>
+    <dataField name="Total Cost" fld="3" baseField="1" baseItem="1" numFmtId="164"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="13">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ComponentData" displayName="ComponentData" ref="A1:J11" totalsRowShown="0">
-  <autoFilter ref="A1:J11"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="ID" dataDxfId="59"/>
-    <tableColumn id="6" name="Name" dataDxfId="58"/>
-    <tableColumn id="2" name="Manufacturer" dataDxfId="57"/>
-    <tableColumn id="3" name="Source" dataDxfId="56"/>
-    <tableColumn id="4" name="Price" dataDxfId="55"/>
-    <tableColumn id="5" name="Peak Consumption (W)" dataDxfId="54"/>
-    <tableColumn id="10" name="Constant Consumption (W)" dataDxfId="53"/>
-    <tableColumn id="7" name="Output (V)" dataDxfId="52"/>
-    <tableColumn id="8" name="Output (A)" dataDxfId="51"/>
-    <tableColumn id="9" name="Battery (mAh)" dataDxfId="50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ComponentData" displayName="ComponentData" ref="A1:K11" totalsRowShown="0">
+  <autoFilter ref="A1:K11"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="ID" dataDxfId="60"/>
+    <tableColumn id="6" name="Name" dataDxfId="59"/>
+    <tableColumn id="2" name="Manufacturer" dataDxfId="58"/>
+    <tableColumn id="3" name="Source" dataDxfId="57"/>
+    <tableColumn id="4" name="Price" dataDxfId="56"/>
+    <tableColumn id="5" name="Peak Consumption (W)" dataDxfId="55"/>
+    <tableColumn id="10" name="Constant Consumption (W)" dataDxfId="54"/>
+    <tableColumn id="7" name="Output (V)" dataDxfId="53"/>
+    <tableColumn id="8" name="Output (A)" dataDxfId="52"/>
+    <tableColumn id="9" name="Battery (mAh)" dataDxfId="51"/>
+    <tableColumn id="11" name="Efficiency" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Items" displayName="Items" ref="A1:M31" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A1:M31"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="ItemID" dataDxfId="38"/>
-    <tableColumn id="2" name="Component" dataDxfId="37"/>
-    <tableColumn id="3" name="Supply Item" dataDxfId="36"/>
-    <tableColumn id="4" name="Supply Component" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Items" displayName="Items" ref="A1:N31" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A1:N31"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="ItemID" dataDxfId="48"/>
+    <tableColumn id="2" name="Component" dataDxfId="47"/>
+    <tableColumn id="3" name="Supply Item" dataDxfId="46"/>
+    <tableColumn id="4" name="Supply Component" dataDxfId="45">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Name" dataDxfId="33">
+    <tableColumn id="5" name="Name" dataDxfId="44">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Manufacturer" dataDxfId="32">
+    <tableColumn id="6" name="Manufacturer" dataDxfId="43">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Source" dataDxfId="31">
+    <tableColumn id="7" name="Source" dataDxfId="42">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Price" dataDxfId="30">
+    <tableColumn id="8" name="Price" dataDxfId="41">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Peak Consumption (W)" dataDxfId="29">
+    <tableColumn id="9" name="Peak Consumption (W)" dataDxfId="40">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Constant Consumption (W)" dataDxfId="28">
+    <tableColumn id="10" name="Constant Consumption (W)" dataDxfId="39">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Output (V)" dataDxfId="27">
+    <tableColumn id="11" name="Output (V)" dataDxfId="38">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Output (A)" dataDxfId="26">
+    <tableColumn id="12" name="Output (A)" dataDxfId="37">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Battery (mAh)" dataDxfId="25">
+    <tableColumn id="13" name="Battery (mAh)" dataDxfId="36">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="Efficiency" dataDxfId="8">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1010,47 +1035,50 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Analysis" displayName="Analysis" ref="A1:N30" totalsRowShown="0">
-  <autoFilter ref="A1:N30"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="ItemID" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Analysis" displayName="Analysis" ref="A1:O30" totalsRowShown="0">
+  <autoFilter ref="A1:O30"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="ItemID" dataDxfId="35">
       <calculatedColumnFormula>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Supply Item" dataDxfId="8"/>
-    <tableColumn id="11" name="Input (V)" dataDxfId="23">
+    <tableColumn id="5" name="Supply Item" dataDxfId="34"/>
+    <tableColumn id="11" name="Input (V)" dataDxfId="33">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Output (V)" dataDxfId="22">
+    <tableColumn id="8" name="Output (V)" dataDxfId="32">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Peak Input (A)" dataDxfId="21">
+    <tableColumn id="7" name="Peak Output (A)" dataDxfId="31">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="Constant Output (A)" dataDxfId="30">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Peak Input (A)" dataDxfId="6">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Peak Output (A)" dataDxfId="18">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="Constant Input (A)" dataDxfId="49">
+    <tableColumn id="16" name="Constant Input (A)" dataDxfId="7">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Constant Output (A)" dataDxfId="17">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</calculatedColumnFormula>
+    <tableColumn id="2" name="Efficiency" dataDxfId="2">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Self Peak Consumption (W)" dataDxfId="20">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
+    <tableColumn id="3" name="Self Peak Consumption (W)" dataDxfId="1">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Children Peak Consumption (W)" dataDxfId="48">
+    <tableColumn id="4" name="Children Peak Consumption (W)" dataDxfId="29">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total Peak Consumption (W)" dataDxfId="47">
+    <tableColumn id="6" name="Total Peak Consumption (W)" dataDxfId="28">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Self Constant Consumption (W)" dataDxfId="19">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
+    <tableColumn id="12" name="Self Constant Consumption (W)" dataDxfId="0">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Children Constant Consumption (W)" dataDxfId="46">
+    <tableColumn id="14" name="Children Constant Consumption (W)" dataDxfId="27">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Total Constant Consumption (W)" dataDxfId="45">
+    <tableColumn id="15" name="Total Constant Consumption (W)" dataDxfId="26">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1062,28 +1090,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Results" displayName="Results" ref="A1:H30" totalsRowShown="0">
   <autoFilter ref="A1:H30"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ItemID" dataDxfId="44">
+    <tableColumn id="1" name="ItemID" dataDxfId="25">
       <calculatedColumnFormula>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Current Capacity" dataDxfId="16">
+    <tableColumn id="4" name="Current Capacity" dataDxfId="24">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Peak Current Used" dataDxfId="15">
+    <tableColumn id="5" name="Peak Current Used" dataDxfId="23">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Constant Current Used" dataDxfId="14">
+    <tableColumn id="8" name="Constant Current Used" dataDxfId="22">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Peak % Capacity" dataDxfId="13">
+    <tableColumn id="3" name="Peak % Capacity" dataDxfId="21">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Constant % Capacity" dataDxfId="12">
+    <tableColumn id="7" name="Constant % Capacity" dataDxfId="20">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Battery (mAh)" dataDxfId="10">
+    <tableColumn id="9" name="Battery (mAh)" dataDxfId="19">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="11">
+    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="18">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Constant Current Used]]="", Results[[#This Row],[Battery (mAh)]]=""), "", Results[[#This Row],[Battery (mAh)]]/Results[[#This Row],[Constant Current Used]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1095,14 +1123,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RailSummary" displayName="RailSummary" ref="O1:R8" totalsRowShown="0">
   <autoFilter ref="O1:R8"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Power Rail" dataDxfId="43"/>
-    <tableColumn id="2" name="Voltage (V)" dataDxfId="42">
+    <tableColumn id="1" name="Power Rail" dataDxfId="17"/>
+    <tableColumn id="2" name="Voltage (V)" dataDxfId="16">
       <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output (V)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Current (W)" dataDxfId="41">
+    <tableColumn id="3" name="Current (W)" dataDxfId="15">
       <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Power (W)" dataDxfId="40">
+    <tableColumn id="4" name="Power (W)" dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", RailSummary[[#This Row],[Voltage (V)]]*RailSummary[[#This Row],[Current (W)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1111,16 +1139,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Costs" displayName="Costs" ref="A1:C30" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Costs" displayName="Costs" ref="A1:C30">
   <autoFilter ref="A1:C30"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Item" dataDxfId="39">
+    <tableColumn id="1" name="Item" totalsRowLabel="Total" dataDxfId="12">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Component Name" dataDxfId="3">
+    <tableColumn id="2" name="Component Name" dataDxfId="11">
       <calculatedColumnFormula>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Name])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Cost" dataDxfId="4">
+    <tableColumn id="3" name="Cost" totalsRowFunction="count" dataDxfId="10">
       <calculatedColumnFormula>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", IF(ISNUMBER(VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE)), VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE), ""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1426,13 +1454,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,15 +1468,16 @@
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1465,10 +1494,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
         <v>74</v>
-      </c>
-      <c r="G1" t="s">
-        <v>75</v>
       </c>
       <c r="H1" t="s">
         <v>12</v>
@@ -1477,14 +1506,19 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="E2" s="3"/>
@@ -1503,17 +1537,26 @@
       <c r="J2" s="13">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="3">
+        <v>8.48</v>
+      </c>
       <c r="F3" s="13">
         <v>0</v>
       </c>
@@ -1522,25 +1565,28 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13">
-        <v>550</v>
+        <v>12</v>
       </c>
       <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="F4" s="13">
         <v>2.5</v>
@@ -1555,13 +1601,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7"/>
@@ -1581,19 +1630,22 @@
         <v>0.5</v>
       </c>
       <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="E6" s="3">
         <v>180</v>
@@ -1611,19 +1663,22 @@
         <v>1</v>
       </c>
       <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="E7" s="3">
         <v>150</v>
@@ -1637,8 +1692,11 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1667,10 +1725,13 @@
         <v>60</v>
       </c>
       <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -1678,32 +1739,35 @@
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="25" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="3">
         <v>7.25</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>1020</v>
       </c>
       <c r="G9" s="17">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3">
         <v>60</v>
@@ -1712,22 +1776,25 @@
         <v>240</v>
       </c>
       <c r="G10" s="13">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -1736,30 +1803,36 @@
         <v>58.8</v>
       </c>
       <c r="G11" s="13">
-        <v>58.8</v>
+        <v>20</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,10 +1849,11 @@
     <col min="10" max="10" width="27.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="16"/>
+    <col min="14" max="14" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -1787,12 +1861,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="16" t="s">
@@ -1805,10 +1879,10 @@
         <v>4</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>12</v>
@@ -1817,53 +1891,60 @@
         <v>13</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+        <v>36</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
       <c r="D2" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E2" s="25" t="str">
+      <c r="E2" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="F2" s="19" t="str">
+      <c r="F2" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G2" s="19" t="str">
+      <c r="G2" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H2" s="20" t="str">
+      <c r="H2" s="19" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="I2" s="21" t="str">
+      <c r="I2" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="J2" s="21" t="str">
+      <c r="J2" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="K2" s="21" t="str">
+      <c r="K2" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L2" s="21" t="str">
+      <c r="L2" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M2" s="21" t="str">
+      <c r="M2" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="26" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
@@ -1874,150 +1955,162 @@
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E3" s="25" t="str">
+      <c r="E3" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="F3" s="19" t="str">
+        <v>24 V Lithuim Ion Battery back</v>
+      </c>
+      <c r="F3" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G3" s="19" t="str">
+      <c r="G3" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H3" s="20" t="str">
+      <c r="H3" s="19" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>24</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>400</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
-      <c r="E4" s="25" t="str">
+      <c r="E4" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Linear Voltage Regulator</v>
-      </c>
-      <c r="F4" s="19" t="str">
+        <v>Adjustable Linear Voltage Regulator</v>
+      </c>
+      <c r="F4" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G4" s="19" t="str">
+        <v>Aihsd</v>
+      </c>
+      <c r="G4" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H4" s="20" t="str">
+        <v>https://www.aliexpress.com/item/DC-Adjustable-Voltage-Regulator-Module-DC-4-5-30V-to-0-8-30V-12A-Buck-Converters/1724570414.html</v>
+      </c>
+      <c r="H4" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I4" s="21">
+        <v>8.48</v>
+      </c>
+      <c r="I4" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="20">
         <v>5</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>550</v>
-      </c>
-      <c r="M4" s="21" t="str">
+        <v>12</v>
+      </c>
+      <c r="M4" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="E5" s="25" t="str">
+      <c r="E5" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Raspberry Pi 3 Rev 1.2</v>
       </c>
-      <c r="F5" s="19" t="str">
+      <c r="F5" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G5" s="19" t="str">
+      <c r="G5" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>30</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>7</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>7</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>3.3</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0.5</v>
       </c>
-      <c r="M5" s="21" t="str">
+      <c r="M5" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>14</v>
@@ -2026,151 +2119,163 @@
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E6" s="25" t="str">
+      <c r="E6" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Homemade POE injection</v>
       </c>
-      <c r="F6" s="19" t="str">
+      <c r="F6" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Gabe</v>
       </c>
-      <c r="G6" s="19" t="str">
+      <c r="G6" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Gabe</v>
       </c>
-      <c r="H6" s="20" t="str">
+      <c r="H6" s="19" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>?</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>2.5</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>2.5</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>24</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>1</v>
       </c>
-      <c r="M6" s="21" t="str">
+      <c r="M6" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="D7" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
-      <c r="E7" s="25" t="str">
+      <c r="E7" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Ubiquity Rocket M3</v>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="F7" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Ubiquity</v>
       </c>
-      <c r="G7" s="19" t="str">
+      <c r="G7" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>http://www.doubleradius.com/s.nl/sc.1/category./.f?search=rocket+m3</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>180</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0.5</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0.5</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>24</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>1</v>
       </c>
-      <c r="M7" s="21" t="str">
+      <c r="M7" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Comms Power</v>
       </c>
-      <c r="E8" s="25" t="str">
+      <c r="E8" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>AMO-3G12 - Ubiquiti Antenna 3.4-3.7 GHz 12dBi Omni-directional</v>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Ubiquity</v>
       </c>
-      <c r="G8" s="19" t="str">
+      <c r="G8" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>http://www.balticnetworks.com/ubiquiti-airmax-omni-3-4-3-7-ghz-12dbi-omni-directional-antenna.html</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>150</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>7.5</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>7.5</v>
       </c>
-      <c r="K8" s="21" t="str">
+      <c r="K8" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L8" s="21" t="str">
+      <c r="L8" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M8" s="21" t="str">
+      <c r="M8" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>14</v>
@@ -2179,43 +2284,47 @@
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E9" s="25" t="str">
+      <c r="E9" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Linear Voltage Regulator</v>
-      </c>
-      <c r="F9" s="19" t="str">
+        <v>Adjustable Linear Voltage Regulator</v>
+      </c>
+      <c r="F9" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G9" s="19" t="str">
+        <v>Aihsd</v>
+      </c>
+      <c r="G9" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H9" s="20" t="str">
+        <v>https://www.aliexpress.com/item/DC-Adjustable-Voltage-Regulator-Module-DC-4-5-30V-to-0-8-30V-12A-Buck-Converters/1724570414.html</v>
+      </c>
+      <c r="H9" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I9" s="21">
+        <v>8.48</v>
+      </c>
+      <c r="I9" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <v>12</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>550</v>
-      </c>
-      <c r="M9" s="21" t="str">
+        <v>12</v>
+      </c>
+      <c r="M9" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
@@ -2223,55 +2332,59 @@
         <v>9</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
-      <c r="E10" s="25" t="str">
+      <c r="E10" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Victor SP DC Motor Driver</v>
       </c>
-      <c r="F10" s="19" t="str">
+      <c r="F10" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>VEX PRO</v>
       </c>
-      <c r="G10" s="19" t="str">
+      <c r="G10" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>https://www.vexrobotics.com/217-9090.html</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>60</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>60</v>
       </c>
-      <c r="M10" s="21" t="str">
+      <c r="M10" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>18</v>
@@ -2280,44 +2393,48 @@
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="E11" s="25" t="str">
+      <c r="E11" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
       </c>
-      <c r="F11" s="19" t="str">
+      <c r="F11" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>BaneBot</v>
       </c>
-      <c r="G11" s="19" t="str">
+      <c r="G11" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>7.25</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>1020</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>700</v>
-      </c>
-      <c r="K11" s="21" t="str">
+        <v>120</v>
+      </c>
+      <c r="K11" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L11" s="21" t="str">
+      <c r="L11" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M11" s="21" t="str">
+      <c r="M11" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
@@ -2325,55 +2442,59 @@
         <v>9</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
-      <c r="E12" s="25" t="str">
+      <c r="E12" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Victor SP DC Motor Driver</v>
       </c>
-      <c r="F12" s="19" t="str">
+      <c r="F12" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>VEX PRO</v>
       </c>
-      <c r="G12" s="19" t="str">
+      <c r="G12" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>https://www.vexrobotics.com/217-9090.html</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>60</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>60</v>
       </c>
-      <c r="M12" s="21" t="str">
+      <c r="M12" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>19</v>
@@ -2382,44 +2503,48 @@
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="E13" s="25" t="str">
+      <c r="E13" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
       </c>
-      <c r="F13" s="19" t="str">
+      <c r="F13" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>BaneBot</v>
       </c>
-      <c r="G13" s="19" t="str">
+      <c r="G13" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>7.25</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>1020</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>700</v>
-      </c>
-      <c r="K13" s="21" t="str">
+        <v>120</v>
+      </c>
+      <c r="K13" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L13" s="21" t="str">
+      <c r="L13" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M13" s="21" t="str">
+      <c r="M13" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>20</v>
       </c>
@@ -2427,55 +2552,59 @@
         <v>9</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
-      <c r="E14" s="25" t="str">
+      <c r="E14" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Victor SP DC Motor Driver</v>
       </c>
-      <c r="F14" s="19" t="str">
+      <c r="F14" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>VEX PRO</v>
       </c>
-      <c r="G14" s="19" t="str">
+      <c r="G14" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>https://www.vexrobotics.com/217-9090.html</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>60</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>60</v>
       </c>
-      <c r="M14" s="21" t="str">
+      <c r="M14" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>20</v>
@@ -2484,44 +2613,48 @@
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="E15" s="25" t="str">
+      <c r="E15" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
       </c>
-      <c r="F15" s="19" t="str">
+      <c r="F15" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>BaneBot</v>
       </c>
-      <c r="G15" s="19" t="str">
+      <c r="G15" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>7.25</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>1020</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>700</v>
-      </c>
-      <c r="K15" s="21" t="str">
+        <v>120</v>
+      </c>
+      <c r="K15" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L15" s="21" t="str">
+      <c r="L15" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M15" s="21" t="str">
+      <c r="M15" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>21</v>
       </c>
@@ -2529,55 +2662,59 @@
         <v>9</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
-      <c r="E16" s="25" t="str">
+      <c r="E16" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Victor SP DC Motor Driver</v>
       </c>
-      <c r="F16" s="19" t="str">
+      <c r="F16" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>VEX PRO</v>
       </c>
-      <c r="G16" s="19" t="str">
+      <c r="G16" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>https://www.vexrobotics.com/217-9090.html</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>60</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>60</v>
       </c>
-      <c r="M16" s="21" t="str">
+      <c r="M16" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>21</v>
@@ -2586,44 +2723,48 @@
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="E17" s="25" t="str">
+      <c r="E17" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
       </c>
-      <c r="F17" s="19" t="str">
+      <c r="F17" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>BaneBot</v>
       </c>
-      <c r="G17" s="19" t="str">
+      <c r="G17" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>7.25</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>1020</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>700</v>
-      </c>
-      <c r="K17" s="21" t="str">
+        <v>120</v>
+      </c>
+      <c r="K17" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L17" s="21" t="str">
+      <c r="L17" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M17" s="21" t="str">
+      <c r="M17" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>22</v>
       </c>
@@ -2631,55 +2772,59 @@
         <v>9</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
-      <c r="E18" s="25" t="str">
+      <c r="E18" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Victor SP DC Motor Driver</v>
       </c>
-      <c r="F18" s="19" t="str">
+      <c r="F18" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>VEX PRO</v>
       </c>
-      <c r="G18" s="19" t="str">
+      <c r="G18" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>https://www.vexrobotics.com/217-9090.html</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>60</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>60</v>
       </c>
-      <c r="M18" s="21" t="str">
+      <c r="M18" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>22</v>
@@ -2688,44 +2833,48 @@
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="E19" s="25" t="str">
+      <c r="E19" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
       </c>
-      <c r="F19" s="19" t="str">
+      <c r="F19" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>BaneBot</v>
       </c>
-      <c r="G19" s="19" t="str">
+      <c r="G19" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>7.25</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>1020</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>700</v>
-      </c>
-      <c r="K19" s="21" t="str">
+        <v>120</v>
+      </c>
+      <c r="K19" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L19" s="21" t="str">
+      <c r="L19" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M19" s="21" t="str">
+      <c r="M19" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
@@ -2733,55 +2882,59 @@
         <v>9</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
-      <c r="E20" s="25" t="str">
+      <c r="E20" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Victor SP DC Motor Driver</v>
       </c>
-      <c r="F20" s="19" t="str">
+      <c r="F20" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>VEX PRO</v>
       </c>
-      <c r="G20" s="19" t="str">
+      <c r="G20" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>https://www.vexrobotics.com/217-9090.html</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>60</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>60</v>
       </c>
-      <c r="M20" s="21" t="str">
+      <c r="M20" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>23</v>
@@ -2790,487 +2943,531 @@
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="E21" s="25" t="str">
+      <c r="E21" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
       </c>
-      <c r="F21" s="19" t="str">
+      <c r="F21" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>BaneBot</v>
       </c>
-      <c r="G21" s="19" t="str">
+      <c r="G21" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>7.25</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>1020</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>700</v>
-      </c>
-      <c r="K21" s="21" t="str">
+        <v>120</v>
+      </c>
+      <c r="K21" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L21" s="21" t="str">
+      <c r="L21" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M21" s="21" t="str">
+      <c r="M21" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="C22" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
-      <c r="E22" s="25" t="str">
+      <c r="E22" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12 RPM HD Premium Planetary Gear Motor w/Encoder</v>
       </c>
-      <c r="F22" s="19" t="str">
+      <c r="F22" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G22" s="19" t="str">
+      <c r="G22" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>https://www.servocity.com/12-rpm-hd-premium-planetary-gear-motor-w-encoder</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>60</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>240</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>240</v>
-      </c>
-      <c r="K22" s="21" t="str">
+        <v>60</v>
+      </c>
+      <c r="K22" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L22" s="21" t="str">
+      <c r="L22" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M22" s="21" t="str">
+      <c r="M22" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
-      <c r="E23" s="25" t="str">
+      <c r="E23" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>26 RPM Premium Planetary Gear Motor w/Encoder</v>
       </c>
-      <c r="F23" s="19" t="str">
+      <c r="F23" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G23" s="19" t="str">
+      <c r="G23" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>https://www.servocity.com/26-rpm-premium-planetary-gear-motor-w-encoder</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>50</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>58.8</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>58.8</v>
-      </c>
-      <c r="K23" s="21" t="str">
+        <v>20</v>
+      </c>
+      <c r="K23" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L23" s="21" t="str">
+      <c r="L23" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M23" s="21" t="str">
+      <c r="M23" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
-      <c r="E24" s="25" t="str">
+      <c r="E24" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>26 RPM Premium Planetary Gear Motor w/Encoder</v>
       </c>
-      <c r="F24" s="19" t="str">
+      <c r="F24" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G24" s="19" t="str">
+      <c r="G24" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>https://www.servocity.com/26-rpm-premium-planetary-gear-motor-w-encoder</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="19">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>50</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>58.8</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="20">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>58.8</v>
-      </c>
-      <c r="K24" s="21" t="str">
+        <v>20</v>
+      </c>
+      <c r="K24" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L24" s="21" t="str">
+      <c r="L24" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M24" s="21" t="str">
+      <c r="M24" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="26">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D25" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E25" s="25" t="str">
+      <c r="E25" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="F25" s="19" t="str">
+      <c r="F25" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G25" s="19" t="str">
+      <c r="G25" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H25" s="20" t="str">
+      <c r="H25" s="19" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="I25" s="21" t="str">
+      <c r="I25" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="J25" s="21" t="str">
+      <c r="J25" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="K25" s="21" t="str">
+      <c r="K25" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L25" s="21" t="str">
+      <c r="L25" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M25" s="21" t="str">
+      <c r="M25" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="26" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D26" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E26" s="25" t="str">
+      <c r="E26" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="F26" s="19" t="str">
+      <c r="F26" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G26" s="19" t="str">
+      <c r="G26" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H26" s="20" t="str">
+      <c r="H26" s="19" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="I26" s="21" t="str">
+      <c r="I26" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="J26" s="21" t="str">
+      <c r="J26" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="K26" s="21" t="str">
+      <c r="K26" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L26" s="21" t="str">
+      <c r="L26" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M26" s="21" t="str">
+      <c r="M26" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="26" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D27" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E27" s="25" t="str">
+      <c r="E27" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="F27" s="19" t="str">
+      <c r="F27" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G27" s="19" t="str">
+      <c r="G27" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H27" s="20" t="str">
+      <c r="H27" s="19" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="I27" s="21" t="str">
+      <c r="I27" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="J27" s="21" t="str">
+      <c r="J27" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="K27" s="21" t="str">
+      <c r="K27" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L27" s="21" t="str">
+      <c r="L27" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M27" s="21" t="str">
+      <c r="M27" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="26" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D28" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E28" s="25" t="str">
+      <c r="E28" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="F28" s="19" t="str">
+      <c r="F28" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G28" s="19" t="str">
+      <c r="G28" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H28" s="20" t="str">
+      <c r="H28" s="19" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="I28" s="21" t="str">
+      <c r="I28" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="J28" s="21" t="str">
+      <c r="J28" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="K28" s="21" t="str">
+      <c r="K28" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L28" s="21" t="str">
+      <c r="L28" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M28" s="21" t="str">
+      <c r="M28" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="26" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D29" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E29" s="25" t="str">
+      <c r="E29" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="F29" s="19" t="str">
+      <c r="F29" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G29" s="19" t="str">
+      <c r="G29" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H29" s="20" t="str">
+      <c r="H29" s="19" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="I29" s="21" t="str">
+      <c r="I29" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="J29" s="21" t="str">
+      <c r="J29" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="K29" s="21" t="str">
+      <c r="K29" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L29" s="21" t="str">
+      <c r="L29" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M29" s="21" t="str">
+      <c r="M29" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="26" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D30" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E30" s="25" t="str">
+      <c r="E30" s="24" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="F30" s="19" t="str">
+      <c r="F30" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G30" s="19" t="str">
+      <c r="G30" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H30" s="20" t="str">
+      <c r="H30" s="19" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="I30" s="21" t="str">
+      <c r="I30" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="J30" s="21" t="str">
+      <c r="J30" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="K30" s="21" t="str">
+      <c r="K30" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L30" s="21" t="str">
+      <c r="L30" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M30" s="21" t="str">
+      <c r="M30" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="26" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D31" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E31" s="19" t="str">
+      <c r="E31" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="F31" s="19" t="str">
+      <c r="F31" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G31" s="19" t="str">
+      <c r="G31" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H31" s="20" t="str">
+      <c r="H31" s="19" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="I31" s="21" t="str">
+      <c r="I31" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="J31" s="21" t="str">
+      <c r="J31" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="K31" s="21" t="str">
+      <c r="K31" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L31" s="21" t="str">
+      <c r="L31" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M31" s="21" t="str">
+      <c r="M31" s="20" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N31" s="26" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -3290,26 +3487,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31.7109375" bestFit="1" customWidth="1"/>
@@ -3319,15 +3516,15 @@
     <col min="16" max="16" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -3336,39 +3533,42 @@
         <v>82</v>
       </c>
       <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s">
-        <v>85</v>
-      </c>
       <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" t="s">
         <v>76</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>78</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>79</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>80</v>
       </c>
-      <c r="N1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="str">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v/>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
@@ -3378,52 +3578,56 @@
         <v/>
       </c>
       <c r="E2" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F2" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G2" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="F2" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G2" s="12" t="str">
+      <c r="H2" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="H2" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="I2" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="I2" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="J2" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="K2" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="K2" s="12" t="str">
+      <c r="L2" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
-      <c r="L2" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
       <c r="M2" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="N2" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="N2" s="12" t="str">
+      <c r="O2" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="str">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>Battery Pack</v>
       </c>
-      <c r="B3" s="23" t="str">
+      <c r="B3" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -3435,53 +3639,57 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>24</v>
       </c>
-      <c r="E3" s="12" t="str">
+      <c r="E3" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>284.15406250000007</v>
+      </c>
+      <c r="F3" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>36.634062500000006</v>
+      </c>
+      <c r="G3" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="F3" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>270.62916666666666</v>
-      </c>
-      <c r="G3" s="12" t="str">
+      <c r="H3" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="H3" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>190.62916666666669</v>
-      </c>
-      <c r="I3" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="I3" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>0</v>
       </c>
-      <c r="J3" s="12">
+      <c r="K3" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>6495.1</v>
-      </c>
-      <c r="K3" s="12">
+        <v>6819.6975000000011</v>
+      </c>
+      <c r="L3" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>6495.1</v>
-      </c>
-      <c r="L3" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>6819.6975000000011</v>
+      </c>
+      <c r="M3" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>0</v>
       </c>
-      <c r="M3" s="12">
+      <c r="N3" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>4575.1000000000004</v>
-      </c>
-      <c r="N3" s="12">
+        <v>879.21750000000009</v>
+      </c>
+      <c r="O3" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>4575.1000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="str">
+        <v>879.21750000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>Logic Supply</v>
       </c>
-      <c r="B4" s="23" t="str">
+      <c r="B4" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
@@ -3494,52 +3702,56 @@
         <v>5</v>
       </c>
       <c r="E4" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F4" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v>1.4</v>
       </c>
-      <c r="G4" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="F4" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v>1.4</v>
       </c>
-      <c r="I4" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+      <c r="G4" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="H4" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="I4" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0.95</v>
       </c>
       <c r="J4" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>0.35000000000000031</v>
+      </c>
+      <c r="K4" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>7</v>
       </c>
-      <c r="K4" s="12">
+      <c r="L4" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>7</v>
-      </c>
-      <c r="L4" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>7.3500000000000005</v>
       </c>
       <c r="M4" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>0.35000000000000031</v>
+      </c>
+      <c r="N4" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>7</v>
       </c>
-      <c r="N4" s="12">
+      <c r="O4" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="str">
+        <v>7.3500000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>Master Control</v>
       </c>
-      <c r="B5" s="23" t="str">
+      <c r="B5" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Logic Supply</v>
       </c>
@@ -3552,52 +3764,56 @@
         <v>3.3</v>
       </c>
       <c r="E5" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>1.4</v>
       </c>
-      <c r="F5" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="H5" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>1.4</v>
       </c>
-      <c r="H5" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="I5" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>7</v>
       </c>
-      <c r="J5" s="12">
+      <c r="K5" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="12">
+      <c r="L5" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>7</v>
       </c>
-      <c r="L5" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="M5" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>7</v>
       </c>
-      <c r="M5" s="12">
+      <c r="N5" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="N5" s="12">
+      <c r="O5" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="str">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>Comms Power</v>
       </c>
-      <c r="B6" s="23" t="str">
+      <c r="B6" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
@@ -3610,52 +3826,56 @@
         <v>24</v>
       </c>
       <c r="E6" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F6" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G6" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>0.4375</v>
       </c>
-      <c r="F6" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="H6" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>0.4375</v>
       </c>
-      <c r="H6" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I6" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="I6" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>2.5</v>
       </c>
-      <c r="J6" s="12">
+      <c r="K6" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>8</v>
       </c>
-      <c r="K6" s="12">
+      <c r="L6" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>10.5</v>
       </c>
-      <c r="L6" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="M6" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>2.5</v>
       </c>
-      <c r="M6" s="12">
+      <c r="N6" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>8</v>
       </c>
-      <c r="N6" s="12">
+      <c r="O6" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>10.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="str">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>Transceiver</v>
       </c>
-      <c r="B7" s="23" t="str">
+      <c r="B7" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Comms Power</v>
       </c>
@@ -3668,52 +3888,56 @@
         <v>24</v>
       </c>
       <c r="E7" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>0.3125</v>
+      </c>
+      <c r="F7" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>0.3125</v>
+      </c>
+      <c r="G7" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F7" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>0.3125</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="H7" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H7" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>0.3125</v>
-      </c>
-      <c r="I7" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="I7" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>0.5</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>7.5</v>
       </c>
-      <c r="K7" s="12">
+      <c r="L7" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>8</v>
       </c>
-      <c r="L7" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="M7" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>0.5</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>7.5</v>
       </c>
-      <c r="N7" s="12">
+      <c r="O7" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="str">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>Antenna</v>
       </c>
-      <c r="B8" s="23" t="str">
+      <c r="B8" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Transceiver</v>
       </c>
@@ -3725,53 +3949,57 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F8" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G8" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>0.3125</v>
       </c>
-      <c r="F8" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G8" s="12">
+      <c r="H8" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>0.3125</v>
       </c>
-      <c r="H8" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="I8" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="I8" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>7.5</v>
       </c>
-      <c r="J8" s="12">
+      <c r="K8" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="K8" s="12">
+      <c r="L8" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>7.5</v>
       </c>
-      <c r="L8" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="M8" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>7.5</v>
       </c>
-      <c r="M8" s="12">
+      <c r="N8" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="N8" s="12">
+      <c r="O8" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="str">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>Dirty Power</v>
       </c>
-      <c r="B9" s="23" t="str">
+      <c r="B9" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
@@ -3784,52 +4012,56 @@
         <v>12</v>
       </c>
       <c r="E9" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>540.41250000000002</v>
+      </c>
+      <c r="F9" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>68.94583333333334</v>
+      </c>
+      <c r="G9" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>270.19166666666666</v>
-      </c>
-      <c r="F9" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>540.38333333333333</v>
-      </c>
-      <c r="G9" s="12">
+        <v>283.71656250000007</v>
+      </c>
+      <c r="H9" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>190.19166666666669</v>
-      </c>
-      <c r="H9" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>380.38333333333338</v>
-      </c>
-      <c r="I9" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>36.196562500000006</v>
+      </c>
+      <c r="I9" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0.95</v>
       </c>
       <c r="J9" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>324.24750000000034</v>
+      </c>
+      <c r="K9" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>6484.6</v>
-      </c>
-      <c r="K9" s="12">
+        <v>6484.9500000000007</v>
+      </c>
+      <c r="L9" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>6484.6</v>
-      </c>
-      <c r="L9" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>6809.1975000000011</v>
       </c>
       <c r="M9" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>41.367500000000035</v>
+      </c>
+      <c r="N9" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>4564.6000000000004</v>
-      </c>
-      <c r="N9" s="12">
+        <v>827.35</v>
+      </c>
+      <c r="O9" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>4564.6000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="str">
+        <v>868.71750000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>FrontRight ESC</v>
       </c>
-      <c r="B10" s="23" t="str">
+      <c r="B10" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
@@ -3842,52 +4074,56 @@
         <v>12</v>
       </c>
       <c r="E10" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>85</v>
+      </c>
+      <c r="F10" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>10</v>
+      </c>
+      <c r="G10" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>85</v>
       </c>
-      <c r="F10" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="H10" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="H10" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="I10" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>10</v>
+      </c>
+      <c r="I10" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>0</v>
       </c>
-      <c r="J10" s="12">
+      <c r="K10" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>1020</v>
       </c>
-      <c r="K10" s="12">
+      <c r="L10" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="L10" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="M10" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>0</v>
       </c>
-      <c r="M10" s="12">
+      <c r="N10" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>700</v>
-      </c>
-      <c r="N10" s="12">
+        <v>120</v>
+      </c>
+      <c r="O10" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="str">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>FrontRight Motor</v>
       </c>
-      <c r="B11" s="23" t="str">
+      <c r="B11" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>FrontRight ESC</v>
       </c>
@@ -3899,53 +4135,57 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F11" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G11" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>85</v>
       </c>
-      <c r="F11" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G11" s="12">
+      <c r="H11" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="H11" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="I11" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>10</v>
+      </c>
+      <c r="I11" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="J11" s="12">
+      <c r="K11" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="K11" s="12">
+      <c r="L11" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="L11" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>700</v>
-      </c>
       <c r="M11" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>120</v>
+      </c>
+      <c r="N11" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="N11" s="12">
+      <c r="O11" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="str">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>MidRight ESC</v>
       </c>
-      <c r="B12" s="23" t="str">
+      <c r="B12" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
@@ -3958,52 +4198,56 @@
         <v>12</v>
       </c>
       <c r="E12" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>85</v>
+      </c>
+      <c r="F12" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>10</v>
+      </c>
+      <c r="G12" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>85</v>
       </c>
-      <c r="F12" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="G12" s="12">
+      <c r="H12" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="H12" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="I12" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>10</v>
+      </c>
+      <c r="I12" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>0</v>
       </c>
-      <c r="J12" s="12">
+      <c r="K12" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>1020</v>
       </c>
-      <c r="K12" s="12">
+      <c r="L12" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="L12" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="M12" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>0</v>
       </c>
-      <c r="M12" s="12">
+      <c r="N12" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>700</v>
-      </c>
-      <c r="N12" s="12">
+        <v>120</v>
+      </c>
+      <c r="O12" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="str">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>MidRight Motor</v>
       </c>
-      <c r="B13" s="23" t="str">
+      <c r="B13" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>MidRight ESC</v>
       </c>
@@ -4015,53 +4259,57 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F13" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G13" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>85</v>
       </c>
-      <c r="F13" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G13" s="12">
+      <c r="H13" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="H13" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="I13" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>10</v>
+      </c>
+      <c r="I13" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="J13" s="12">
+      <c r="K13" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="K13" s="12">
+      <c r="L13" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="L13" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>700</v>
-      </c>
       <c r="M13" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>120</v>
+      </c>
+      <c r="N13" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="N13" s="12">
+      <c r="O13" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="str">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>BackRight ESC</v>
       </c>
-      <c r="B14" s="23" t="str">
+      <c r="B14" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
@@ -4074,52 +4322,56 @@
         <v>12</v>
       </c>
       <c r="E14" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>85</v>
+      </c>
+      <c r="F14" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>10</v>
+      </c>
+      <c r="G14" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>85</v>
       </c>
-      <c r="F14" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="G14" s="12">
+      <c r="H14" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="H14" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="I14" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>10</v>
+      </c>
+      <c r="I14" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>0</v>
       </c>
-      <c r="J14" s="12">
+      <c r="K14" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>1020</v>
       </c>
-      <c r="K14" s="12">
+      <c r="L14" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="L14" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="M14" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>0</v>
       </c>
-      <c r="M14" s="12">
+      <c r="N14" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>700</v>
-      </c>
-      <c r="N14" s="12">
+        <v>120</v>
+      </c>
+      <c r="O14" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="str">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>BackRight Motor</v>
       </c>
-      <c r="B15" s="23" t="str">
+      <c r="B15" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>BackRight ESC</v>
       </c>
@@ -4131,53 +4383,57 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F15" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G15" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>85</v>
       </c>
-      <c r="F15" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G15" s="12">
+      <c r="H15" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="H15" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="I15" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>10</v>
+      </c>
+      <c r="I15" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="J15" s="12">
+      <c r="K15" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="K15" s="12">
+      <c r="L15" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="L15" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>700</v>
-      </c>
       <c r="M15" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>120</v>
+      </c>
+      <c r="N15" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="N15" s="12">
+      <c r="O15" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="str">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>FrontLeft ESC</v>
       </c>
-      <c r="B16" s="23" t="str">
+      <c r="B16" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
@@ -4190,52 +4446,56 @@
         <v>12</v>
       </c>
       <c r="E16" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>85</v>
+      </c>
+      <c r="F16" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>10</v>
+      </c>
+      <c r="G16" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>85</v>
       </c>
-      <c r="F16" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="G16" s="12">
+      <c r="H16" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="H16" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="I16" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>10</v>
+      </c>
+      <c r="I16" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>0</v>
       </c>
-      <c r="J16" s="12">
+      <c r="K16" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>1020</v>
       </c>
-      <c r="K16" s="12">
+      <c r="L16" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="L16" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="M16" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>0</v>
       </c>
-      <c r="M16" s="12">
+      <c r="N16" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>700</v>
-      </c>
-      <c r="N16" s="12">
+        <v>120</v>
+      </c>
+      <c r="O16" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="str">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>FrontLeft Motor</v>
       </c>
-      <c r="B17" s="23" t="str">
+      <c r="B17" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>FrontLeft ESC</v>
       </c>
@@ -4247,53 +4507,57 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F17" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G17" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>85</v>
       </c>
-      <c r="F17" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G17" s="12">
+      <c r="H17" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="H17" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="I17" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>10</v>
+      </c>
+      <c r="I17" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="J17" s="12">
+      <c r="K17" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="K17" s="12">
+      <c r="L17" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="L17" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>700</v>
-      </c>
       <c r="M17" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>120</v>
+      </c>
+      <c r="N17" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="N17" s="12">
+      <c r="O17" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="str">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>MidLeft ESC</v>
       </c>
-      <c r="B18" s="23" t="str">
+      <c r="B18" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
@@ -4306,52 +4570,56 @@
         <v>12</v>
       </c>
       <c r="E18" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>85</v>
+      </c>
+      <c r="F18" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>10</v>
+      </c>
+      <c r="G18" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>85</v>
       </c>
-      <c r="F18" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="G18" s="12">
+      <c r="H18" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="H18" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="I18" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>10</v>
+      </c>
+      <c r="I18" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>0</v>
       </c>
-      <c r="J18" s="12">
+      <c r="K18" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>1020</v>
       </c>
-      <c r="K18" s="12">
+      <c r="L18" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="L18" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="M18" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>0</v>
       </c>
-      <c r="M18" s="12">
+      <c r="N18" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>700</v>
-      </c>
-      <c r="N18" s="12">
+        <v>120</v>
+      </c>
+      <c r="O18" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="str">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>MidLeft Motor</v>
       </c>
-      <c r="B19" s="23" t="str">
+      <c r="B19" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>MidLeft ESC</v>
       </c>
@@ -4363,53 +4631,57 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F19" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G19" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>85</v>
       </c>
-      <c r="F19" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G19" s="12">
+      <c r="H19" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="H19" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="I19" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>10</v>
+      </c>
+      <c r="I19" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="J19" s="12">
+      <c r="K19" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="K19" s="12">
+      <c r="L19" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="L19" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>700</v>
-      </c>
       <c r="M19" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>120</v>
+      </c>
+      <c r="N19" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="N19" s="12">
+      <c r="O19" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="str">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>BackLeft ESC</v>
       </c>
-      <c r="B20" s="23" t="str">
+      <c r="B20" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
@@ -4422,52 +4694,56 @@
         <v>12</v>
       </c>
       <c r="E20" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>85</v>
+      </c>
+      <c r="F20" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v>10</v>
+      </c>
+      <c r="G20" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>85</v>
       </c>
-      <c r="F20" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="G20" s="12">
+      <c r="H20" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="H20" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="I20" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>10</v>
+      </c>
+      <c r="I20" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>0</v>
       </c>
-      <c r="J20" s="12">
+      <c r="K20" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>1020</v>
       </c>
-      <c r="K20" s="12">
+      <c r="L20" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="L20" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="M20" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>0</v>
       </c>
-      <c r="M20" s="12">
+      <c r="N20" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>700</v>
-      </c>
-      <c r="N20" s="12">
+        <v>120</v>
+      </c>
+      <c r="O20" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="str">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>BackLeft Motor</v>
       </c>
-      <c r="B21" s="23" t="str">
+      <c r="B21" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>BackLeft ESC</v>
       </c>
@@ -4479,53 +4755,57 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F21" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G21" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>85</v>
       </c>
-      <c r="F21" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G21" s="12">
+      <c r="H21" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="H21" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="I21" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>10</v>
+      </c>
+      <c r="I21" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="J21" s="12">
+      <c r="K21" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="K21" s="12">
+      <c r="L21" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="L21" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>700</v>
-      </c>
       <c r="M21" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>120</v>
+      </c>
+      <c r="N21" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="N21" s="12">
+      <c r="O21" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="str">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>Shoulder Motor</v>
       </c>
-      <c r="B22" s="23" t="str">
+      <c r="B22" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
@@ -4537,53 +4817,57 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F22" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G22" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>20</v>
       </c>
-      <c r="F22" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G22" s="12">
+      <c r="H22" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>20</v>
-      </c>
-      <c r="H22" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="I22" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>5</v>
+      </c>
+      <c r="I22" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>240</v>
       </c>
-      <c r="J22" s="12">
+      <c r="K22" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="K22" s="12">
+      <c r="L22" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>240</v>
       </c>
-      <c r="L22" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>240</v>
-      </c>
       <c r="M22" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>60</v>
+      </c>
+      <c r="N22" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="N22" s="12">
+      <c r="O22" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>Base Motor</v>
       </c>
-      <c r="B23" s="23" t="str">
+      <c r="B23" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
@@ -4595,53 +4879,57 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F23" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G23" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>4.8999999999999995</v>
       </c>
-      <c r="F23" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G23" s="12">
+      <c r="H23" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>4.8999999999999995</v>
-      </c>
-      <c r="H23" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="I23" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I23" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>58.8</v>
       </c>
-      <c r="J23" s="12">
+      <c r="K23" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="K23" s="12">
+      <c r="L23" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>58.8</v>
       </c>
-      <c r="L23" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>58.8</v>
-      </c>
       <c r="M23" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>20</v>
+      </c>
+      <c r="N23" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="N23" s="12">
+      <c r="O23" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>58.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>Upper Limb Motor</v>
       </c>
-      <c r="B24" s="23" t="str">
+      <c r="B24" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
@@ -4653,53 +4941,57 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F24" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G24" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>4.8999999999999995</v>
       </c>
-      <c r="F24" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G24" s="12">
+      <c r="H24" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>4.8999999999999995</v>
-      </c>
-      <c r="H24" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="I24" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I24" s="5">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>58.8</v>
       </c>
-      <c r="J24" s="12">
+      <c r="K24" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="K24" s="12">
+      <c r="L24" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>58.8</v>
       </c>
-      <c r="L24" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>58.8</v>
-      </c>
       <c r="M24" s="12">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>20</v>
+      </c>
+      <c r="N24" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="N24" s="12">
+      <c r="O24" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>58.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v/>
       </c>
-      <c r="B25" s="23" t="str">
+      <c r="B25" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -4712,52 +5004,56 @@
         <v/>
       </c>
       <c r="E25" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F25" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G25" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="F25" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G25" s="12" t="str">
+      <c r="H25" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="H25" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="I25" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="I25" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="J25" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="K25" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="K25" s="12" t="str">
+      <c r="L25" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
-      <c r="L25" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
       <c r="M25" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="N25" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="N25" s="12" t="str">
+      <c r="O25" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="str">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v/>
       </c>
-      <c r="B26" s="23" t="str">
+      <c r="B26" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -4770,52 +5066,56 @@
         <v/>
       </c>
       <c r="E26" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F26" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G26" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="F26" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G26" s="12" t="str">
+      <c r="H26" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="H26" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="I26" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="I26" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="J26" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="K26" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="K26" s="12" t="str">
+      <c r="L26" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
-      <c r="L26" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
       <c r="M26" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="N26" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="N26" s="12" t="str">
+      <c r="O26" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="str">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v/>
       </c>
-      <c r="B27" s="23" t="str">
+      <c r="B27" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -4828,52 +5128,56 @@
         <v/>
       </c>
       <c r="E27" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F27" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G27" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="F27" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G27" s="12" t="str">
+      <c r="H27" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="H27" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="I27" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="I27" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="J27" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="K27" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="K27" s="12" t="str">
+      <c r="L27" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
-      <c r="L27" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
       <c r="M27" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="N27" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="N27" s="12" t="str">
+      <c r="O27" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="str">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v/>
       </c>
-      <c r="B28" s="23" t="str">
+      <c r="B28" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -4886,52 +5190,56 @@
         <v/>
       </c>
       <c r="E28" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F28" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G28" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="F28" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G28" s="12" t="str">
+      <c r="H28" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="H28" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="I28" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="I28" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="J28" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="K28" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="K28" s="12" t="str">
+      <c r="L28" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
-      <c r="L28" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
       <c r="M28" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="N28" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="N28" s="12" t="str">
+      <c r="O28" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="str">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v/>
       </c>
-      <c r="B29" s="23" t="str">
+      <c r="B29" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -4944,52 +5252,56 @@
         <v/>
       </c>
       <c r="E29" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F29" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G29" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="F29" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G29" s="12" t="str">
+      <c r="H29" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="H29" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="I29" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="I29" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="J29" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="K29" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="K29" s="12" t="str">
+      <c r="L29" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
-      <c r="L29" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
       <c r="M29" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="N29" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="N29" s="12" t="str">
+      <c r="O29" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="str">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v/>
       </c>
-      <c r="B30" s="23" t="str">
+      <c r="B30" s="22" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -5002,48 +5314,51 @@
         <v/>
       </c>
       <c r="E30" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F30" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G30" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="F30" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G30" s="12" t="str">
+      <c r="H30" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="H30" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="I30" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
+      <c r="I30" s="5" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
       <c r="J30" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="K30" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="K30" s="12" t="str">
+      <c r="L30" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
-      <c r="L30" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
       <c r="M30" s="12" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="N30" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="N30" s="12" t="str">
+      <c r="O30" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30">
       <formula1>ItemIDs</formula1>
@@ -5060,8 +5375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5089,37 +5404,37 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
-        <v>91</v>
-      </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>56</v>
-      </c>
-      <c r="R1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -5164,11 +5479,11 @@
       </c>
       <c r="Q2" s="5">
         <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>270.62916666666666</v>
+        <v>284.15406250000007</v>
       </c>
       <c r="R2" s="4">
         <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", RailSummary[[#This Row],[Voltage (V)]]*RailSummary[[#This Row],[Current (W)]])</f>
-        <v>6495.1</v>
+        <v>6819.697500000002</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -5182,19 +5497,19 @@
       </c>
       <c r="C3" s="13">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>270.62916666666666</v>
+        <v>284.15406250000007</v>
       </c>
       <c r="D3" s="13">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>190.62916666666669</v>
+        <v>36.634062500000006</v>
       </c>
       <c r="E3" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>0.67657291666666663</v>
+        <v>0.7103851562500002</v>
       </c>
       <c r="F3" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>0.47657291666666673</v>
+        <v>9.1585156250000022E-2</v>
       </c>
       <c r="G3" s="12">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
@@ -5202,17 +5517,17 @@
       </c>
       <c r="H3" s="5">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Constant Current Used]]="", Results[[#This Row],[Battery (mAh)]]=""), "", Results[[#This Row],[Battery (mAh)]]/Results[[#This Row],[Constant Current Used]])</f>
-        <v>5.2457869773338279</v>
+        <v>27.296999889105933</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" s="14" t="str">
         <f>IF(COUNTIF(Results[Constant % Capacity], "&gt;1")=0, IF(COUNTIF(Results[Peak % Capacity], "&gt;1")=0, "GO", "MAYBE"), "HOLD")</f>
-        <v>MAYBE</v>
+        <v>HOLD</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P3">
         <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output (V)])-COLUMN(Analysis[])+1, FALSE))</f>
@@ -5234,7 +5549,7 @@
       </c>
       <c r="B4">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>550</v>
+        <v>12</v>
       </c>
       <c r="C4" s="13">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
@@ -5246,11 +5561,11 @@
       </c>
       <c r="E4" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>2.5454545454545452E-3</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="F4" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>2.5454545454545452E-3</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="G4" s="12" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
@@ -5261,14 +5576,14 @@
         <v/>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L4" s="15" t="str">
         <f>CONCATENATE(TEXT(INT(MIN(Results[Battery Life (hrs)])), "#"),":",TEXT(MOD(MIN(Results[Battery Life (hrs)]), 1)*60, "0#"))</f>
-        <v>5:15</v>
+        <v>27:18</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4">
         <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output (V)])-COLUMN(Analysis[])+1, FALSE))</f>
@@ -5317,7 +5632,7 @@
         <v/>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5">
         <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output (V)])-COLUMN(Analysis[])+1, FALSE))</f>
@@ -5325,11 +5640,11 @@
       </c>
       <c r="Q5" s="5">
         <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>540.38333333333333</v>
+        <v>540.41250000000002</v>
       </c>
       <c r="R5" s="4">
         <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", RailSummary[[#This Row],[Voltage (V)]]*RailSummary[[#This Row],[Current (W)]])</f>
-        <v>6484.6</v>
+        <v>6484.9500000000007</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -5479,23 +5794,23 @@
       </c>
       <c r="B9">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>550</v>
+        <v>12</v>
       </c>
       <c r="C9" s="13">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>540.38333333333333</v>
+        <v>540.41250000000002</v>
       </c>
       <c r="D9" s="13">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>380.38333333333338</v>
+        <v>68.94583333333334</v>
       </c>
       <c r="E9" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>0.98251515151515145</v>
+        <v>45.034375000000004</v>
       </c>
       <c r="F9" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>0.69160606060606067</v>
+        <v>5.745486111111112</v>
       </c>
       <c r="G9" s="12" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
@@ -5521,7 +5836,7 @@
       </c>
       <c r="D10" s="13">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>58.333333333333336</v>
+        <v>10</v>
       </c>
       <c r="E10" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
@@ -5529,7 +5844,7 @@
       </c>
       <c r="F10" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>0.97222222222222221</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G10" s="12" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
@@ -5589,7 +5904,7 @@
       </c>
       <c r="D12" s="13">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>58.333333333333336</v>
+        <v>10</v>
       </c>
       <c r="E12" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
@@ -5597,7 +5912,7 @@
       </c>
       <c r="F12" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>0.97222222222222221</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G12" s="12" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
@@ -5657,7 +5972,7 @@
       </c>
       <c r="D14" s="13">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>58.333333333333336</v>
+        <v>10</v>
       </c>
       <c r="E14" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
@@ -5665,7 +5980,7 @@
       </c>
       <c r="F14" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>0.97222222222222221</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G14" s="12" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
@@ -5725,7 +6040,7 @@
       </c>
       <c r="D16" s="13">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>58.333333333333336</v>
+        <v>10</v>
       </c>
       <c r="E16" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
@@ -5733,7 +6048,7 @@
       </c>
       <c r="F16" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>0.97222222222222221</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G16" s="12" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
@@ -5793,7 +6108,7 @@
       </c>
       <c r="D18" s="13">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>58.333333333333336</v>
+        <v>10</v>
       </c>
       <c r="E18" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
@@ -5801,7 +6116,7 @@
       </c>
       <c r="F18" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>0.97222222222222221</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G18" s="12" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
@@ -5861,7 +6176,7 @@
       </c>
       <c r="D20" s="13">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>58.333333333333336</v>
+        <v>10</v>
       </c>
       <c r="E20" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
@@ -5869,7 +6184,7 @@
       </c>
       <c r="F20" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>0.97222222222222221</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G20" s="12" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
@@ -6222,13 +6537,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L3">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>INDIRECT(ADDRESS(ROW(), COLUMN()))="HOLD"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>INDIRECT(ADDRESS(ROW(), COLUMN()))="MAYBE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>INDIRECT(ADDRESS(ROW(), COLUMN()))="GO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6261,10 +6576,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6274,27 +6589,31 @@
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="59.85546875" customWidth="1"/>
-    <col min="6" max="7" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" t="s">
-        <v>70</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</f>
         <v/>
@@ -6307,52 +6626,63 @@
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", IF(ISNUMBER(VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE)), VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE), ""))</f>
         <v/>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="F2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</f>
         <v>Battery Pack</v>
       </c>
       <c r="B3" t="str">
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Name])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
+        <v>24 V Lithuim Ion Battery back</v>
       </c>
       <c r="C3" s="3" t="str">
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", IF(ISNUMBER(VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE)), VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE), ""))</f>
         <v/>
       </c>
       <c r="E3" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</f>
         <v>Logic Supply</v>
       </c>
       <c r="B4" t="str">
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Name])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Linear Voltage Regulator</v>
-      </c>
-      <c r="C4" s="3" t="str">
+        <v>Adjustable Linear Voltage Regulator</v>
+      </c>
+      <c r="C4" s="3">
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", IF(ISNUMBER(VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE)), VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE), ""))</f>
-        <v/>
+        <v>8.48</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</f>
         <v>Master Control</v>
@@ -6366,13 +6696,16 @@
         <v>30</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</f>
         <v>Comms Power</v>
@@ -6386,13 +6719,16 @@
         <v/>
       </c>
       <c r="E6" s="9" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1">
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</f>
         <v>Transceiver</v>
@@ -6406,13 +6742,16 @@
         <v>180</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</f>
         <v>Antenna</v>
@@ -6426,33 +6765,39 @@
         <v>150</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</f>
         <v>Dirty Power</v>
       </c>
       <c r="B9" s="1" t="str">
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Name])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Linear Voltage Regulator</v>
-      </c>
-      <c r="C9" s="3" t="str">
+        <v>Adjustable Linear Voltage Regulator</v>
+      </c>
+      <c r="C9" s="3">
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", IF(ISNUMBER(VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE)), VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE), ""))</f>
-        <v/>
+        <v>8.48</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</f>
         <v>FrontRight ESC</v>
@@ -6466,13 +6811,16 @@
         <v>60</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="F10" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</f>
         <v>FrontRight Motor</v>
@@ -6486,13 +6834,16 @@
         <v>7.25</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="F11" s="1">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</f>
         <v>MidRight ESC</v>
@@ -6506,13 +6857,16 @@
         <v>60</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1">
+        <v>22</v>
+      </c>
+      <c r="G12" s="3">
         <v>923.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</f>
         <v>MidRight Motor</v>
@@ -6526,7 +6880,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</f>
         <v>BackRight ESC</v>
@@ -6540,7 +6894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</f>
         <v>BackRight Motor</v>
@@ -6554,7 +6908,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</f>
         <v>FrontLeft ESC</v>
@@ -6766,8 +7120,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Electrical/PowerBudget.xlsx
+++ b/Electrical/PowerBudget.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Talonj123\MAVRIC\MAVRIC-Electrical\Electrical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james.talbert\MAVRIC-Electrical\Electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
     <definedName name="ComponentIDs">ComponentData[ID]</definedName>
     <definedName name="ItemIDs">Analysis[ItemID]</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="100">
   <si>
     <t>Name</t>
   </si>
@@ -333,12 +333,15 @@
   </si>
   <si>
     <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Transmission Loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -459,41 +462,38 @@
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="166" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="166" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="166" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="166" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="166" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -544,10 +544,40 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
@@ -572,6 +602,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="#,##0.0"/>
@@ -627,37 +661,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -947,7 +950,7 @@
     <dataField name="Total Cost" fld="3" baseField="1" baseItem="1" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="13">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -973,61 +976,61 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ComponentData" displayName="ComponentData" ref="A1:K11" totalsRowShown="0">
   <autoFilter ref="A1:K11"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="ID" dataDxfId="60"/>
-    <tableColumn id="6" name="Name" dataDxfId="59"/>
-    <tableColumn id="2" name="Manufacturer" dataDxfId="58"/>
-    <tableColumn id="3" name="Source" dataDxfId="57"/>
-    <tableColumn id="4" name="Price" dataDxfId="56"/>
-    <tableColumn id="5" name="Peak Consumption (W)" dataDxfId="55"/>
-    <tableColumn id="10" name="Constant Consumption (W)" dataDxfId="54"/>
-    <tableColumn id="7" name="Output (V)" dataDxfId="53"/>
-    <tableColumn id="8" name="Output (A)" dataDxfId="52"/>
-    <tableColumn id="9" name="Battery (mAh)" dataDxfId="51"/>
-    <tableColumn id="11" name="Efficiency" dataDxfId="9"/>
+    <tableColumn id="1" name="ID" dataDxfId="12"/>
+    <tableColumn id="6" name="Name" dataDxfId="11"/>
+    <tableColumn id="2" name="Manufacturer" dataDxfId="10"/>
+    <tableColumn id="3" name="Source" dataDxfId="9"/>
+    <tableColumn id="4" name="Price" dataDxfId="8"/>
+    <tableColumn id="5" name="Peak Consumption (W)" dataDxfId="7"/>
+    <tableColumn id="10" name="Constant Consumption (W)" dataDxfId="6"/>
+    <tableColumn id="7" name="Output (V)" dataDxfId="5"/>
+    <tableColumn id="8" name="Output (A)" dataDxfId="4"/>
+    <tableColumn id="9" name="Battery (mAh)" dataDxfId="3"/>
+    <tableColumn id="11" name="Transmission Loss" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Items" displayName="Items" ref="A1:N31" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Items" displayName="Items" ref="A1:N31" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="A1:N31"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="ItemID" dataDxfId="48"/>
-    <tableColumn id="2" name="Component" dataDxfId="47"/>
-    <tableColumn id="3" name="Supply Item" dataDxfId="46"/>
-    <tableColumn id="4" name="Supply Component" dataDxfId="45">
+    <tableColumn id="1" name="ItemID" dataDxfId="58"/>
+    <tableColumn id="2" name="Component" dataDxfId="57"/>
+    <tableColumn id="3" name="Supply Item" dataDxfId="56"/>
+    <tableColumn id="4" name="Supply Component" dataDxfId="55">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Name" dataDxfId="44">
+    <tableColumn id="5" name="Name" dataDxfId="54">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Manufacturer" dataDxfId="43">
+    <tableColumn id="6" name="Manufacturer" dataDxfId="53">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Source" dataDxfId="42">
+    <tableColumn id="7" name="Source" dataDxfId="52">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Price" dataDxfId="41">
+    <tableColumn id="8" name="Price" dataDxfId="51">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Peak Consumption (W)" dataDxfId="40">
+    <tableColumn id="9" name="Peak Consumption (W)" dataDxfId="50">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Constant Consumption (W)" dataDxfId="39">
+    <tableColumn id="10" name="Constant Consumption (W)" dataDxfId="49">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Output (V)" dataDxfId="38">
+    <tableColumn id="11" name="Output (V)" dataDxfId="48">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Output (A)" dataDxfId="37">
+    <tableColumn id="12" name="Output (A)" dataDxfId="47">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Battery (mAh)" dataDxfId="36">
+    <tableColumn id="13" name="Battery (mAh)" dataDxfId="46">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Efficiency" dataDxfId="8">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
+    <tableColumn id="14" name="Efficiency" dataDxfId="45">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1038,47 +1041,47 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Analysis" displayName="Analysis" ref="A1:O30" totalsRowShown="0">
   <autoFilter ref="A1:O30"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="ItemID" dataDxfId="35">
+    <tableColumn id="1" name="ItemID" dataDxfId="44">
       <calculatedColumnFormula>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Supply Item" dataDxfId="34"/>
-    <tableColumn id="11" name="Input (V)" dataDxfId="33">
+    <tableColumn id="5" name="Supply Item" dataDxfId="43"/>
+    <tableColumn id="11" name="Input (V)" dataDxfId="42">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Output (V)" dataDxfId="32">
+    <tableColumn id="8" name="Output (V)" dataDxfId="41">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Peak Output (A)" dataDxfId="31">
+    <tableColumn id="7" name="Peak Output (A)" dataDxfId="40">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Constant Output (A)" dataDxfId="30">
+    <tableColumn id="17" name="Constant Output (A)" dataDxfId="39">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Peak Input (A)" dataDxfId="6">
+    <tableColumn id="9" name="Peak Input (A)" dataDxfId="38">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Constant Input (A)" dataDxfId="7">
+    <tableColumn id="16" name="Constant Input (A)" dataDxfId="37">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Efficiency" dataDxfId="2">
+    <tableColumn id="2" name="Efficiency" dataDxfId="36">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Self Peak Consumption (W)" dataDxfId="1">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Children Peak Consumption (W)" dataDxfId="29">
+    <tableColumn id="4" name="Children Peak Consumption (W)" dataDxfId="35">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total Peak Consumption (W)" dataDxfId="28">
+    <tableColumn id="6" name="Total Peak Consumption (W)" dataDxfId="34">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="Self Constant Consumption (W)" dataDxfId="0">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Children Constant Consumption (W)" dataDxfId="27">
+    <tableColumn id="14" name="Children Constant Consumption (W)" dataDxfId="33">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Total Constant Consumption (W)" dataDxfId="26">
+    <tableColumn id="15" name="Total Constant Consumption (W)" dataDxfId="32">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1090,28 +1093,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Results" displayName="Results" ref="A1:H30" totalsRowShown="0">
   <autoFilter ref="A1:H30"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ItemID" dataDxfId="25">
+    <tableColumn id="1" name="ItemID" dataDxfId="28">
       <calculatedColumnFormula>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Current Capacity" dataDxfId="24">
+    <tableColumn id="4" name="Current Capacity" dataDxfId="27">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Peak Current Used" dataDxfId="23">
+    <tableColumn id="5" name="Peak Current Used" dataDxfId="26">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Constant Current Used" dataDxfId="22">
+    <tableColumn id="8" name="Constant Current Used" dataDxfId="25">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Peak % Capacity" dataDxfId="21">
+    <tableColumn id="3" name="Peak % Capacity" dataDxfId="24">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Constant % Capacity" dataDxfId="20">
+    <tableColumn id="7" name="Constant % Capacity" dataDxfId="23">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Battery (mAh)" dataDxfId="19">
+    <tableColumn id="9" name="Battery (mAh)" dataDxfId="22">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="18">
+    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="21">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Constant Current Used]]="", Results[[#This Row],[Battery (mAh)]]=""), "", Results[[#This Row],[Battery (mAh)]]/Results[[#This Row],[Constant Current Used]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1123,14 +1126,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RailSummary" displayName="RailSummary" ref="O1:R8" totalsRowShown="0">
   <autoFilter ref="O1:R8"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Power Rail" dataDxfId="17"/>
-    <tableColumn id="2" name="Voltage (V)" dataDxfId="16">
+    <tableColumn id="1" name="Power Rail" dataDxfId="20"/>
+    <tableColumn id="2" name="Voltage (V)" dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output (V)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Current (W)" dataDxfId="15">
+    <tableColumn id="3" name="Current (W)" dataDxfId="18">
       <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Power (W)" dataDxfId="14">
+    <tableColumn id="4" name="Power (W)" dataDxfId="17">
       <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", RailSummary[[#This Row],[Voltage (V)]]*RailSummary[[#This Row],[Current (W)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1142,13 +1145,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Costs" displayName="Costs" ref="A1:C30">
   <autoFilter ref="A1:C30"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Item" totalsRowLabel="Total" dataDxfId="12">
+    <tableColumn id="1" name="Item" totalsRowLabel="Total" dataDxfId="15">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Component Name" dataDxfId="11">
+    <tableColumn id="2" name="Component Name" dataDxfId="14">
       <calculatedColumnFormula>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Name])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Cost" totalsRowFunction="count" dataDxfId="10">
+    <tableColumn id="3" name="Cost" totalsRowFunction="count" dataDxfId="13">
       <calculatedColumnFormula>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", IF(ISNUMBER(VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE)), VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE), ""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1460,7 +1463,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,7 +1512,7 @@
         <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1538,7 +1541,7 @@
         <v>1000</v>
       </c>
       <c r="K2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1569,7 +1572,7 @@
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="4">
-        <v>0.95</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1602,7 +1605,7 @@
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1631,7 +1634,7 @@
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1664,7 +1667,7 @@
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1693,7 +1696,7 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1726,7 +1729,7 @@
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1755,7 +1758,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1782,7 +1785,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1809,7 +1812,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1940,7 +1943,7 @@
         <v/>
       </c>
       <c r="N2" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -1992,8 +1995,8 @@
         <v>1000</v>
       </c>
       <c r="N3" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2046,8 +2049,8 @@
         <v/>
       </c>
       <c r="N4" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0.95</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2101,8 +2104,8 @@
         <v/>
       </c>
       <c r="N5" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2156,8 +2159,8 @@
         <v/>
       </c>
       <c r="N6" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2211,8 +2214,8 @@
         <v/>
       </c>
       <c r="N7" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2266,8 +2269,8 @@
         <v/>
       </c>
       <c r="N8" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2320,8 +2323,8 @@
         <v/>
       </c>
       <c r="N9" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0.95</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2375,8 +2378,8 @@
         <v/>
       </c>
       <c r="N10" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2430,8 +2433,8 @@
         <v/>
       </c>
       <c r="N11" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2485,8 +2488,8 @@
         <v/>
       </c>
       <c r="N12" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2540,8 +2543,8 @@
         <v/>
       </c>
       <c r="N13" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2595,8 +2598,8 @@
         <v/>
       </c>
       <c r="N14" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2650,8 +2653,8 @@
         <v/>
       </c>
       <c r="N15" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2705,8 +2708,8 @@
         <v/>
       </c>
       <c r="N16" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2760,8 +2763,8 @@
         <v/>
       </c>
       <c r="N17" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2815,8 +2818,8 @@
         <v/>
       </c>
       <c r="N18" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2870,8 +2873,8 @@
         <v/>
       </c>
       <c r="N19" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2925,8 +2928,8 @@
         <v/>
       </c>
       <c r="N20" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2980,8 +2983,8 @@
         <v/>
       </c>
       <c r="N21" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3035,8 +3038,8 @@
         <v/>
       </c>
       <c r="N22" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3090,8 +3093,8 @@
         <v/>
       </c>
       <c r="N23" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -3145,8 +3148,8 @@
         <v/>
       </c>
       <c r="N24" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -3191,7 +3194,7 @@
         <v/>
       </c>
       <c r="N25" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -3237,7 +3240,7 @@
         <v/>
       </c>
       <c r="N26" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -3283,7 +3286,7 @@
         <v/>
       </c>
       <c r="N27" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -3329,7 +3332,7 @@
         <v/>
       </c>
       <c r="N28" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -3375,7 +3378,7 @@
         <v/>
       </c>
       <c r="N29" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -3421,7 +3424,7 @@
         <v/>
       </c>
       <c r="N30" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -3467,7 +3470,7 @@
         <v/>
       </c>
       <c r="N31" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -3490,10 +3493,10 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3598,7 +3601,7 @@
         <v/>
       </c>
       <c r="J2" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v/>
       </c>
       <c r="K2" s="12" t="str">
@@ -3610,7 +3613,7 @@
         <v/>
       </c>
       <c r="M2" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v/>
       </c>
       <c r="N2" s="12" t="str">
@@ -3645,7 +3648,7 @@
       </c>
       <c r="F3" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>36.634062500000006</v>
+        <v>36.634062499999999</v>
       </c>
       <c r="G3" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
@@ -3657,10 +3660,10 @@
       </c>
       <c r="I3" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>0</v>
       </c>
       <c r="K3" s="12">
@@ -3672,16 +3675,16 @@
         <v>6819.6975000000011</v>
       </c>
       <c r="M3" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>0</v>
       </c>
       <c r="N3" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>879.21750000000009</v>
+        <v>879.21749999999997</v>
       </c>
       <c r="O3" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>879.21750000000009</v>
+        <v>879.21749999999997</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -3711,19 +3714,19 @@
       </c>
       <c r="G4" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>0.61250000000000004</v>
+        <v>0.61249999999999993</v>
       </c>
       <c r="H4" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>0.61250000000000004</v>
+        <v>0.61249999999999993</v>
       </c>
       <c r="I4" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0.95</v>
+        <v>0.05</v>
       </c>
       <c r="J4" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>0.35000000000000031</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <v>0.35000000000000003</v>
       </c>
       <c r="K4" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
@@ -3731,11 +3734,11 @@
       </c>
       <c r="L4" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>7.3500000000000005</v>
+        <v>7.35</v>
       </c>
       <c r="M4" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>0.35000000000000031</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <v>0.35000000000000003</v>
       </c>
       <c r="N4" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
@@ -3743,7 +3746,7 @@
       </c>
       <c r="O4" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>7.3500000000000005</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -3781,10 +3784,10 @@
       </c>
       <c r="I5" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>7</v>
       </c>
       <c r="K5" s="12">
@@ -3796,7 +3799,7 @@
         <v>7</v>
       </c>
       <c r="M5" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>7</v>
       </c>
       <c r="N5" s="12">
@@ -3843,10 +3846,10 @@
       </c>
       <c r="I6" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>2.5</v>
       </c>
       <c r="K6" s="12">
@@ -3858,7 +3861,7 @@
         <v>10.5</v>
       </c>
       <c r="M6" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>2.5</v>
       </c>
       <c r="N6" s="12">
@@ -3905,10 +3908,10 @@
       </c>
       <c r="I7" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>0.5</v>
       </c>
       <c r="K7" s="12">
@@ -3920,7 +3923,7 @@
         <v>8</v>
       </c>
       <c r="M7" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>0.5</v>
       </c>
       <c r="N7" s="12">
@@ -3967,10 +3970,10 @@
       </c>
       <c r="I8" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>7.5</v>
       </c>
       <c r="K8" s="12">
@@ -3982,7 +3985,7 @@
         <v>7.5</v>
       </c>
       <c r="M8" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>7.5</v>
       </c>
       <c r="N8" s="12">
@@ -4025,15 +4028,15 @@
       </c>
       <c r="H9" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>36.196562500000006</v>
+        <v>36.196562499999999</v>
       </c>
       <c r="I9" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0.95</v>
+        <v>0.05</v>
       </c>
       <c r="J9" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>324.24750000000034</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <v>324.24750000000006</v>
       </c>
       <c r="K9" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
@@ -4044,8 +4047,8 @@
         <v>6809.1975000000011</v>
       </c>
       <c r="M9" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>41.367500000000035</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <v>41.367500000000007</v>
       </c>
       <c r="N9" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
@@ -4053,7 +4056,7 @@
       </c>
       <c r="O9" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>868.71750000000009</v>
+        <v>868.71749999999997</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -4091,10 +4094,10 @@
       </c>
       <c r="I10" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>0</v>
       </c>
       <c r="K10" s="12">
@@ -4106,7 +4109,7 @@
         <v>1020</v>
       </c>
       <c r="M10" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>0</v>
       </c>
       <c r="N10" s="12">
@@ -4153,10 +4156,10 @@
       </c>
       <c r="I11" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>1020</v>
       </c>
       <c r="K11" s="12">
@@ -4168,7 +4171,7 @@
         <v>1020</v>
       </c>
       <c r="M11" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>120</v>
       </c>
       <c r="N11" s="12">
@@ -4215,10 +4218,10 @@
       </c>
       <c r="I12" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>0</v>
       </c>
       <c r="K12" s="12">
@@ -4230,7 +4233,7 @@
         <v>1020</v>
       </c>
       <c r="M12" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>0</v>
       </c>
       <c r="N12" s="12">
@@ -4277,10 +4280,10 @@
       </c>
       <c r="I13" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>1020</v>
       </c>
       <c r="K13" s="12">
@@ -4292,7 +4295,7 @@
         <v>1020</v>
       </c>
       <c r="M13" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>120</v>
       </c>
       <c r="N13" s="12">
@@ -4339,10 +4342,10 @@
       </c>
       <c r="I14" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>0</v>
       </c>
       <c r="K14" s="12">
@@ -4354,7 +4357,7 @@
         <v>1020</v>
       </c>
       <c r="M14" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>0</v>
       </c>
       <c r="N14" s="12">
@@ -4401,10 +4404,10 @@
       </c>
       <c r="I15" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>1020</v>
       </c>
       <c r="K15" s="12">
@@ -4416,7 +4419,7 @@
         <v>1020</v>
       </c>
       <c r="M15" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>120</v>
       </c>
       <c r="N15" s="12">
@@ -4463,10 +4466,10 @@
       </c>
       <c r="I16" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>0</v>
       </c>
       <c r="K16" s="12">
@@ -4478,7 +4481,7 @@
         <v>1020</v>
       </c>
       <c r="M16" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>0</v>
       </c>
       <c r="N16" s="12">
@@ -4525,10 +4528,10 @@
       </c>
       <c r="I17" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>1020</v>
       </c>
       <c r="K17" s="12">
@@ -4540,7 +4543,7 @@
         <v>1020</v>
       </c>
       <c r="M17" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>120</v>
       </c>
       <c r="N17" s="12">
@@ -4587,10 +4590,10 @@
       </c>
       <c r="I18" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>0</v>
       </c>
       <c r="K18" s="12">
@@ -4602,7 +4605,7 @@
         <v>1020</v>
       </c>
       <c r="M18" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>0</v>
       </c>
       <c r="N18" s="12">
@@ -4649,10 +4652,10 @@
       </c>
       <c r="I19" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>1020</v>
       </c>
       <c r="K19" s="12">
@@ -4664,7 +4667,7 @@
         <v>1020</v>
       </c>
       <c r="M19" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>120</v>
       </c>
       <c r="N19" s="12">
@@ -4711,10 +4714,10 @@
       </c>
       <c r="I20" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>0</v>
       </c>
       <c r="K20" s="12">
@@ -4726,7 +4729,7 @@
         <v>1020</v>
       </c>
       <c r="M20" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>0</v>
       </c>
       <c r="N20" s="12">
@@ -4773,10 +4776,10 @@
       </c>
       <c r="I21" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>1020</v>
       </c>
       <c r="K21" s="12">
@@ -4788,7 +4791,7 @@
         <v>1020</v>
       </c>
       <c r="M21" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>120</v>
       </c>
       <c r="N21" s="12">
@@ -4835,10 +4838,10 @@
       </c>
       <c r="I22" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>240</v>
       </c>
       <c r="K22" s="12">
@@ -4850,7 +4853,7 @@
         <v>240</v>
       </c>
       <c r="M22" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>60</v>
       </c>
       <c r="N22" s="12">
@@ -4897,10 +4900,10 @@
       </c>
       <c r="I23" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>58.8</v>
       </c>
       <c r="K23" s="12">
@@ -4912,7 +4915,7 @@
         <v>58.8</v>
       </c>
       <c r="M23" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>20</v>
       </c>
       <c r="N23" s="12">
@@ -4959,10 +4962,10 @@
       </c>
       <c r="I24" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v>58.8</v>
       </c>
       <c r="K24" s="12">
@@ -4974,7 +4977,7 @@
         <v>58.8</v>
       </c>
       <c r="M24" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v>20</v>
       </c>
       <c r="N24" s="12">
@@ -5024,7 +5027,7 @@
         <v/>
       </c>
       <c r="J25" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v/>
       </c>
       <c r="K25" s="12" t="str">
@@ -5036,7 +5039,7 @@
         <v/>
       </c>
       <c r="M25" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v/>
       </c>
       <c r="N25" s="12" t="str">
@@ -5086,7 +5089,7 @@
         <v/>
       </c>
       <c r="J26" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v/>
       </c>
       <c r="K26" s="12" t="str">
@@ -5098,7 +5101,7 @@
         <v/>
       </c>
       <c r="M26" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v/>
       </c>
       <c r="N26" s="12" t="str">
@@ -5148,7 +5151,7 @@
         <v/>
       </c>
       <c r="J27" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v/>
       </c>
       <c r="K27" s="12" t="str">
@@ -5160,7 +5163,7 @@
         <v/>
       </c>
       <c r="M27" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v/>
       </c>
       <c r="N27" s="12" t="str">
@@ -5210,7 +5213,7 @@
         <v/>
       </c>
       <c r="J28" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v/>
       </c>
       <c r="K28" s="12" t="str">
@@ -5222,7 +5225,7 @@
         <v/>
       </c>
       <c r="M28" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v/>
       </c>
       <c r="N28" s="12" t="str">
@@ -5272,7 +5275,7 @@
         <v/>
       </c>
       <c r="J29" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v/>
       </c>
       <c r="K29" s="12" t="str">
@@ -5284,7 +5287,7 @@
         <v/>
       </c>
       <c r="M29" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v/>
       </c>
       <c r="N29" s="12" t="str">
@@ -5334,7 +5337,7 @@
         <v/>
       </c>
       <c r="J30" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
         <v/>
       </c>
       <c r="K30" s="12" t="str">
@@ -5346,7 +5349,7 @@
         <v/>
       </c>
       <c r="M30" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
         <v/>
       </c>
       <c r="N30" s="12" t="str">
@@ -5501,7 +5504,7 @@
       </c>
       <c r="D3" s="13">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>36.634062500000006</v>
+        <v>36.634062499999999</v>
       </c>
       <c r="E3" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
@@ -5509,7 +5512,7 @@
       </c>
       <c r="F3" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>9.1585156250000022E-2</v>
+        <v>9.1585156249999994E-2</v>
       </c>
       <c r="G3" s="12">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
@@ -5517,7 +5520,7 @@
       </c>
       <c r="H3" s="5">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Constant Current Used]]="", Results[[#This Row],[Battery (mAh)]]=""), "", Results[[#This Row],[Battery (mAh)]]/Results[[#This Row],[Constant Current Used]])</f>
-        <v>27.296999889105933</v>
+        <v>27.29699988910594</v>
       </c>
       <c r="K3" t="s">
         <v>38</v>
@@ -6537,13 +6540,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L3">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>INDIRECT(ADDRESS(ROW(), COLUMN()))="HOLD"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>INDIRECT(ADDRESS(ROW(), COLUMN()))="MAYBE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="29" priority="5">
       <formula>INDIRECT(ADDRESS(ROW(), COLUMN()))="GO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Electrical/PowerBudget.xlsx
+++ b/Electrical/PowerBudget.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james.talbert\MAVRIC-Electrical\Electrical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Talonj123\MAVRIC\MAVRIC-Electrical\Electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
     <definedName name="ComponentIDs">ComponentData[ID]</definedName>
     <definedName name="ItemIDs">Analysis[ItemID]</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
   <si>
     <t>Name</t>
   </si>
@@ -333,15 +333,12 @@
   </si>
   <si>
     <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Transmission Loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -462,38 +459,41 @@
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.0"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.0"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -544,40 +544,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
@@ -602,10 +572,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="#,##0.0"/>
@@ -661,6 +627,37 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -950,7 +947,7 @@
     <dataField name="Total Cost" fld="3" baseField="1" baseItem="1" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="16">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -976,61 +973,61 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ComponentData" displayName="ComponentData" ref="A1:K11" totalsRowShown="0">
   <autoFilter ref="A1:K11"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="ID" dataDxfId="12"/>
-    <tableColumn id="6" name="Name" dataDxfId="11"/>
-    <tableColumn id="2" name="Manufacturer" dataDxfId="10"/>
-    <tableColumn id="3" name="Source" dataDxfId="9"/>
-    <tableColumn id="4" name="Price" dataDxfId="8"/>
-    <tableColumn id="5" name="Peak Consumption (W)" dataDxfId="7"/>
-    <tableColumn id="10" name="Constant Consumption (W)" dataDxfId="6"/>
-    <tableColumn id="7" name="Output (V)" dataDxfId="5"/>
-    <tableColumn id="8" name="Output (A)" dataDxfId="4"/>
-    <tableColumn id="9" name="Battery (mAh)" dataDxfId="3"/>
-    <tableColumn id="11" name="Transmission Loss" dataDxfId="2"/>
+    <tableColumn id="1" name="ID" dataDxfId="60"/>
+    <tableColumn id="6" name="Name" dataDxfId="59"/>
+    <tableColumn id="2" name="Manufacturer" dataDxfId="58"/>
+    <tableColumn id="3" name="Source" dataDxfId="57"/>
+    <tableColumn id="4" name="Price" dataDxfId="56"/>
+    <tableColumn id="5" name="Peak Consumption (W)" dataDxfId="55"/>
+    <tableColumn id="10" name="Constant Consumption (W)" dataDxfId="54"/>
+    <tableColumn id="7" name="Output (V)" dataDxfId="53"/>
+    <tableColumn id="8" name="Output (A)" dataDxfId="52"/>
+    <tableColumn id="9" name="Battery (mAh)" dataDxfId="51"/>
+    <tableColumn id="11" name="Efficiency" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Items" displayName="Items" ref="A1:N31" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Items" displayName="Items" ref="A1:N31" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A1:N31"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="ItemID" dataDxfId="58"/>
-    <tableColumn id="2" name="Component" dataDxfId="57"/>
-    <tableColumn id="3" name="Supply Item" dataDxfId="56"/>
-    <tableColumn id="4" name="Supply Component" dataDxfId="55">
+    <tableColumn id="1" name="ItemID" dataDxfId="48"/>
+    <tableColumn id="2" name="Component" dataDxfId="47"/>
+    <tableColumn id="3" name="Supply Item" dataDxfId="46"/>
+    <tableColumn id="4" name="Supply Component" dataDxfId="45">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Name" dataDxfId="54">
+    <tableColumn id="5" name="Name" dataDxfId="44">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Manufacturer" dataDxfId="53">
+    <tableColumn id="6" name="Manufacturer" dataDxfId="43">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Source" dataDxfId="52">
+    <tableColumn id="7" name="Source" dataDxfId="42">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Price" dataDxfId="51">
+    <tableColumn id="8" name="Price" dataDxfId="41">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Peak Consumption (W)" dataDxfId="50">
+    <tableColumn id="9" name="Peak Consumption (W)" dataDxfId="40">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Constant Consumption (W)" dataDxfId="49">
+    <tableColumn id="10" name="Constant Consumption (W)" dataDxfId="39">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Output (V)" dataDxfId="48">
+    <tableColumn id="11" name="Output (V)" dataDxfId="38">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Output (A)" dataDxfId="47">
+    <tableColumn id="12" name="Output (A)" dataDxfId="37">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Battery (mAh)" dataDxfId="46">
+    <tableColumn id="13" name="Battery (mAh)" dataDxfId="36">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Efficiency" dataDxfId="45">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
+    <tableColumn id="14" name="Efficiency" dataDxfId="8">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1041,47 +1038,47 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Analysis" displayName="Analysis" ref="A1:O30" totalsRowShown="0">
   <autoFilter ref="A1:O30"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="ItemID" dataDxfId="44">
+    <tableColumn id="1" name="ItemID" dataDxfId="35">
       <calculatedColumnFormula>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Supply Item" dataDxfId="43"/>
-    <tableColumn id="11" name="Input (V)" dataDxfId="42">
+    <tableColumn id="5" name="Supply Item" dataDxfId="34"/>
+    <tableColumn id="11" name="Input (V)" dataDxfId="33">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Output (V)" dataDxfId="41">
+    <tableColumn id="8" name="Output (V)" dataDxfId="32">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Peak Output (A)" dataDxfId="40">
+    <tableColumn id="7" name="Peak Output (A)" dataDxfId="31">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Constant Output (A)" dataDxfId="39">
+    <tableColumn id="17" name="Constant Output (A)" dataDxfId="30">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Peak Input (A)" dataDxfId="38">
+    <tableColumn id="9" name="Peak Input (A)" dataDxfId="6">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Constant Input (A)" dataDxfId="37">
+    <tableColumn id="16" name="Constant Input (A)" dataDxfId="7">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Efficiency" dataDxfId="36">
+    <tableColumn id="2" name="Efficiency" dataDxfId="2">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Self Peak Consumption (W)" dataDxfId="1">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Children Peak Consumption (W)" dataDxfId="35">
+    <tableColumn id="4" name="Children Peak Consumption (W)" dataDxfId="29">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total Peak Consumption (W)" dataDxfId="34">
+    <tableColumn id="6" name="Total Peak Consumption (W)" dataDxfId="28">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="Self Constant Consumption (W)" dataDxfId="0">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Children Constant Consumption (W)" dataDxfId="33">
+    <tableColumn id="14" name="Children Constant Consumption (W)" dataDxfId="27">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Total Constant Consumption (W)" dataDxfId="32">
+    <tableColumn id="15" name="Total Constant Consumption (W)" dataDxfId="26">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1093,28 +1090,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Results" displayName="Results" ref="A1:H30" totalsRowShown="0">
   <autoFilter ref="A1:H30"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ItemID" dataDxfId="28">
+    <tableColumn id="1" name="ItemID" dataDxfId="25">
       <calculatedColumnFormula>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Current Capacity" dataDxfId="27">
+    <tableColumn id="4" name="Current Capacity" dataDxfId="24">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Peak Current Used" dataDxfId="26">
+    <tableColumn id="5" name="Peak Current Used" dataDxfId="23">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Constant Current Used" dataDxfId="25">
+    <tableColumn id="8" name="Constant Current Used" dataDxfId="22">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Peak % Capacity" dataDxfId="24">
+    <tableColumn id="3" name="Peak % Capacity" dataDxfId="21">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Constant % Capacity" dataDxfId="23">
+    <tableColumn id="7" name="Constant % Capacity" dataDxfId="20">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Battery (mAh)" dataDxfId="22">
+    <tableColumn id="9" name="Battery (mAh)" dataDxfId="19">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="21">
+    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="18">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Constant Current Used]]="", Results[[#This Row],[Battery (mAh)]]=""), "", Results[[#This Row],[Battery (mAh)]]/Results[[#This Row],[Constant Current Used]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1126,14 +1123,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RailSummary" displayName="RailSummary" ref="O1:R8" totalsRowShown="0">
   <autoFilter ref="O1:R8"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Power Rail" dataDxfId="20"/>
-    <tableColumn id="2" name="Voltage (V)" dataDxfId="19">
+    <tableColumn id="1" name="Power Rail" dataDxfId="17"/>
+    <tableColumn id="2" name="Voltage (V)" dataDxfId="16">
       <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output (V)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Current (W)" dataDxfId="18">
+    <tableColumn id="3" name="Current (W)" dataDxfId="15">
       <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Power (W)" dataDxfId="17">
+    <tableColumn id="4" name="Power (W)" dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", RailSummary[[#This Row],[Voltage (V)]]*RailSummary[[#This Row],[Current (W)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1145,13 +1142,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Costs" displayName="Costs" ref="A1:C30">
   <autoFilter ref="A1:C30"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Item" totalsRowLabel="Total" dataDxfId="15">
+    <tableColumn id="1" name="Item" totalsRowLabel="Total" dataDxfId="12">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Component Name" dataDxfId="14">
+    <tableColumn id="2" name="Component Name" dataDxfId="11">
       <calculatedColumnFormula>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Name])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Cost" totalsRowFunction="count" dataDxfId="13">
+    <tableColumn id="3" name="Cost" totalsRowFunction="count" dataDxfId="10">
       <calculatedColumnFormula>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", IF(ISNUMBER(VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE)), VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE), ""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1463,7 +1460,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1509,7 @@
         <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1541,7 +1538,7 @@
         <v>1000</v>
       </c>
       <c r="K2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1572,7 +1569,7 @@
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="4">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1605,7 +1602,7 @@
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1634,7 +1631,7 @@
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1667,7 +1664,7 @@
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1696,7 +1693,7 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1729,7 +1726,7 @@
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1758,7 +1755,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1785,7 +1782,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1812,7 +1809,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1943,7 +1940,7 @@
         <v/>
       </c>
       <c r="N2" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -1995,8 +1992,8 @@
         <v>1000</v>
       </c>
       <c r="N3" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2049,8 +2046,8 @@
         <v/>
       </c>
       <c r="N4" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0.05</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2104,8 +2101,8 @@
         <v/>
       </c>
       <c r="N5" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2159,8 +2156,8 @@
         <v/>
       </c>
       <c r="N6" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2214,8 +2211,8 @@
         <v/>
       </c>
       <c r="N7" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2269,8 +2266,8 @@
         <v/>
       </c>
       <c r="N8" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2323,8 +2320,8 @@
         <v/>
       </c>
       <c r="N9" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0.05</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2378,8 +2375,8 @@
         <v/>
       </c>
       <c r="N10" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2433,8 +2430,8 @@
         <v/>
       </c>
       <c r="N11" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2488,8 +2485,8 @@
         <v/>
       </c>
       <c r="N12" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2543,8 +2540,8 @@
         <v/>
       </c>
       <c r="N13" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2598,8 +2595,8 @@
         <v/>
       </c>
       <c r="N14" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2653,8 +2650,8 @@
         <v/>
       </c>
       <c r="N15" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2708,8 +2705,8 @@
         <v/>
       </c>
       <c r="N16" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2763,8 +2760,8 @@
         <v/>
       </c>
       <c r="N17" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2818,8 +2815,8 @@
         <v/>
       </c>
       <c r="N18" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2873,8 +2870,8 @@
         <v/>
       </c>
       <c r="N19" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2928,8 +2925,8 @@
         <v/>
       </c>
       <c r="N20" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2983,8 +2980,8 @@
         <v/>
       </c>
       <c r="N21" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3038,8 +3035,8 @@
         <v/>
       </c>
       <c r="N22" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3093,8 +3090,8 @@
         <v/>
       </c>
       <c r="N23" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -3148,8 +3145,8 @@
         <v/>
       </c>
       <c r="N24" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -3194,7 +3191,7 @@
         <v/>
       </c>
       <c r="N25" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -3240,7 +3237,7 @@
         <v/>
       </c>
       <c r="N26" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -3286,7 +3283,7 @@
         <v/>
       </c>
       <c r="N27" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -3332,7 +3329,7 @@
         <v/>
       </c>
       <c r="N28" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -3378,7 +3375,7 @@
         <v/>
       </c>
       <c r="N29" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -3424,7 +3421,7 @@
         <v/>
       </c>
       <c r="N30" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -3470,7 +3467,7 @@
         <v/>
       </c>
       <c r="N31" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Transmission Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -3493,10 +3490,10 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3601,7 +3598,7 @@
         <v/>
       </c>
       <c r="J2" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
       <c r="K2" s="12" t="str">
@@ -3613,7 +3610,7 @@
         <v/>
       </c>
       <c r="M2" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
       <c r="N2" s="12" t="str">
@@ -3648,7 +3645,7 @@
       </c>
       <c r="F3" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>36.634062499999999</v>
+        <v>36.634062500000006</v>
       </c>
       <c r="G3" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
@@ -3660,10 +3657,10 @@
       </c>
       <c r="I3" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>0</v>
       </c>
       <c r="K3" s="12">
@@ -3675,16 +3672,16 @@
         <v>6819.6975000000011</v>
       </c>
       <c r="M3" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>0</v>
       </c>
       <c r="N3" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>879.21749999999997</v>
+        <v>879.21750000000009</v>
       </c>
       <c r="O3" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>879.21749999999997</v>
+        <v>879.21750000000009</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -3714,19 +3711,19 @@
       </c>
       <c r="G4" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>0.61249999999999993</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="H4" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>0.61249999999999993</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="I4" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="J4" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
-        <v>0.35000000000000003</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>0.35000000000000031</v>
       </c>
       <c r="K4" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
@@ -3734,11 +3731,11 @@
       </c>
       <c r="L4" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>7.35</v>
+        <v>7.3500000000000005</v>
       </c>
       <c r="M4" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
-        <v>0.35000000000000003</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>0.35000000000000031</v>
       </c>
       <c r="N4" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
@@ -3746,7 +3743,7 @@
       </c>
       <c r="O4" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>7.35</v>
+        <v>7.3500000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -3784,10 +3781,10 @@
       </c>
       <c r="I5" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>7</v>
       </c>
       <c r="K5" s="12">
@@ -3799,7 +3796,7 @@
         <v>7</v>
       </c>
       <c r="M5" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>7</v>
       </c>
       <c r="N5" s="12">
@@ -3846,10 +3843,10 @@
       </c>
       <c r="I6" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>2.5</v>
       </c>
       <c r="K6" s="12">
@@ -3861,7 +3858,7 @@
         <v>10.5</v>
       </c>
       <c r="M6" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>2.5</v>
       </c>
       <c r="N6" s="12">
@@ -3908,10 +3905,10 @@
       </c>
       <c r="I7" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>0.5</v>
       </c>
       <c r="K7" s="12">
@@ -3923,7 +3920,7 @@
         <v>8</v>
       </c>
       <c r="M7" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>0.5</v>
       </c>
       <c r="N7" s="12">
@@ -3970,10 +3967,10 @@
       </c>
       <c r="I8" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>7.5</v>
       </c>
       <c r="K8" s="12">
@@ -3985,7 +3982,7 @@
         <v>7.5</v>
       </c>
       <c r="M8" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>7.5</v>
       </c>
       <c r="N8" s="12">
@@ -4028,15 +4025,15 @@
       </c>
       <c r="H9" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>36.196562499999999</v>
+        <v>36.196562500000006</v>
       </c>
       <c r="I9" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="J9" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
-        <v>324.24750000000006</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>324.24750000000034</v>
       </c>
       <c r="K9" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
@@ -4047,8 +4044,8 @@
         <v>6809.1975000000011</v>
       </c>
       <c r="M9" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
-        <v>41.367500000000007</v>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>41.367500000000035</v>
       </c>
       <c r="N9" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
@@ -4056,7 +4053,7 @@
       </c>
       <c r="O9" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>868.71749999999997</v>
+        <v>868.71750000000009</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -4094,10 +4091,10 @@
       </c>
       <c r="I10" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>0</v>
       </c>
       <c r="K10" s="12">
@@ -4109,7 +4106,7 @@
         <v>1020</v>
       </c>
       <c r="M10" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>0</v>
       </c>
       <c r="N10" s="12">
@@ -4156,10 +4153,10 @@
       </c>
       <c r="I11" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
       <c r="K11" s="12">
@@ -4171,7 +4168,7 @@
         <v>1020</v>
       </c>
       <c r="M11" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>120</v>
       </c>
       <c r="N11" s="12">
@@ -4218,10 +4215,10 @@
       </c>
       <c r="I12" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>0</v>
       </c>
       <c r="K12" s="12">
@@ -4233,7 +4230,7 @@
         <v>1020</v>
       </c>
       <c r="M12" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>0</v>
       </c>
       <c r="N12" s="12">
@@ -4280,10 +4277,10 @@
       </c>
       <c r="I13" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
       <c r="K13" s="12">
@@ -4295,7 +4292,7 @@
         <v>1020</v>
       </c>
       <c r="M13" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>120</v>
       </c>
       <c r="N13" s="12">
@@ -4342,10 +4339,10 @@
       </c>
       <c r="I14" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>0</v>
       </c>
       <c r="K14" s="12">
@@ -4357,7 +4354,7 @@
         <v>1020</v>
       </c>
       <c r="M14" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>0</v>
       </c>
       <c r="N14" s="12">
@@ -4404,10 +4401,10 @@
       </c>
       <c r="I15" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
       <c r="K15" s="12">
@@ -4419,7 +4416,7 @@
         <v>1020</v>
       </c>
       <c r="M15" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>120</v>
       </c>
       <c r="N15" s="12">
@@ -4466,10 +4463,10 @@
       </c>
       <c r="I16" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>0</v>
       </c>
       <c r="K16" s="12">
@@ -4481,7 +4478,7 @@
         <v>1020</v>
       </c>
       <c r="M16" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>0</v>
       </c>
       <c r="N16" s="12">
@@ -4528,10 +4525,10 @@
       </c>
       <c r="I17" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
       <c r="K17" s="12">
@@ -4543,7 +4540,7 @@
         <v>1020</v>
       </c>
       <c r="M17" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>120</v>
       </c>
       <c r="N17" s="12">
@@ -4590,10 +4587,10 @@
       </c>
       <c r="I18" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>0</v>
       </c>
       <c r="K18" s="12">
@@ -4605,7 +4602,7 @@
         <v>1020</v>
       </c>
       <c r="M18" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>0</v>
       </c>
       <c r="N18" s="12">
@@ -4652,10 +4649,10 @@
       </c>
       <c r="I19" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
       <c r="K19" s="12">
@@ -4667,7 +4664,7 @@
         <v>1020</v>
       </c>
       <c r="M19" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>120</v>
       </c>
       <c r="N19" s="12">
@@ -4714,10 +4711,10 @@
       </c>
       <c r="I20" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>0</v>
       </c>
       <c r="K20" s="12">
@@ -4729,7 +4726,7 @@
         <v>1020</v>
       </c>
       <c r="M20" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>0</v>
       </c>
       <c r="N20" s="12">
@@ -4776,10 +4773,10 @@
       </c>
       <c r="I21" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
       <c r="K21" s="12">
@@ -4791,7 +4788,7 @@
         <v>1020</v>
       </c>
       <c r="M21" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>120</v>
       </c>
       <c r="N21" s="12">
@@ -4838,10 +4835,10 @@
       </c>
       <c r="I22" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>240</v>
       </c>
       <c r="K22" s="12">
@@ -4853,7 +4850,7 @@
         <v>240</v>
       </c>
       <c r="M22" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>60</v>
       </c>
       <c r="N22" s="12">
@@ -4900,10 +4897,10 @@
       </c>
       <c r="I23" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>58.8</v>
       </c>
       <c r="K23" s="12">
@@ -4915,7 +4912,7 @@
         <v>58.8</v>
       </c>
       <c r="M23" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>20</v>
       </c>
       <c r="N23" s="12">
@@ -4962,10 +4959,10 @@
       </c>
       <c r="I24" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>58.8</v>
       </c>
       <c r="K24" s="12">
@@ -4977,7 +4974,7 @@
         <v>58.8</v>
       </c>
       <c r="M24" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>20</v>
       </c>
       <c r="N24" s="12">
@@ -5027,7 +5024,7 @@
         <v/>
       </c>
       <c r="J25" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
       <c r="K25" s="12" t="str">
@@ -5039,7 +5036,7 @@
         <v/>
       </c>
       <c r="M25" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
       <c r="N25" s="12" t="str">
@@ -5089,7 +5086,7 @@
         <v/>
       </c>
       <c r="J26" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
       <c r="K26" s="12" t="str">
@@ -5101,7 +5098,7 @@
         <v/>
       </c>
       <c r="M26" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
       <c r="N26" s="12" t="str">
@@ -5151,7 +5148,7 @@
         <v/>
       </c>
       <c r="J27" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
       <c r="K27" s="12" t="str">
@@ -5163,7 +5160,7 @@
         <v/>
       </c>
       <c r="M27" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
       <c r="N27" s="12" t="str">
@@ -5213,7 +5210,7 @@
         <v/>
       </c>
       <c r="J28" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
       <c r="K28" s="12" t="str">
@@ -5225,7 +5222,7 @@
         <v/>
       </c>
       <c r="M28" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
       <c r="N28" s="12" t="str">
@@ -5275,7 +5272,7 @@
         <v/>
       </c>
       <c r="J29" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
       <c r="K29" s="12" t="str">
@@ -5287,7 +5284,7 @@
         <v/>
       </c>
       <c r="M29" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
       <c r="N29" s="12" t="str">
@@ -5337,7 +5334,7 @@
         <v/>
       </c>
       <c r="J30" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Peak Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
       <c r="K30" s="12" t="str">
@@ -5349,7 +5346,7 @@
         <v/>
       </c>
       <c r="M30" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Efficiency]]*Analysis[[#This Row],[Children Constant Consumption (W)]]))</f>
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
       <c r="N30" s="12" t="str">
@@ -5504,7 +5501,7 @@
       </c>
       <c r="D3" s="13">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>36.634062499999999</v>
+        <v>36.634062500000006</v>
       </c>
       <c r="E3" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
@@ -5512,7 +5509,7 @@
       </c>
       <c r="F3" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>9.1585156249999994E-2</v>
+        <v>9.1585156250000022E-2</v>
       </c>
       <c r="G3" s="12">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
@@ -5520,7 +5517,7 @@
       </c>
       <c r="H3" s="5">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Constant Current Used]]="", Results[[#This Row],[Battery (mAh)]]=""), "", Results[[#This Row],[Battery (mAh)]]/Results[[#This Row],[Constant Current Used]])</f>
-        <v>27.29699988910594</v>
+        <v>27.296999889105933</v>
       </c>
       <c r="K3" t="s">
         <v>38</v>
@@ -6540,13 +6537,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L3">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>INDIRECT(ADDRESS(ROW(), COLUMN()))="HOLD"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>INDIRECT(ADDRESS(ROW(), COLUMN()))="MAYBE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>INDIRECT(ADDRESS(ROW(), COLUMN()))="GO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Electrical/PowerBudget.xlsx
+++ b/Electrical/PowerBudget.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="0" windowWidth="18825" windowHeight="4845" activeTab="2"/>
+    <workbookView xWindow="10860" yWindow="0" windowWidth="18825" windowHeight="4845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component Data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="103">
   <si>
     <t>Name</t>
   </si>
@@ -332,19 +332,31 @@
     <t>Aihsd</t>
   </si>
   <si>
-    <t>Efficiency</t>
+    <t>BLDC ESC</t>
+  </si>
+  <si>
+    <t>T-Motor 40A AIR Multirotor ESC (Brushless DC 3-phase)</t>
+  </si>
+  <si>
+    <t>T-Motor</t>
+  </si>
+  <si>
+    <t>http://www.robotshop.com/en/t-motor-40a-air-multirotor-esc.html</t>
+  </si>
+  <si>
+    <t>Thoughput Loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +376,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -408,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -423,8 +442,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -439,13 +456,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -454,46 +477,6 @@
   <dxfs count="61">
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -544,10 +527,43 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
@@ -572,6 +588,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="#,##0.0"/>
@@ -629,6 +649,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
@@ -679,7 +702,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="James Talbert" refreshedDate="42955.79886516204" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="29">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="James Talbert" refreshedDate="42955.79886516204" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="29" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Costs"/>
   </cacheSource>
@@ -868,7 +891,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component">
   <location ref="E1:G12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -947,7 +970,7 @@
     <dataField name="Total Cost" fld="3" baseField="1" baseItem="1" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="13">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -970,64 +993,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ComponentData" displayName="ComponentData" ref="A1:K11" totalsRowShown="0">
-  <autoFilter ref="A1:K11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ComponentData" displayName="ComponentData" ref="A1:K13" totalsRowShown="0">
+  <autoFilter ref="A1:K13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="ID" dataDxfId="60"/>
-    <tableColumn id="6" name="Name" dataDxfId="59"/>
-    <tableColumn id="2" name="Manufacturer" dataDxfId="58"/>
-    <tableColumn id="3" name="Source" dataDxfId="57"/>
-    <tableColumn id="4" name="Price" dataDxfId="56"/>
-    <tableColumn id="5" name="Peak Consumption (W)" dataDxfId="55"/>
-    <tableColumn id="10" name="Constant Consumption (W)" dataDxfId="54"/>
-    <tableColumn id="7" name="Output (V)" dataDxfId="53"/>
-    <tableColumn id="8" name="Output (A)" dataDxfId="52"/>
-    <tableColumn id="9" name="Battery (mAh)" dataDxfId="51"/>
-    <tableColumn id="11" name="Efficiency" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Name" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Manufacturer" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Source" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Price" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Peak Consumption (W)" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Constant Consumption (W)" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Output (V)" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Output (A)" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Battery (mAh)" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Thoughput Loss" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Items" displayName="Items" ref="A1:N31" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
-  <autoFilter ref="A1:N31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Items" displayName="Items" ref="A1:N31" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+  <autoFilter ref="A1:N31" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="ItemID" dataDxfId="48"/>
-    <tableColumn id="2" name="Component" dataDxfId="47"/>
-    <tableColumn id="3" name="Supply Item" dataDxfId="46"/>
-    <tableColumn id="4" name="Supply Component" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ItemID" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Component" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Supply Item" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Supply Component" dataDxfId="44">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Name" dataDxfId="44">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Name" dataDxfId="43">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Manufacturer" dataDxfId="43">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Manufacturer" dataDxfId="42">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Source" dataDxfId="42">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Source" dataDxfId="41">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Price" dataDxfId="41">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Price" dataDxfId="40">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Peak Consumption (W)" dataDxfId="40">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Peak Consumption (W)" dataDxfId="39">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Constant Consumption (W)" dataDxfId="39">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Constant Consumption (W)" dataDxfId="38">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Output (V)" dataDxfId="38">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Output (V)" dataDxfId="37">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Output (A)" dataDxfId="37">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Output (A)" dataDxfId="36">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Battery (mAh)" dataDxfId="36">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Battery (mAh)" dataDxfId="35">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Efficiency" dataDxfId="8">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Thoughput Loss" dataDxfId="34">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1035,50 +1058,50 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Analysis" displayName="Analysis" ref="A1:O30" totalsRowShown="0">
-  <autoFilter ref="A1:O30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Analysis" displayName="Analysis" ref="A1:O30" totalsRowShown="0">
+  <autoFilter ref="A1:O30" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="ItemID" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ItemID" dataDxfId="33">
       <calculatedColumnFormula>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Supply Item" dataDxfId="34"/>
-    <tableColumn id="11" name="Input (V)" dataDxfId="33">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Supply Item" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Input (V)" dataDxfId="31">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Output (V)" dataDxfId="32">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Output (V)" dataDxfId="30">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Peak Output (A)" dataDxfId="31">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Peak Output (A)" dataDxfId="29">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Constant Output (A)" dataDxfId="30">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Constant Output (A)" dataDxfId="28">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Peak Input (A)" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Peak Input (A)" dataDxfId="27">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Constant Input (A)" dataDxfId="7">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Constant Input (A)" dataDxfId="26">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Efficiency" dataDxfId="2">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Thoughput Loss" dataDxfId="25">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Self Peak Consumption (W)" dataDxfId="1">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Self Peak Consumption (W)" dataDxfId="0">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Children Peak Consumption (W)" dataDxfId="29">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Children Peak Consumption (W)" dataDxfId="24">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total Peak Consumption (W)" dataDxfId="28">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Total Peak Consumption (W)" dataDxfId="23">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Self Constant Consumption (W)" dataDxfId="0">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Self Constant Consumption (W)" dataDxfId="22">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Children Constant Consumption (W)" dataDxfId="27">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Children Constant Consumption (W)" dataDxfId="21">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Total Constant Consumption (W)" dataDxfId="26">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Total Constant Consumption (W)" dataDxfId="20">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1087,31 +1110,31 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Results" displayName="Results" ref="A1:H30" totalsRowShown="0">
-  <autoFilter ref="A1:H30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Results" displayName="Results" ref="A1:H30" totalsRowShown="0">
+  <autoFilter ref="A1:H30" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ItemID" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ItemID" dataDxfId="16">
       <calculatedColumnFormula>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Current Capacity" dataDxfId="24">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Current Capacity" dataDxfId="15">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Peak Current Used" dataDxfId="23">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Peak Current Used" dataDxfId="14">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Constant Current Used" dataDxfId="22">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Constant Current Used" dataDxfId="13">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Peak % Capacity" dataDxfId="21">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Peak % Capacity" dataDxfId="12">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Constant % Capacity" dataDxfId="20">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Constant % Capacity" dataDxfId="11">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Battery (mAh)" dataDxfId="19">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Battery (mAh)" dataDxfId="10">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="18">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Battery Life (hrs)" dataDxfId="9">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Constant Current Used]]="", Results[[#This Row],[Battery (mAh)]]=""), "", Results[[#This Row],[Battery (mAh)]]/Results[[#This Row],[Constant Current Used]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1120,17 +1143,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RailSummary" displayName="RailSummary" ref="O1:R8" totalsRowShown="0">
-  <autoFilter ref="O1:R8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="RailSummary" displayName="RailSummary" ref="O1:R8" totalsRowShown="0">
+  <autoFilter ref="O1:R8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Power Rail" dataDxfId="17"/>
-    <tableColumn id="2" name="Voltage (V)" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Power Rail" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Voltage (V)" dataDxfId="7">
       <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output (V)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Current (W)" dataDxfId="15">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Current (W)" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Power (W)" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Power (W)" dataDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", RailSummary[[#This Row],[Voltage (V)]]*RailSummary[[#This Row],[Current (W)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1139,16 +1162,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Costs" displayName="Costs" ref="A1:C30">
-  <autoFilter ref="A1:C30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Costs" displayName="Costs" ref="A1:C30">
+  <autoFilter ref="A1:C30" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Item" totalsRowLabel="Total" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Item" totalsRowLabel="Total" dataDxfId="3">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Component Name" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Component Name" dataDxfId="2">
       <calculatedColumnFormula>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Name])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Cost" totalsRowFunction="count" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Cost" totalsRowFunction="count" dataDxfId="1">
       <calculatedColumnFormula>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", IF(ISNUMBER(VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE)), VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE), ""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1452,15 +1475,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,11 +1493,11 @@
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1509,7 +1532,7 @@
         <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1522,23 +1545,23 @@
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
         <v>24</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="11">
         <v>400</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="11">
         <v>1000</v>
       </c>
       <c r="K2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1557,19 +1580,19 @@
       <c r="E3" s="3">
         <v>8.48</v>
       </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13">
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11">
         <v>12</v>
       </c>
-      <c r="J3" s="13"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="4">
-        <v>0.95</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1588,21 +1611,21 @@
       <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>2.5</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <v>2.5</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <v>24</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="11">
         <v>1</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1617,21 +1640,21 @@
       <c r="E5" s="3">
         <v>30</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>7</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <v>7</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <v>3.3</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <v>0.5</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1650,21 +1673,21 @@
       <c r="E6" s="3">
         <v>180</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>0.5</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <v>0.5</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <v>24</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="11">
         <v>1</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1683,17 +1706,17 @@
       <c r="E7" s="3">
         <v>150</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>7.5</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <v>7.5</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1712,21 +1735,21 @@
       <c r="E8" s="3">
         <v>60</v>
       </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
         <v>12</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="11">
         <v>60</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1739,23 +1762,23 @@
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="3">
         <v>7.25</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>1020</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <v>120</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1772,17 +1795,17 @@
       <c r="E10" s="3">
         <v>60</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <v>240</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="11">
         <v>60</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1799,22 +1822,68 @@
       <c r="E11" s="3">
         <v>50</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <v>58.8</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="11">
         <v>20</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="4">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="3">
+        <v>40</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>22</v>
+      </c>
+      <c r="I12" s="11">
+        <v>40</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -1825,1655 +1894,1655 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="55" style="16" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>98</v>
+      <c r="N1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="D2" s="16" t="str">
+      <c r="A2" s="19"/>
+      <c r="D2" s="14" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E2" s="24" t="str">
+      <c r="E2" s="21" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="F2" s="18" t="str">
+      <c r="F2" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G2" s="18" t="str">
+      <c r="G2" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H2" s="19" t="str">
+      <c r="H2" s="17" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="I2" s="20" t="str">
+      <c r="I2" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="J2" s="20" t="str">
+      <c r="J2" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="K2" s="20" t="str">
+      <c r="K2" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L2" s="20" t="str">
+      <c r="L2" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M2" s="20" t="str">
+      <c r="M2" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="N2" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+      <c r="N2" s="23" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="str">
+      <c r="D3" s="14" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E3" s="24" t="str">
+      <c r="E3" s="21" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>24 V Lithuim Ion Battery back</v>
       </c>
-      <c r="F3" s="18" t="str">
+      <c r="F3" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G3" s="18" t="str">
+      <c r="G3" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H3" s="19" t="str">
+      <c r="H3" s="17" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>24</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>400</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>1000</v>
       </c>
-      <c r="N3" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+      <c r="N3" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="16" t="str">
+      <c r="D4" s="14" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
-      <c r="E4" s="24" t="str">
+      <c r="E4" s="21" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Adjustable Linear Voltage Regulator</v>
       </c>
-      <c r="F4" s="18" t="str">
+      <c r="F4" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Aihsd</v>
       </c>
-      <c r="G4" s="18" t="str">
+      <c r="G4" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>https://www.aliexpress.com/item/DC-Adjustable-Voltage-Regulator-Module-DC-4-5-30V-to-0-8-30V-12A-Buck-Converters/1724570414.html</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>8.48</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="18">
         <v>5</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12</v>
       </c>
-      <c r="M4" s="20" t="str">
+      <c r="M4" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="N4" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0.95</v>
+      <c r="N4" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="16" t="str">
+      <c r="D5" s="14" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="E5" s="24" t="str">
+      <c r="E5" s="21" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Raspberry Pi 3 Rev 1.2</v>
       </c>
-      <c r="F5" s="18" t="str">
+      <c r="F5" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G5" s="18" t="str">
+      <c r="G5" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>30</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>7</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>7</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>3.3</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0.5</v>
       </c>
-      <c r="M5" s="20" t="str">
+      <c r="M5" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="N5" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+      <c r="N5" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="16" t="str">
+      <c r="D6" s="14" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E6" s="24" t="str">
+      <c r="E6" s="21" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Homemade POE injection</v>
       </c>
-      <c r="F6" s="18" t="str">
+      <c r="F6" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Gabe</v>
       </c>
-      <c r="G6" s="18" t="str">
+      <c r="G6" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Gabe</v>
       </c>
-      <c r="H6" s="19" t="str">
+      <c r="H6" s="17" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>?</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>2.5</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>2.5</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>24</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>1</v>
       </c>
-      <c r="M6" s="20" t="str">
+      <c r="M6" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="N6" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+      <c r="N6" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="16" t="str">
+      <c r="D7" s="14" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
-      <c r="E7" s="24" t="str">
+      <c r="E7" s="21" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Ubiquity Rocket M3</v>
       </c>
-      <c r="F7" s="18" t="str">
+      <c r="F7" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Ubiquity</v>
       </c>
-      <c r="G7" s="18" t="str">
+      <c r="G7" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>http://www.doubleradius.com/s.nl/sc.1/category./.f?search=rocket+m3</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>180</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0.5</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0.5</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>24</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>1</v>
       </c>
-      <c r="M7" s="20" t="str">
+      <c r="M7" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="N7" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+      <c r="N7" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="16" t="str">
+      <c r="D8" s="14" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Comms Power</v>
       </c>
-      <c r="E8" s="24" t="str">
+      <c r="E8" s="21" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>AMO-3G12 - Ubiquiti Antenna 3.4-3.7 GHz 12dBi Omni-directional</v>
       </c>
-      <c r="F8" s="18" t="str">
+      <c r="F8" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Ubiquity</v>
       </c>
-      <c r="G8" s="18" t="str">
+      <c r="G8" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>http://www.balticnetworks.com/ubiquiti-airmax-omni-3-4-3-7-ghz-12dbi-omni-directional-antenna.html</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>150</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>7.5</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>7.5</v>
       </c>
-      <c r="K8" s="20" t="str">
+      <c r="K8" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L8" s="20" t="str">
+      <c r="L8" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M8" s="20" t="str">
+      <c r="M8" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="N8" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+      <c r="N8" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="16" t="str">
+      <c r="D9" s="14" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E9" s="24" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Adjustable Linear Voltage Regulator</v>
       </c>
-      <c r="F9" s="18" t="str">
+      <c r="F9" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>Aihsd</v>
       </c>
-      <c r="G9" s="18" t="str">
+      <c r="G9" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>https://www.aliexpress.com/item/DC-Adjustable-Voltage-Regulator-Module-DC-4-5-30V-to-0-8-30V-12A-Buck-Converters/1724570414.html</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>8.48</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>0</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="18">
         <v>12</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>12</v>
       </c>
-      <c r="M9" s="20" t="str">
+      <c r="M9" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="N9" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0.95</v>
+      <c r="N9" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="16" t="str">
+      <c r="D10" s="14" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
-      <c r="E10" s="24" t="str">
+      <c r="E10" s="21" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Victor SP DC Motor Driver</v>
-      </c>
-      <c r="F10" s="18" t="str">
+        <v>T-Motor 40A AIR Multirotor ESC (Brushless DC 3-phase)</v>
+      </c>
+      <c r="F10" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>VEX PRO</v>
-      </c>
-      <c r="G10" s="18" t="str">
+        <v>T-Motor</v>
+      </c>
+      <c r="G10" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>https://www.vexrobotics.com/217-9090.html</v>
-      </c>
-      <c r="H10" s="19">
+        <v>http://www.robotshop.com/en/t-motor-40a-air-multirotor-esc.html</v>
+      </c>
+      <c r="H10" s="17">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>40</v>
+      </c>
+      <c r="I10" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>22</v>
+      </c>
+      <c r="L10" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>40</v>
+      </c>
+      <c r="M10" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N10" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="14" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
+        <v>Dirty Power</v>
+      </c>
+      <c r="E11" s="21" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
+      </c>
+      <c r="F11" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>BaneBot</v>
+      </c>
+      <c r="G11" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
+      </c>
+      <c r="H11" s="17">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>7.25</v>
+      </c>
+      <c r="I11" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1020</v>
+      </c>
+      <c r="J11" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>120</v>
+      </c>
+      <c r="K11" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L11" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="M11" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N11" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="14" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
+        <v>Battery Pack</v>
+      </c>
+      <c r="E12" s="21" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>T-Motor 40A AIR Multirotor ESC (Brushless DC 3-phase)</v>
+      </c>
+      <c r="F12" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>T-Motor</v>
+      </c>
+      <c r="G12" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>http://www.robotshop.com/en/t-motor-40a-air-multirotor-esc.html</v>
+      </c>
+      <c r="H12" s="17">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>40</v>
+      </c>
+      <c r="I12" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>22</v>
+      </c>
+      <c r="L12" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>40</v>
+      </c>
+      <c r="M12" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N12" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="14" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
+        <v>Dirty Power</v>
+      </c>
+      <c r="E13" s="21" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
+      </c>
+      <c r="F13" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>BaneBot</v>
+      </c>
+      <c r="G13" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
+      </c>
+      <c r="H13" s="17">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>7.25</v>
+      </c>
+      <c r="I13" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1020</v>
+      </c>
+      <c r="J13" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>120</v>
+      </c>
+      <c r="K13" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L13" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="M13" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N13" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="14" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
+        <v>Battery Pack</v>
+      </c>
+      <c r="E14" s="21" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>T-Motor 40A AIR Multirotor ESC (Brushless DC 3-phase)</v>
+      </c>
+      <c r="F14" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>T-Motor</v>
+      </c>
+      <c r="G14" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>http://www.robotshop.com/en/t-motor-40a-air-multirotor-esc.html</v>
+      </c>
+      <c r="H14" s="17">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>40</v>
+      </c>
+      <c r="I14" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>22</v>
+      </c>
+      <c r="L14" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>40</v>
+      </c>
+      <c r="M14" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N14" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="14" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
+        <v>Dirty Power</v>
+      </c>
+      <c r="E15" s="21" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
+      </c>
+      <c r="F15" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>BaneBot</v>
+      </c>
+      <c r="G15" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
+      </c>
+      <c r="H15" s="17">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>7.25</v>
+      </c>
+      <c r="I15" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1020</v>
+      </c>
+      <c r="J15" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>120</v>
+      </c>
+      <c r="K15" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L15" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="M15" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N15" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="14" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
+        <v>Battery Pack</v>
+      </c>
+      <c r="E16" s="21" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>T-Motor 40A AIR Multirotor ESC (Brushless DC 3-phase)</v>
+      </c>
+      <c r="F16" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>T-Motor</v>
+      </c>
+      <c r="G16" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>http://www.robotshop.com/en/t-motor-40a-air-multirotor-esc.html</v>
+      </c>
+      <c r="H16" s="17">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>40</v>
+      </c>
+      <c r="I16" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>22</v>
+      </c>
+      <c r="L16" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>40</v>
+      </c>
+      <c r="M16" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N16" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="14" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
+        <v>Dirty Power</v>
+      </c>
+      <c r="E17" s="21" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
+      </c>
+      <c r="F17" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>BaneBot</v>
+      </c>
+      <c r="G17" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
+      </c>
+      <c r="H17" s="17">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>7.25</v>
+      </c>
+      <c r="I17" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1020</v>
+      </c>
+      <c r="J17" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>120</v>
+      </c>
+      <c r="K17" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L17" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="M17" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N17" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="14" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
+        <v>Battery Pack</v>
+      </c>
+      <c r="E18" s="21" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>T-Motor 40A AIR Multirotor ESC (Brushless DC 3-phase)</v>
+      </c>
+      <c r="F18" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>T-Motor</v>
+      </c>
+      <c r="G18" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>http://www.robotshop.com/en/t-motor-40a-air-multirotor-esc.html</v>
+      </c>
+      <c r="H18" s="17">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>40</v>
+      </c>
+      <c r="I18" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>22</v>
+      </c>
+      <c r="L18" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>40</v>
+      </c>
+      <c r="M18" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N18" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="14" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
+        <v>Dirty Power</v>
+      </c>
+      <c r="E19" s="21" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
+      </c>
+      <c r="F19" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>BaneBot</v>
+      </c>
+      <c r="G19" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
+      </c>
+      <c r="H19" s="17">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>7.25</v>
+      </c>
+      <c r="I19" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1020</v>
+      </c>
+      <c r="J19" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>120</v>
+      </c>
+      <c r="K19" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L19" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="M19" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N19" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="14" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
+        <v>Battery Pack</v>
+      </c>
+      <c r="E20" s="21" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>T-Motor 40A AIR Multirotor ESC (Brushless DC 3-phase)</v>
+      </c>
+      <c r="F20" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>T-Motor</v>
+      </c>
+      <c r="G20" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>http://www.robotshop.com/en/t-motor-40a-air-multirotor-esc.html</v>
+      </c>
+      <c r="H20" s="17">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>40</v>
+      </c>
+      <c r="I20" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>22</v>
+      </c>
+      <c r="L20" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>40</v>
+      </c>
+      <c r="M20" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N20" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="14" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
+        <v>Dirty Power</v>
+      </c>
+      <c r="E21" s="21" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
+      </c>
+      <c r="F21" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>BaneBot</v>
+      </c>
+      <c r="G21" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
+      </c>
+      <c r="H21" s="17">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>7.25</v>
+      </c>
+      <c r="I21" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>1020</v>
+      </c>
+      <c r="J21" s="18">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>120</v>
+      </c>
+      <c r="K21" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L21" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="M21" s="18" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N21" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="14" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
+        <v>Battery Pack</v>
+      </c>
+      <c r="E22" s="21" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>12 RPM HD Premium Planetary Gear Motor w/Encoder</v>
+      </c>
+      <c r="F22" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G22" s="16" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>https://www.servocity.com/12-rpm-hd-premium-planetary-gear-motor-w-encoder</v>
+      </c>
+      <c r="H22" s="17">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>60</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I22" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="20">
+        <v>240</v>
+      </c>
+      <c r="J22" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="20">
+        <v>60</v>
+      </c>
+      <c r="K22" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>12</v>
-      </c>
-      <c r="L10" s="20">
+        <v/>
+      </c>
+      <c r="L22" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>60</v>
-      </c>
-      <c r="M10" s="20" t="str">
+        <v/>
+      </c>
+      <c r="M22" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="N10" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="16" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Dirty Power</v>
-      </c>
-      <c r="E11" s="24" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
-      </c>
-      <c r="F11" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>BaneBot</v>
-      </c>
-      <c r="G11" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
-      </c>
-      <c r="H11" s="19">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>7.25</v>
-      </c>
-      <c r="I11" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1020</v>
-      </c>
-      <c r="J11" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>120</v>
-      </c>
-      <c r="K11" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L11" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="M11" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N11" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="N22" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="16" t="str">
+      <c r="D23" s="14" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
-      <c r="E12" s="24" t="str">
+      <c r="E23" s="21" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Victor SP DC Motor Driver</v>
-      </c>
-      <c r="F12" s="18" t="str">
+        <v>26 RPM Premium Planetary Gear Motor w/Encoder</v>
+      </c>
+      <c r="F23" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>VEX PRO</v>
-      </c>
-      <c r="G12" s="18" t="str">
+        <v/>
+      </c>
+      <c r="G23" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>https://www.vexrobotics.com/217-9090.html</v>
-      </c>
-      <c r="H12" s="19">
+        <v>https://www.servocity.com/26-rpm-premium-planetary-gear-motor-w-encoder</v>
+      </c>
+      <c r="H23" s="17">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>60</v>
-      </c>
-      <c r="I12" s="20">
+        <v>50</v>
+      </c>
+      <c r="I23" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="20">
+        <v>58.8</v>
+      </c>
+      <c r="J23" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="20">
+        <v>20</v>
+      </c>
+      <c r="K23" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>12</v>
-      </c>
-      <c r="L12" s="20">
+        <v/>
+      </c>
+      <c r="L23" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>60</v>
-      </c>
-      <c r="M12" s="20" t="str">
+        <v/>
+      </c>
+      <c r="M23" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="N12" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="16" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Dirty Power</v>
-      </c>
-      <c r="E13" s="24" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
-      </c>
-      <c r="F13" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>BaneBot</v>
-      </c>
-      <c r="G13" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
-      </c>
-      <c r="H13" s="19">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>7.25</v>
-      </c>
-      <c r="I13" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1020</v>
-      </c>
-      <c r="J13" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>120</v>
-      </c>
-      <c r="K13" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L13" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="M13" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N13" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="N23" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="16" t="str">
+      <c r="D24" s="14" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
-      <c r="E14" s="24" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Victor SP DC Motor Driver</v>
-      </c>
-      <c r="F14" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>VEX PRO</v>
-      </c>
-      <c r="G14" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>https://www.vexrobotics.com/217-9090.html</v>
-      </c>
-      <c r="H14" s="19">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>60</v>
-      </c>
-      <c r="I14" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>12</v>
-      </c>
-      <c r="L14" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>60</v>
-      </c>
-      <c r="M14" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N14" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="16" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Dirty Power</v>
-      </c>
-      <c r="E15" s="24" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
-      </c>
-      <c r="F15" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>BaneBot</v>
-      </c>
-      <c r="G15" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
-      </c>
-      <c r="H15" s="19">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>7.25</v>
-      </c>
-      <c r="I15" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1020</v>
-      </c>
-      <c r="J15" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>120</v>
-      </c>
-      <c r="K15" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L15" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="M15" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N15" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="16" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Battery Pack</v>
-      </c>
-      <c r="E16" s="24" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Victor SP DC Motor Driver</v>
-      </c>
-      <c r="F16" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>VEX PRO</v>
-      </c>
-      <c r="G16" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>https://www.vexrobotics.com/217-9090.html</v>
-      </c>
-      <c r="H16" s="19">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>60</v>
-      </c>
-      <c r="I16" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>12</v>
-      </c>
-      <c r="L16" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>60</v>
-      </c>
-      <c r="M16" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N16" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="16" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Dirty Power</v>
-      </c>
-      <c r="E17" s="24" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
-      </c>
-      <c r="F17" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>BaneBot</v>
-      </c>
-      <c r="G17" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
-      </c>
-      <c r="H17" s="19">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>7.25</v>
-      </c>
-      <c r="I17" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1020</v>
-      </c>
-      <c r="J17" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>120</v>
-      </c>
-      <c r="K17" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L17" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="M17" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N17" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="16" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Battery Pack</v>
-      </c>
-      <c r="E18" s="24" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Victor SP DC Motor Driver</v>
-      </c>
-      <c r="F18" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>VEX PRO</v>
-      </c>
-      <c r="G18" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>https://www.vexrobotics.com/217-9090.html</v>
-      </c>
-      <c r="H18" s="19">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>60</v>
-      </c>
-      <c r="I18" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>12</v>
-      </c>
-      <c r="L18" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>60</v>
-      </c>
-      <c r="M18" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N18" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="16" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Dirty Power</v>
-      </c>
-      <c r="E19" s="24" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
-      </c>
-      <c r="F19" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>BaneBot</v>
-      </c>
-      <c r="G19" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
-      </c>
-      <c r="H19" s="19">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>7.25</v>
-      </c>
-      <c r="I19" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1020</v>
-      </c>
-      <c r="J19" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>120</v>
-      </c>
-      <c r="K19" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L19" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="M19" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N19" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="16" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Battery Pack</v>
-      </c>
-      <c r="E20" s="24" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Victor SP DC Motor Driver</v>
-      </c>
-      <c r="F20" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>VEX PRO</v>
-      </c>
-      <c r="G20" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>https://www.vexrobotics.com/217-9090.html</v>
-      </c>
-      <c r="H20" s="19">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>60</v>
-      </c>
-      <c r="I20" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>12</v>
-      </c>
-      <c r="L20" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>60</v>
-      </c>
-      <c r="M20" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N20" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="16" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Dirty Power</v>
-      </c>
-      <c r="E21" s="24" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
-      </c>
-      <c r="F21" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>BaneBot</v>
-      </c>
-      <c r="G21" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
-      </c>
-      <c r="H21" s="19">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>7.25</v>
-      </c>
-      <c r="I21" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1020</v>
-      </c>
-      <c r="J21" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>120</v>
-      </c>
-      <c r="K21" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L21" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="M21" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N21" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="16" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Battery Pack</v>
-      </c>
-      <c r="E22" s="24" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>12 RPM HD Premium Planetary Gear Motor w/Encoder</v>
-      </c>
-      <c r="F22" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G22" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>https://www.servocity.com/12-rpm-hd-premium-planetary-gear-motor-w-encoder</v>
-      </c>
-      <c r="H22" s="19">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>60</v>
-      </c>
-      <c r="I22" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>240</v>
-      </c>
-      <c r="J22" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>60</v>
-      </c>
-      <c r="K22" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L22" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="M22" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N22" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="16" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Battery Pack</v>
-      </c>
-      <c r="E23" s="24" t="str">
+      <c r="E24" s="21" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>26 RPM Premium Planetary Gear Motor w/Encoder</v>
       </c>
-      <c r="F23" s="18" t="str">
+      <c r="F24" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G23" s="18" t="str">
+      <c r="G24" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>https://www.servocity.com/26-rpm-premium-planetary-gear-motor-w-encoder</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H24" s="17">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>50</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I24" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>58.8</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J24" s="18">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v>20</v>
       </c>
-      <c r="K23" s="20" t="str">
+      <c r="K24" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L23" s="20" t="str">
+      <c r="L24" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M23" s="20" t="str">
+      <c r="M24" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="N23" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="16" t="str">
+      <c r="N24" s="23">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D25" s="14" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Battery Pack</v>
-      </c>
-      <c r="E24" s="24" t="str">
+        <v/>
+      </c>
+      <c r="E25" s="21" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>26 RPM Premium Planetary Gear Motor w/Encoder</v>
-      </c>
-      <c r="F24" s="18" t="str">
+        <v/>
+      </c>
+      <c r="F25" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G24" s="18" t="str">
+      <c r="G25" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>https://www.servocity.com/26-rpm-premium-planetary-gear-motor-w-encoder</v>
-      </c>
-      <c r="H24" s="19">
+        <v/>
+      </c>
+      <c r="H25" s="17" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>50</v>
-      </c>
-      <c r="I24" s="20">
+        <v/>
+      </c>
+      <c r="I25" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>58.8</v>
-      </c>
-      <c r="J24" s="20">
+        <v/>
+      </c>
+      <c r="J25" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>20</v>
-      </c>
-      <c r="K24" s="20" t="str">
+        <v/>
+      </c>
+      <c r="K25" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L24" s="20" t="str">
+      <c r="L25" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M24" s="20" t="str">
+      <c r="M25" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="N24" s="26">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D25" s="16" t="str">
+      <c r="N25" s="23" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="14" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E25" s="24" t="str">
+      <c r="E26" s="21" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="F25" s="18" t="str">
+      <c r="F26" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G25" s="18" t="str">
+      <c r="G26" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H25" s="19" t="str">
+      <c r="H26" s="17" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="I25" s="20" t="str">
+      <c r="I26" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="J25" s="20" t="str">
+      <c r="J26" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="K25" s="20" t="str">
+      <c r="K26" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L25" s="20" t="str">
+      <c r="L26" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M25" s="20" t="str">
+      <c r="M26" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="N25" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="16" t="str">
+      <c r="N26" s="23" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="14" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E26" s="24" t="str">
+      <c r="E27" s="21" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="F26" s="18" t="str">
+      <c r="F27" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G26" s="18" t="str">
+      <c r="G27" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H26" s="19" t="str">
+      <c r="H27" s="17" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="I26" s="20" t="str">
+      <c r="I27" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="J26" s="20" t="str">
+      <c r="J27" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="K26" s="20" t="str">
+      <c r="K27" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L26" s="20" t="str">
+      <c r="L27" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M26" s="20" t="str">
+      <c r="M27" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="N26" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="16" t="str">
+      <c r="N27" s="23" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D28" s="14" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E27" s="24" t="str">
+      <c r="E28" s="21" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="F27" s="18" t="str">
+      <c r="F28" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G27" s="18" t="str">
+      <c r="G28" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H27" s="19" t="str">
+      <c r="H28" s="17" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="I27" s="20" t="str">
+      <c r="I28" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="J27" s="20" t="str">
+      <c r="J28" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="K27" s="20" t="str">
+      <c r="K28" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L27" s="20" t="str">
+      <c r="L28" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M27" s="20" t="str">
+      <c r="M28" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="N27" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D28" s="16" t="str">
+      <c r="N28" s="23" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="14" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E28" s="24" t="str">
+      <c r="E29" s="21" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="F28" s="18" t="str">
+      <c r="F29" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G28" s="18" t="str">
+      <c r="G29" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H28" s="19" t="str">
+      <c r="H29" s="17" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="I28" s="20" t="str">
+      <c r="I29" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="J28" s="20" t="str">
+      <c r="J29" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="K28" s="20" t="str">
+      <c r="K29" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L28" s="20" t="str">
+      <c r="L29" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M28" s="20" t="str">
+      <c r="M29" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="N28" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D29" s="16" t="str">
+      <c r="N29" s="23" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="14" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E29" s="24" t="str">
+      <c r="E30" s="21" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="F29" s="18" t="str">
+      <c r="F30" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G29" s="18" t="str">
+      <c r="G30" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H29" s="19" t="str">
+      <c r="H30" s="17" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="I29" s="20" t="str">
+      <c r="I30" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="J29" s="20" t="str">
+      <c r="J30" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="K29" s="20" t="str">
+      <c r="K30" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L29" s="20" t="str">
+      <c r="L30" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M29" s="20" t="str">
+      <c r="M30" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="N29" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D30" s="16" t="str">
+      <c r="N30" s="23" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="14" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E30" s="24" t="str">
+      <c r="E31" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="F30" s="18" t="str">
+      <c r="F31" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="G30" s="18" t="str">
+      <c r="G31" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="H30" s="19" t="str">
+      <c r="H31" s="17" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="I30" s="20" t="str">
+      <c r="I31" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="J30" s="20" t="str">
+      <c r="J31" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="K30" s="20" t="str">
+      <c r="K31" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="L30" s="20" t="str">
+      <c r="L31" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="M30" s="20" t="str">
+      <c r="M31" s="18" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
-      <c r="N30" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D31" s="16" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E31" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="F31" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G31" s="18" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H31" s="19" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I31" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J31" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K31" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L31" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="M31" s="20" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N31" s="26" t="str">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
+      <c r="N31" s="23" t="str">
+        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Thoughput Loss])-COLUMN(ComponentData[])+1, FALSE)))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B31" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>ComponentIDs</formula1>
     </dataValidation>
   </dataValidations>
@@ -3486,1881 +3555,1882 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="26" t="s">
         <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="26" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="str">
+      <c r="A2" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v/>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="1" t="str">
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="26" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E2" s="12" t="str">
+      <c r="E2" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v/>
       </c>
-      <c r="F2" s="12" t="str">
+      <c r="F2" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v/>
       </c>
-      <c r="G2" s="12" t="str">
+      <c r="G2" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="H2" s="12" t="str">
+      <c r="H2" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="I2" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="J2" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v/>
-      </c>
-      <c r="K2" s="12" t="str">
+      <c r="I2" s="30" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J2" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="K2" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="L2" s="12" t="str">
+      <c r="L2" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
-      <c r="M2" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v/>
-      </c>
-      <c r="N2" s="12" t="str">
+      <c r="M2" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="N2" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="O2" s="12" t="str">
+      <c r="O2" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="str">
+      <c r="A3" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>Battery Pack</v>
       </c>
-      <c r="B3" s="22" t="str">
+      <c r="B3" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="28" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D3">
+      <c r="D3" s="26">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>24</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v>284.15406250000007</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>36.634062500000006</v>
-      </c>
-      <c r="G3" s="12" t="str">
+        <v>127.62989583333335</v>
+      </c>
+      <c r="G3" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="H3" s="12" t="str">
+      <c r="H3" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="I3" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
+      <c r="I3" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>6819.6975000000011</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>6819.6975000000011</v>
       </c>
-      <c r="M3" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="12">
+      <c r="M3" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>3063.1175000000003</v>
+      </c>
+      <c r="N3" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>879.21750000000009</v>
-      </c>
-      <c r="O3" s="12">
+        <v>3063.1175000000003</v>
+      </c>
+      <c r="O3" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>879.21750000000009</v>
+        <v>6126.2350000000006</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="str">
+      <c r="A4" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>Logic Supply</v>
       </c>
-      <c r="B4" s="22" t="str">
+      <c r="B4" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="28">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="26">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>5</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v>1.4</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v>1.4</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="H4" s="12">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="H4" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="I4" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0.95</v>
-      </c>
-      <c r="J4" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>0.35000000000000031</v>
-      </c>
-      <c r="K4" s="12">
+        <v>1.1375</v>
+      </c>
+      <c r="I4" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0.05</v>
+      </c>
+      <c r="J4" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="K4" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>7</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>7.3500000000000005</v>
-      </c>
-      <c r="M4" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>0.35000000000000031</v>
-      </c>
-      <c r="N4" s="12">
+        <v>7.35</v>
+      </c>
+      <c r="M4" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>6.6499999999999995</v>
+      </c>
+      <c r="N4" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>7</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>7.3500000000000005</v>
+        <v>13.649999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="str">
+      <c r="A5" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>Master Control</v>
       </c>
-      <c r="B5" s="22" t="str">
+      <c r="B5" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Logic Supply</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="28">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="26">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>3.3</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v>0</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v>0</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>1.4</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>1.4</v>
       </c>
-      <c r="I5" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+      <c r="I5" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>7</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>7</v>
       </c>
-      <c r="M5" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+      <c r="M5" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>7</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="str">
+      <c r="A6" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>Comms Power</v>
       </c>
-      <c r="B6" s="22" t="str">
+      <c r="B6" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="28">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="26">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>24</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G6" s="12">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G6" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>0.4375</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>0.4375</v>
-      </c>
-      <c r="I6" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>1.3958333333333333</v>
+      </c>
+      <c r="I6" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>2.5</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>8</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>10.5</v>
       </c>
-      <c r="M6" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>2.5</v>
-      </c>
-      <c r="N6" s="12">
+      <c r="M6" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>18</v>
+      </c>
+      <c r="N6" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>8</v>
-      </c>
-      <c r="O6" s="12">
+        <v>15.5</v>
+      </c>
+      <c r="O6" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>10.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="str">
+      <c r="A7" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>Transceiver</v>
       </c>
-      <c r="B7" s="22" t="str">
+      <c r="B7" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Comms Power</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="28">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="26">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>24</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v>0.3125</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v>0.3125</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I7" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J7" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I7" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>0.5</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>7.5</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>8</v>
       </c>
-      <c r="M7" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="12">
+      <c r="M7" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>8</v>
+      </c>
+      <c r="N7" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>7.5</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>8</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="str">
+      <c r="A8" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>Antenna</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Transceiver</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="28">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>24</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="26" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E8" s="12" t="str">
+      <c r="E8" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v/>
       </c>
-      <c r="F8" s="12" t="str">
+      <c r="F8" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v/>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>0.3125</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>0.3125</v>
       </c>
-      <c r="I8" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+      <c r="I8" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>7.5</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>7.5</v>
       </c>
-      <c r="M8" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+      <c r="M8" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>7.5</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="str">
+      <c r="A9" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>Dirty Power</v>
       </c>
-      <c r="B9" s="22" t="str">
+      <c r="B9" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Battery Pack</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="28">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>24</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="26">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v>540.41250000000002</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>68.94583333333334</v>
-      </c>
-      <c r="G9" s="12">
+        <v>129.47083333333333</v>
+      </c>
+      <c r="G9" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>283.71656250000007</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>36.196562500000006</v>
-      </c>
-      <c r="I9" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>0.95</v>
-      </c>
-      <c r="J9" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>324.24750000000034</v>
-      </c>
-      <c r="K9" s="12">
+        <v>126.23406250000001</v>
+      </c>
+      <c r="I9" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0.05</v>
+      </c>
+      <c r="J9" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>324.24750000000006</v>
+      </c>
+      <c r="K9" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>6484.9500000000007</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>6809.1975000000011</v>
       </c>
-      <c r="M9" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>41.367500000000035</v>
-      </c>
-      <c r="N9" s="12">
+      <c r="M9" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>1475.9675</v>
+      </c>
+      <c r="N9" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>827.35</v>
-      </c>
-      <c r="O9" s="12">
+        <v>1553.65</v>
+      </c>
+      <c r="O9" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>868.71750000000009</v>
+        <v>3029.6175000000003</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="str">
+      <c r="A10" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v>FrontRight ESC</v>
       </c>
-      <c r="B10" s="22" t="str">
+      <c r="B10" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="28">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="26">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>12</v>
-      </c>
-      <c r="E10" s="12">
+        <v>22</v>
+      </c>
+      <c r="E10" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="F10" s="12">
+        <v>46.363636363636367</v>
+      </c>
+      <c r="F10" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="G10" s="12">
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="G10" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>85</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="I10" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="12">
+        <v>20</v>
+      </c>
+      <c r="I10" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>1020</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="M10" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="12">
+      <c r="M10" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>120</v>
+      </c>
+      <c r="N10" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>120</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="str">
+        <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
+        <v>FrontRight Motor</v>
+      </c>
+      <c r="B11" s="27" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
+        <v>FrontRight ESC</v>
+      </c>
+      <c r="C11" s="28">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>22</v>
+      </c>
+      <c r="D11" s="26" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E11" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F11" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G11" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
+        <v>46.363636363636367</v>
+      </c>
+      <c r="H11" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="I11" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>1020</v>
+      </c>
+      <c r="K11" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>1020</v>
+      </c>
+      <c r="M11" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>120</v>
+      </c>
+      <c r="N11" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="str">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
-        <v>FrontRight Motor</v>
-      </c>
-      <c r="B11" s="22" t="str">
+        <v>MidRight ESC</v>
+      </c>
+      <c r="B12" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
-        <v>FrontRight ESC</v>
-      </c>
-      <c r="C11" s="1">
+        <v>Dirty Power</v>
+      </c>
+      <c r="C12" s="28">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D12" s="26">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E11" s="12" t="str">
+        <v>22</v>
+      </c>
+      <c r="E12" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="F11" s="12" t="str">
+        <v>46.363636363636367</v>
+      </c>
+      <c r="F12" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G11" s="12">
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="G12" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>85</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H12" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="I11" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>20</v>
+      </c>
+      <c r="I12" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>1020</v>
       </c>
-      <c r="K11" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
+      <c r="L12" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="M11" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+      <c r="M12" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>120</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N12" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="12">
+        <v>120</v>
+      </c>
+      <c r="O12" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="str">
+        <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
+        <v>MidRight Motor</v>
+      </c>
+      <c r="B13" s="27" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
+        <v>MidRight ESC</v>
+      </c>
+      <c r="C13" s="28">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>22</v>
+      </c>
+      <c r="D13" s="26" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E13" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F13" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G13" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
+        <v>46.363636363636367</v>
+      </c>
+      <c r="H13" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="I13" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>1020</v>
+      </c>
+      <c r="K13" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>1020</v>
+      </c>
+      <c r="M13" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>120</v>
+      </c>
+      <c r="N13" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="str">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
-        <v>MidRight ESC</v>
-      </c>
-      <c r="B12" s="22" t="str">
+        <v>BackRight ESC</v>
+      </c>
+      <c r="B14" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C14" s="28">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="D12">
+      <c r="D14" s="26">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>12</v>
-      </c>
-      <c r="E12" s="12">
+        <v>22</v>
+      </c>
+      <c r="E14" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="F12" s="12">
+        <v>46.363636363636367</v>
+      </c>
+      <c r="F14" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="G12" s="12">
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="G14" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>85</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H14" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="I12" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="12">
+        <v>20</v>
+      </c>
+      <c r="I14" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>1020</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L14" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="M12" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="12">
+      <c r="M14" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>120</v>
+      </c>
+      <c r="N14" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>120</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O14" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="str">
+        <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
+        <v>BackRight Motor</v>
+      </c>
+      <c r="B15" s="27" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
+        <v>BackRight ESC</v>
+      </c>
+      <c r="C15" s="28">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>22</v>
+      </c>
+      <c r="D15" s="26" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E15" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F15" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G15" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
+        <v>46.363636363636367</v>
+      </c>
+      <c r="H15" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="I15" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>1020</v>
+      </c>
+      <c r="K15" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>1020</v>
+      </c>
+      <c r="M15" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>120</v>
+      </c>
+      <c r="N15" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="str">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
-        <v>MidRight Motor</v>
-      </c>
-      <c r="B13" s="22" t="str">
+        <v>FrontLeft ESC</v>
+      </c>
+      <c r="B16" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
-        <v>MidRight ESC</v>
-      </c>
-      <c r="C13" s="1">
+        <v>Dirty Power</v>
+      </c>
+      <c r="C16" s="28">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D16" s="26">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E13" s="12" t="str">
+        <v>22</v>
+      </c>
+      <c r="E16" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="F13" s="12" t="str">
+        <v>46.363636363636367</v>
+      </c>
+      <c r="F16" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G13" s="12">
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="G16" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>85</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H16" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="I13" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>20</v>
+      </c>
+      <c r="I16" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>1020</v>
       </c>
-      <c r="K13" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="L16" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="M13" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+      <c r="M16" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>120</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N16" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="12">
+        <v>120</v>
+      </c>
+      <c r="O16" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="str">
+        <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
+        <v>FrontLeft Motor</v>
+      </c>
+      <c r="B17" s="27" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
+        <v>FrontLeft ESC</v>
+      </c>
+      <c r="C17" s="28">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>22</v>
+      </c>
+      <c r="D17" s="26" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E17" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F17" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G17" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
+        <v>46.363636363636367</v>
+      </c>
+      <c r="H17" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="I17" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>1020</v>
+      </c>
+      <c r="K17" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>1020</v>
+      </c>
+      <c r="M17" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>120</v>
+      </c>
+      <c r="N17" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="str">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
-        <v>BackRight ESC</v>
-      </c>
-      <c r="B14" s="22" t="str">
+        <v>MidLeft ESC</v>
+      </c>
+      <c r="B18" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C18" s="28">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="D14">
+      <c r="D18" s="26">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>12</v>
-      </c>
-      <c r="E14" s="12">
+        <v>22</v>
+      </c>
+      <c r="E18" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="F14" s="12">
+        <v>46.363636363636367</v>
+      </c>
+      <c r="F18" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="G14" s="12">
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="G18" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>85</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H18" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="I14" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="12">
+        <v>20</v>
+      </c>
+      <c r="I18" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>1020</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L18" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="M14" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="12">
+      <c r="M18" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>120</v>
+      </c>
+      <c r="N18" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>120</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O18" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="str">
+        <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
+        <v>MidLeft Motor</v>
+      </c>
+      <c r="B19" s="27" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
+        <v>MidLeft ESC</v>
+      </c>
+      <c r="C19" s="28">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>22</v>
+      </c>
+      <c r="D19" s="26" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E19" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F19" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G19" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
+        <v>46.363636363636367</v>
+      </c>
+      <c r="H19" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="I19" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>1020</v>
+      </c>
+      <c r="K19" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>1020</v>
+      </c>
+      <c r="M19" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>120</v>
+      </c>
+      <c r="N19" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="str">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
-        <v>BackRight Motor</v>
-      </c>
-      <c r="B15" s="22" t="str">
+        <v>BackLeft ESC</v>
+      </c>
+      <c r="B20" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
-        <v>BackRight ESC</v>
-      </c>
-      <c r="C15" s="1">
+        <v>Dirty Power</v>
+      </c>
+      <c r="C20" s="28">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D20" s="26">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E15" s="12" t="str">
+        <v>22</v>
+      </c>
+      <c r="E20" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="F15" s="12" t="str">
+        <v>46.363636363636367</v>
+      </c>
+      <c r="F20" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G15" s="12">
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="G20" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>85</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H20" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="I15" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J15" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>20</v>
+      </c>
+      <c r="I20" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>1020</v>
       </c>
-      <c r="K15" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
+      <c r="L20" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>1020</v>
       </c>
-      <c r="M15" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+      <c r="M20" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>120</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N20" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="12">
+        <v>120</v>
+      </c>
+      <c r="O20" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="str">
+        <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
+        <v>BackLeft Motor</v>
+      </c>
+      <c r="B21" s="27" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
+        <v>BackLeft ESC</v>
+      </c>
+      <c r="C21" s="28">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
+        <v>22</v>
+      </c>
+      <c r="D21" s="26" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E21" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="F21" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
+        <v/>
+      </c>
+      <c r="G21" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
+        <v>46.363636363636367</v>
+      </c>
+      <c r="H21" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="I21" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>1020</v>
+      </c>
+      <c r="K21" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>1020</v>
+      </c>
+      <c r="M21" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>120</v>
+      </c>
+      <c r="N21" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="str">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
-        <v>FrontLeft ESC</v>
-      </c>
-      <c r="B16" s="22" t="str">
+        <v>Shoulder Motor</v>
+      </c>
+      <c r="B22" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C22" s="28">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="D16">
+      <c r="D22" s="26" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>12</v>
-      </c>
-      <c r="E16" s="12">
+        <v/>
+      </c>
+      <c r="E22" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="F16" s="12">
+        <v/>
+      </c>
+      <c r="F22" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="G16" s="12">
+        <v/>
+      </c>
+      <c r="G22" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="H16" s="12">
+        <v>20</v>
+      </c>
+      <c r="H22" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="I16" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J16" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="12">
+        <v>5</v>
+      </c>
+      <c r="I22" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>240</v>
+      </c>
+      <c r="K22" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>1020</v>
-      </c>
-      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>1020</v>
-      </c>
-      <c r="M16" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="12">
+        <v>240</v>
+      </c>
+      <c r="M22" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>60</v>
+      </c>
+      <c r="N22" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>120</v>
-      </c>
-      <c r="O16" s="12">
+        <v>0</v>
+      </c>
+      <c r="O22" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
-        <v>FrontLeft Motor</v>
-      </c>
-      <c r="B17" s="22" t="str">
+        <v>Base Motor</v>
+      </c>
+      <c r="B23" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
-        <v>FrontLeft ESC</v>
-      </c>
-      <c r="C17" s="1">
+        <v>Dirty Power</v>
+      </c>
+      <c r="C23" s="28">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D23" s="26" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E17" s="12" t="str">
+      <c r="E23" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v/>
       </c>
-      <c r="F17" s="12" t="str">
+      <c r="F23" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v/>
       </c>
-      <c r="G17" s="12">
+      <c r="G23" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="H17" s="12">
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="H23" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="I17" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>1020</v>
-      </c>
-      <c r="K17" s="12">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I23" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v>58.8</v>
+      </c>
+      <c r="K23" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L23" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>1020</v>
-      </c>
-      <c r="M17" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>120</v>
-      </c>
-      <c r="N17" s="12">
+        <v>58.8</v>
+      </c>
+      <c r="M23" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v>20</v>
+      </c>
+      <c r="N23" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O23" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
-        <v>MidLeft ESC</v>
-      </c>
-      <c r="B18" s="22" t="str">
+        <v>Upper Limb Motor</v>
+      </c>
+      <c r="B24" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C24" s="28">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="D18">
+      <c r="D24" s="26" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>12</v>
-      </c>
-      <c r="E18" s="12">
+        <v/>
+      </c>
+      <c r="E24" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="F18" s="12">
+        <v/>
+      </c>
+      <c r="F24" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="G18" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="H18" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="I18" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J18" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>1020</v>
-      </c>
-      <c r="L18" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>1020</v>
-      </c>
-      <c r="M18" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>120</v>
-      </c>
-      <c r="O18" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="str">
-        <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
-        <v>MidLeft Motor</v>
-      </c>
-      <c r="B19" s="22" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
-        <v>MidLeft ESC</v>
-      </c>
-      <c r="C19" s="1">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>12</v>
-      </c>
-      <c r="D19" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E19" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="F19" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G19" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="H19" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="I19" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J19" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>1020</v>
-      </c>
-      <c r="K19" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>1020</v>
-      </c>
-      <c r="M19" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>120</v>
-      </c>
-      <c r="N19" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="str">
-        <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
-        <v>BackLeft ESC</v>
-      </c>
-      <c r="B20" s="22" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Dirty Power</v>
-      </c>
-      <c r="C20" s="1">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>12</v>
-      </c>
-      <c r="E20" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="F20" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="G20" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="H20" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="I20" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J20" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>1020</v>
-      </c>
-      <c r="L20" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>1020</v>
-      </c>
-      <c r="M20" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>120</v>
-      </c>
-      <c r="O20" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="str">
-        <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
-        <v>BackLeft Motor</v>
-      </c>
-      <c r="B21" s="22" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
-        <v>BackLeft ESC</v>
-      </c>
-      <c r="C21" s="1">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>12</v>
-      </c>
-      <c r="D21" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E21" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="F21" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G21" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="H21" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="I21" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J21" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>1020</v>
-      </c>
-      <c r="K21" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>1020</v>
-      </c>
-      <c r="M21" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>120</v>
-      </c>
-      <c r="N21" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="str">
-        <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
-        <v>Shoulder Motor</v>
-      </c>
-      <c r="B22" s="22" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Dirty Power</v>
-      </c>
-      <c r="C22" s="1">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>12</v>
-      </c>
-      <c r="D22" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E22" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="F22" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G22" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>20</v>
-      </c>
-      <c r="H22" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>5</v>
-      </c>
-      <c r="I22" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J22" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>240</v>
-      </c>
-      <c r="K22" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>240</v>
-      </c>
-      <c r="M22" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>60</v>
-      </c>
-      <c r="N22" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="str">
-        <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
-        <v>Base Motor</v>
-      </c>
-      <c r="B23" s="22" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Dirty Power</v>
-      </c>
-      <c r="C23" s="1">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>12</v>
-      </c>
-      <c r="D23" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E23" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="F23" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G23" s="12">
+        <v/>
+      </c>
+      <c r="G24" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>4.8999999999999995</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H24" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I23" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J23" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+      <c r="I24" s="30">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>58.8</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K24" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L24" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v>58.8</v>
       </c>
-      <c r="M23" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+      <c r="M24" s="29">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>20</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N24" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O24" s="29">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="str">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
-        <v>Upper Limb Motor</v>
-      </c>
-      <c r="B24" s="22" t="str">
+        <v/>
+      </c>
+      <c r="B25" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Dirty Power</v>
-      </c>
-      <c r="C24" s="1">
+        <v/>
+      </c>
+      <c r="C25" s="28" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>12</v>
-      </c>
-      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="D25" s="26" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E24" s="12" t="str">
+      <c r="E25" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v/>
       </c>
-      <c r="F24" s="12" t="str">
+      <c r="F25" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v/>
       </c>
-      <c r="G24" s="12">
+      <c r="G25" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>4.8999999999999995</v>
-      </c>
-      <c r="H24" s="12">
+        <v/>
+      </c>
+      <c r="H25" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="I24" s="5">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J24" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>58.8</v>
-      </c>
-      <c r="K24" s="12">
+        <v/>
+      </c>
+      <c r="I25" s="30" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J25" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="K25" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="12">
+        <v/>
+      </c>
+      <c r="L25" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>58.8</v>
-      </c>
-      <c r="M24" s="12">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>20</v>
-      </c>
-      <c r="N24" s="12">
+        <v/>
+      </c>
+      <c r="M25" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="N25" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="12">
+        <v/>
+      </c>
+      <c r="O25" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v/>
       </c>
-      <c r="B25" s="22" t="str">
+      <c r="B26" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C25" s="1" t="str">
+      <c r="C26" s="28" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D25" t="str">
+      <c r="D26" s="26" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E25" s="12" t="str">
+      <c r="E26" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v/>
       </c>
-      <c r="F25" s="12" t="str">
+      <c r="F26" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v/>
       </c>
-      <c r="G25" s="12" t="str">
+      <c r="G26" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="H25" s="12" t="str">
+      <c r="H26" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="I25" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="J25" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v/>
-      </c>
-      <c r="K25" s="12" t="str">
+      <c r="I26" s="30" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J26" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="K26" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="L25" s="12" t="str">
+      <c r="L26" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
-      <c r="M25" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v/>
-      </c>
-      <c r="N25" s="12" t="str">
+      <c r="M26" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="N26" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="O25" s="12" t="str">
+      <c r="O26" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="str">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v/>
       </c>
-      <c r="B26" s="22" t="str">
+      <c r="B27" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C26" s="1" t="str">
+      <c r="C27" s="28" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D26" t="str">
+      <c r="D27" s="26" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E26" s="12" t="str">
+      <c r="E27" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v/>
       </c>
-      <c r="F26" s="12" t="str">
+      <c r="F27" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v/>
       </c>
-      <c r="G26" s="12" t="str">
+      <c r="G27" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="H26" s="12" t="str">
+      <c r="H27" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="I26" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="J26" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v/>
-      </c>
-      <c r="K26" s="12" t="str">
+      <c r="I27" s="30" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J27" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="K27" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="L26" s="12" t="str">
+      <c r="L27" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
-      <c r="M26" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v/>
-      </c>
-      <c r="N26" s="12" t="str">
+      <c r="M27" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="N27" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="O26" s="12" t="str">
+      <c r="O27" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="str">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v/>
       </c>
-      <c r="B27" s="22" t="str">
+      <c r="B28" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C27" s="1" t="str">
+      <c r="C28" s="28" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D27" t="str">
+      <c r="D28" s="26" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E27" s="12" t="str">
+      <c r="E28" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v/>
       </c>
-      <c r="F27" s="12" t="str">
+      <c r="F28" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v/>
       </c>
-      <c r="G27" s="12" t="str">
+      <c r="G28" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="H27" s="12" t="str">
+      <c r="H28" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="I27" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="J27" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v/>
-      </c>
-      <c r="K27" s="12" t="str">
+      <c r="I28" s="30" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J28" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="K28" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="L27" s="12" t="str">
+      <c r="L28" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
-      <c r="M27" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v/>
-      </c>
-      <c r="N27" s="12" t="str">
+      <c r="M28" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="N28" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="O27" s="12" t="str">
+      <c r="O28" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="str">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v/>
       </c>
-      <c r="B28" s="22" t="str">
+      <c r="B29" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C28" s="1" t="str">
+      <c r="C29" s="28" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D28" t="str">
+      <c r="D29" s="26" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E28" s="12" t="str">
+      <c r="E29" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v/>
       </c>
-      <c r="F28" s="12" t="str">
+      <c r="F29" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v/>
       </c>
-      <c r="G28" s="12" t="str">
+      <c r="G29" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="H28" s="12" t="str">
+      <c r="H29" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="I28" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="J28" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v/>
-      </c>
-      <c r="K28" s="12" t="str">
+      <c r="I29" s="30" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J29" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="K29" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="L28" s="12" t="str">
+      <c r="L29" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
-      <c r="M28" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v/>
-      </c>
-      <c r="N28" s="12" t="str">
+      <c r="M29" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="N29" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="O28" s="12" t="str">
+      <c r="O29" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="str">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="str">
         <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
         <v/>
       </c>
-      <c r="B29" s="22" t="str">
+      <c r="B30" s="27" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C29" s="1" t="str">
+      <c r="C30" s="28" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D29" t="str">
+      <c r="D30" s="26" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="E29" s="12" t="str">
+      <c r="E30" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v/>
       </c>
-      <c r="F29" s="12" t="str">
+      <c r="F30" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
         <v/>
       </c>
-      <c r="G29" s="12" t="str">
+      <c r="G30" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="H29" s="12" t="str">
+      <c r="H30" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
         <v/>
       </c>
-      <c r="I29" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="J29" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v/>
-      </c>
-      <c r="K29" s="12" t="str">
+      <c r="I30" s="30" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Thoughput Loss])-COLUMN(Items[])+1, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J30" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="K30" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="L29" s="12" t="str">
+      <c r="L30" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
         <v/>
       </c>
-      <c r="M29" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v/>
-      </c>
-      <c r="N29" s="12" t="str">
+      <c r="M30" s="29" t="str">
+        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Thoughput Loss]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
+        <v/>
+      </c>
+      <c r="N30" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v/>
       </c>
-      <c r="O29" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="str">
-        <f>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</f>
-        <v/>
-      </c>
-      <c r="B30" s="22" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Supply Item])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="D30" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E30" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="F30" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G30" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v/>
-      </c>
-      <c r="H30" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v/>
-      </c>
-      <c r="I30" s="5" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="J30" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v/>
-      </c>
-      <c r="K30" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v/>
-      </c>
-      <c r="L30" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v/>
-      </c>
-      <c r="M30" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v/>
-      </c>
-      <c r="N30" s="12" t="str">
-        <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v/>
-      </c>
-      <c r="O30" s="12" t="str">
+      <c r="O30" s="29" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>ItemIDs</formula1>
     </dataValidation>
   </dataValidations>
@@ -5372,7 +5442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5446,11 +5516,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C2" s="13" t="str">
+      <c r="C2" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D2" s="13" t="str">
+      <c r="D2" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
@@ -5462,7 +5532,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v/>
       </c>
-      <c r="G2" s="12" t="str">
+      <c r="G2" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -5495,13 +5565,13 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v>400</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>284.15406250000007</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>36.634062500000006</v>
+        <v>127.62989583333335</v>
       </c>
       <c r="E3" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
@@ -5509,20 +5579,20 @@
       </c>
       <c r="F3" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>9.1585156250000022E-2</v>
-      </c>
-      <c r="G3" s="12">
+        <v>0.31907473958333338</v>
+      </c>
+      <c r="G3" s="10">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v>1000</v>
       </c>
       <c r="H3" s="5">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Constant Current Used]]="", Results[[#This Row],[Battery (mAh)]]=""), "", Results[[#This Row],[Battery (mAh)]]/Results[[#This Row],[Constant Current Used]])</f>
-        <v>27.296999889105933</v>
+        <v>7.8351548708138026</v>
       </c>
       <c r="K3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="14" t="str">
+      <c r="L3" s="12" t="str">
         <f>IF(COUNTIF(Results[Constant % Capacity], "&gt;1")=0, IF(COUNTIF(Results[Peak % Capacity], "&gt;1")=0, "GO", "MAYBE"), "HOLD")</f>
         <v>HOLD</v>
       </c>
@@ -5551,11 +5621,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>1.4</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>1.4</v>
       </c>
@@ -5567,7 +5637,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v>0.11666666666666665</v>
       </c>
-      <c r="G4" s="12" t="str">
+      <c r="G4" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -5578,9 +5648,9 @@
       <c r="K4" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="15" t="str">
+      <c r="L4" s="13" t="str">
         <f>CONCATENATE(TEXT(INT(MIN(Results[Battery Life (hrs)])), "#"),":",TEXT(MOD(MIN(Results[Battery Life (hrs)]), 1)*60, "0#"))</f>
-        <v>27:18</v>
+        <v>7:50</v>
       </c>
       <c r="O4" t="s">
         <v>31</v>
@@ -5607,11 +5677,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v>0.5</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>0</v>
       </c>
@@ -5623,7 +5693,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v>0</v>
       </c>
-      <c r="G5" s="12" t="str">
+      <c r="G5" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -5656,13 +5726,13 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>0.33333333333333331</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E6" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
@@ -5670,9 +5740,9 @@
       </c>
       <c r="F6" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G6" s="12" t="str">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G6" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -5702,11 +5772,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>0.3125</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>0.3125</v>
       </c>
@@ -5718,7 +5788,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v>0.3125</v>
       </c>
-      <c r="G7" s="12" t="str">
+      <c r="G7" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -5726,8 +5796,8 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Constant Current Used]]="", Results[[#This Row],[Battery (mAh)]]=""), "", Results[[#This Row],[Battery (mAh)]]/Results[[#This Row],[Constant Current Used]])</f>
         <v/>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
       <c r="P7" t="str">
         <f>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output (V)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
@@ -5750,11 +5820,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C8" s="13" t="str">
+      <c r="C8" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D8" s="13" t="str">
+      <c r="D8" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
@@ -5766,7 +5836,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v/>
       </c>
-      <c r="G8" s="12" t="str">
+      <c r="G8" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -5796,13 +5866,13 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v>540.41250000000002</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>68.94583333333334</v>
+        <v>129.47083333333333</v>
       </c>
       <c r="E9" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
@@ -5810,9 +5880,9 @@
       </c>
       <c r="F9" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>5.745486111111112</v>
-      </c>
-      <c r="G9" s="12" t="str">
+        <v>10.78923611111111</v>
+      </c>
+      <c r="G9" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -5828,25 +5898,25 @@
       </c>
       <c r="B10">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>60</v>
-      </c>
-      <c r="C10" s="13">
+        <v>40</v>
+      </c>
+      <c r="C10" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>85</v>
-      </c>
-      <c r="D10" s="13">
+        <v>46.363636363636367</v>
+      </c>
+      <c r="D10" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>10</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="E10" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>1.4166666666666667</v>
+        <v>1.1590909090909092</v>
       </c>
       <c r="F10" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G10" s="12" t="str">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="G10" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -5864,11 +5934,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C11" s="13" t="str">
+      <c r="C11" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D11" s="13" t="str">
+      <c r="D11" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
@@ -5880,7 +5950,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v/>
       </c>
-      <c r="G11" s="12" t="str">
+      <c r="G11" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -5896,25 +5966,25 @@
       </c>
       <c r="B12">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>60</v>
-      </c>
-      <c r="C12" s="13">
+        <v>40</v>
+      </c>
+      <c r="C12" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>85</v>
-      </c>
-      <c r="D12" s="13">
+        <v>46.363636363636367</v>
+      </c>
+      <c r="D12" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>10</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="E12" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>1.4166666666666667</v>
+        <v>1.1590909090909092</v>
       </c>
       <c r="F12" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G12" s="12" t="str">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="G12" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -5932,11 +6002,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C13" s="13" t="str">
+      <c r="C13" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D13" s="13" t="str">
+      <c r="D13" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
@@ -5948,7 +6018,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v/>
       </c>
-      <c r="G13" s="12" t="str">
+      <c r="G13" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -5964,25 +6034,25 @@
       </c>
       <c r="B14">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>60</v>
-      </c>
-      <c r="C14" s="13">
+        <v>40</v>
+      </c>
+      <c r="C14" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>85</v>
-      </c>
-      <c r="D14" s="13">
+        <v>46.363636363636367</v>
+      </c>
+      <c r="D14" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>10</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="E14" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>1.4166666666666667</v>
+        <v>1.1590909090909092</v>
       </c>
       <c r="F14" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G14" s="12" t="str">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="G14" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6000,11 +6070,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C15" s="13" t="str">
+      <c r="C15" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D15" s="13" t="str">
+      <c r="D15" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6016,7 +6086,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v/>
       </c>
-      <c r="G15" s="12" t="str">
+      <c r="G15" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6032,25 +6102,25 @@
       </c>
       <c r="B16" s="1">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>60</v>
-      </c>
-      <c r="C16" s="13">
+        <v>40</v>
+      </c>
+      <c r="C16" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>85</v>
-      </c>
-      <c r="D16" s="13">
+        <v>46.363636363636367</v>
+      </c>
+      <c r="D16" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>10</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="E16" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>1.4166666666666667</v>
+        <v>1.1590909090909092</v>
       </c>
       <c r="F16" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G16" s="12" t="str">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="G16" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6068,11 +6138,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C17" s="13" t="str">
+      <c r="C17" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D17" s="13" t="str">
+      <c r="D17" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6084,7 +6154,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v/>
       </c>
-      <c r="G17" s="12" t="str">
+      <c r="G17" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6100,25 +6170,25 @@
       </c>
       <c r="B18" s="1">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>60</v>
-      </c>
-      <c r="C18" s="13">
+        <v>40</v>
+      </c>
+      <c r="C18" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>85</v>
-      </c>
-      <c r="D18" s="13">
+        <v>46.363636363636367</v>
+      </c>
+      <c r="D18" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>10</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="E18" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>1.4166666666666667</v>
+        <v>1.1590909090909092</v>
       </c>
       <c r="F18" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G18" s="12" t="str">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="G18" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6136,11 +6206,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C19" s="13" t="str">
+      <c r="C19" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D19" s="13" t="str">
+      <c r="D19" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6152,7 +6222,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v/>
       </c>
-      <c r="G19" s="12" t="str">
+      <c r="G19" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6168,25 +6238,25 @@
       </c>
       <c r="B20" s="1">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
-        <v>60</v>
-      </c>
-      <c r="C20" s="13">
+        <v>40</v>
+      </c>
+      <c r="C20" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>85</v>
-      </c>
-      <c r="D20" s="13">
+        <v>46.363636363636367</v>
+      </c>
+      <c r="D20" s="11">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
-        <v>10</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="E20" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>1.4166666666666667</v>
+        <v>1.1590909090909092</v>
       </c>
       <c r="F20" s="6">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G20" s="12" t="str">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="G20" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6204,11 +6274,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C21" s="13" t="str">
+      <c r="C21" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D21" s="13" t="str">
+      <c r="D21" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6220,7 +6290,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v/>
       </c>
-      <c r="G21" s="12" t="str">
+      <c r="G21" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6238,11 +6308,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C22" s="13" t="str">
+      <c r="C22" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D22" s="13" t="str">
+      <c r="D22" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6254,7 +6324,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v/>
       </c>
-      <c r="G22" s="12" t="str">
+      <c r="G22" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6272,11 +6342,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C23" s="13" t="str">
+      <c r="C23" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D23" s="13" t="str">
+      <c r="D23" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6288,7 +6358,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v/>
       </c>
-      <c r="G23" s="12" t="str">
+      <c r="G23" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6306,11 +6376,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C24" s="13" t="str">
+      <c r="C24" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D24" s="13" t="str">
+      <c r="D24" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6322,7 +6392,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v/>
       </c>
-      <c r="G24" s="12" t="str">
+      <c r="G24" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6340,11 +6410,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C25" s="13" t="str">
+      <c r="C25" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D25" s="13" t="str">
+      <c r="D25" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6356,7 +6426,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v/>
       </c>
-      <c r="G25" s="12" t="str">
+      <c r="G25" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6374,11 +6444,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C26" s="13" t="str">
+      <c r="C26" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D26" s="13" t="str">
+      <c r="D26" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6390,7 +6460,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v/>
       </c>
-      <c r="G26" s="12" t="str">
+      <c r="G26" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6408,11 +6478,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C27" s="13" t="str">
+      <c r="C27" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D27" s="13" t="str">
+      <c r="D27" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6424,7 +6494,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v/>
       </c>
-      <c r="G27" s="12" t="str">
+      <c r="G27" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6442,11 +6512,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C28" s="13" t="str">
+      <c r="C28" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D28" s="13" t="str">
+      <c r="D28" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6458,7 +6528,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v/>
       </c>
-      <c r="G28" s="12" t="str">
+      <c r="G28" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6476,11 +6546,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C29" s="13" t="str">
+      <c r="C29" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D29" s="13" t="str">
+      <c r="D29" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6492,7 +6562,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v/>
       </c>
-      <c r="G29" s="12" t="str">
+      <c r="G29" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6510,11 +6580,11 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="C30" s="13" t="str">
+      <c r="C30" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
-      <c r="D30" s="13" t="str">
+      <c r="D30" s="11" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6526,7 +6596,7 @@
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</f>
         <v/>
       </c>
-      <c r="G30" s="12" t="str">
+      <c r="G30" s="10" t="str">
         <f>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</f>
         <v/>
       </c>
@@ -6537,13 +6607,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L3">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>INDIRECT(ADDRESS(ROW(), COLUMN()))="HOLD"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>INDIRECT(ADDRESS(ROW(), COLUMN()))="MAYBE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>INDIRECT(ADDRESS(ROW(), COLUMN()))="GO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6560,10 +6630,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A30 O2:O8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A30 O2:O8" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>ItemIDs</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G30"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G30" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6575,7 +6645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6804,11 +6874,11 @@
       </c>
       <c r="B10" s="1" t="str">
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Name])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Victor SP DC Motor Driver</v>
+        <v>T-Motor 40A AIR Multirotor ESC (Brushless DC 3-phase)</v>
       </c>
       <c r="C10" s="3">
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", IF(ISNUMBER(VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE)), VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE), ""))</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>94</v>
@@ -6850,11 +6920,11 @@
       </c>
       <c r="B12" s="1" t="str">
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Name])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Victor SP DC Motor Driver</v>
+        <v>T-Motor 40A AIR Multirotor ESC (Brushless DC 3-phase)</v>
       </c>
       <c r="C12" s="3">
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", IF(ISNUMBER(VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE)), VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE), ""))</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>70</v>
@@ -6887,11 +6957,11 @@
       </c>
       <c r="B14" s="1" t="str">
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Name])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Victor SP DC Motor Driver</v>
+        <v>T-Motor 40A AIR Multirotor ESC (Brushless DC 3-phase)</v>
       </c>
       <c r="C14" s="3">
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", IF(ISNUMBER(VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE)), VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE), ""))</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -6915,11 +6985,11 @@
       </c>
       <c r="B16" s="1" t="str">
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Name])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Victor SP DC Motor Driver</v>
+        <v>T-Motor 40A AIR Multirotor ESC (Brushless DC 3-phase)</v>
       </c>
       <c r="C16" s="3">
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", IF(ISNUMBER(VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE)), VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE), ""))</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6943,11 +7013,11 @@
       </c>
       <c r="B18" s="1" t="str">
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Name])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Victor SP DC Motor Driver</v>
+        <v>T-Motor 40A AIR Multirotor ESC (Brushless DC 3-phase)</v>
       </c>
       <c r="C18" s="3">
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", IF(ISNUMBER(VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE)), VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE), ""))</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6971,11 +7041,11 @@
       </c>
       <c r="B20" s="1" t="str">
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Name])-COLUMN(Items[])+1, FALSE))</f>
-        <v>Victor SP DC Motor Driver</v>
+        <v>T-Motor 40A AIR Multirotor ESC (Brushless DC 3-phase)</v>
       </c>
       <c r="C20" s="3">
         <f>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", IF(ISNUMBER(VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE)), VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE), ""))</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">

--- a/Electrical/PowerBudget.xlsx
+++ b/Electrical/PowerBudget.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Talonj123\MAVRIC\MAVRIC-Electrical\Electrical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\my.files.iastate.edu\Users\jmobrien\Desktop\maveric\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="0" windowWidth="18825" windowHeight="4845" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Component Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="ComponentIDs">ComponentData[ID]</definedName>
     <definedName name="ItemIDs">Analysis[ItemID]</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
   <si>
     <t>Name</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</t>
   </si>
   <si>
-    <t>BaneBot</t>
-  </si>
-  <si>
-    <t>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</t>
-  </si>
-  <si>
     <t>FrontRight ESC</t>
   </si>
   <si>
@@ -203,9 +197,6 @@
     <t>Voltage (V)</t>
   </si>
   <si>
-    <t>Current (W)</t>
-  </si>
-  <si>
     <t>Power (W)</t>
   </si>
   <si>
@@ -333,6 +324,48 @@
   </si>
   <si>
     <t>Efficiency</t>
+  </si>
+  <si>
+    <t>AndyMark</t>
+  </si>
+  <si>
+    <t>https://www.andymark.com/Motor-p/am-0912.htm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drive motor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9015 Motor (am-0912)</t>
+    </r>
+  </si>
+  <si>
+    <t>L12 Linear actuator</t>
+  </si>
+  <si>
+    <t>Actuonix</t>
+  </si>
+  <si>
+    <t>https://www.actuonix.com/L12-I-Micro-Linear-Actuator-Internal-Controller-p/l12-i.htm</t>
+  </si>
+  <si>
+    <t>Current (A)</t>
+  </si>
+  <si>
+    <t>Drive motor</t>
   </si>
 </sst>
 </file>
@@ -344,7 +377,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +400,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -408,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -446,21 +492,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="61">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -481,19 +520,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -562,6 +588,21 @@
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -572,6 +613,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="#,##0.0"/>
@@ -627,6 +672,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="#,##0.0"/>
@@ -947,7 +995,7 @@
     <dataField name="Total Cost" fld="3" baseField="1" baseItem="1" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="13">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -970,8 +1018,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ComponentData" displayName="ComponentData" ref="A1:K11" totalsRowShown="0">
-  <autoFilter ref="A1:K11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ComponentData" displayName="ComponentData" ref="A1:K12" totalsRowShown="0">
+  <autoFilter ref="A1:K12"/>
   <tableColumns count="11">
     <tableColumn id="1" name="ID" dataDxfId="60"/>
     <tableColumn id="6" name="Name" dataDxfId="59"/>
@@ -983,50 +1031,50 @@
     <tableColumn id="7" name="Output (V)" dataDxfId="53"/>
     <tableColumn id="8" name="Output (A)" dataDxfId="52"/>
     <tableColumn id="9" name="Battery (mAh)" dataDxfId="51"/>
-    <tableColumn id="11" name="Efficiency" dataDxfId="9"/>
+    <tableColumn id="11" name="Efficiency" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Items" displayName="Items" ref="A1:N31" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Items" displayName="Items" ref="A1:N31" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="A1:N31"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="ItemID" dataDxfId="48"/>
-    <tableColumn id="2" name="Component" dataDxfId="47"/>
-    <tableColumn id="3" name="Supply Item" dataDxfId="46"/>
-    <tableColumn id="4" name="Supply Component" dataDxfId="45">
+    <tableColumn id="1" name="ItemID" dataDxfId="47"/>
+    <tableColumn id="2" name="Component" dataDxfId="46"/>
+    <tableColumn id="3" name="Supply Item" dataDxfId="45"/>
+    <tableColumn id="4" name="Supply Component" dataDxfId="44">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Name" dataDxfId="44">
+    <tableColumn id="5" name="Name" dataDxfId="43">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Manufacturer" dataDxfId="43">
+    <tableColumn id="6" name="Manufacturer" dataDxfId="42">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Source" dataDxfId="42">
+    <tableColumn id="7" name="Source" dataDxfId="41">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Price" dataDxfId="41">
+    <tableColumn id="8" name="Price" dataDxfId="40">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Peak Consumption (W)" dataDxfId="40">
+    <tableColumn id="9" name="Peak Consumption (W)" dataDxfId="39">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Constant Consumption (W)" dataDxfId="39">
+    <tableColumn id="10" name="Constant Consumption (W)" dataDxfId="38">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Output (V)" dataDxfId="38">
+    <tableColumn id="11" name="Output (V)" dataDxfId="37">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Output (A)" dataDxfId="37">
+    <tableColumn id="12" name="Output (A)" dataDxfId="36">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Battery (mAh)" dataDxfId="36">
+    <tableColumn id="13" name="Battery (mAh)" dataDxfId="35">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Efficiency" dataDxfId="8">
+    <tableColumn id="14" name="Efficiency" dataDxfId="34">
       <calculatedColumnFormula>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1038,47 +1086,47 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Analysis" displayName="Analysis" ref="A1:O30" totalsRowShown="0">
   <autoFilter ref="A1:O30"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="ItemID" dataDxfId="35">
+    <tableColumn id="1" name="ItemID" dataDxfId="33">
       <calculatedColumnFormula>IF(IFERROR(Items[[#This Row],[ItemID]], 0)=0, "", Items[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Supply Item" dataDxfId="34"/>
-    <tableColumn id="11" name="Input (V)" dataDxfId="33">
+    <tableColumn id="5" name="Supply Item" dataDxfId="32"/>
+    <tableColumn id="11" name="Input (V)" dataDxfId="31">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Output (V)" dataDxfId="32">
+    <tableColumn id="8" name="Output (V)" dataDxfId="30">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Peak Output (A)" dataDxfId="31">
+    <tableColumn id="7" name="Peak Output (A)" dataDxfId="29">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Constant Output (A)" dataDxfId="30">
+    <tableColumn id="17" name="Constant Output (A)" dataDxfId="28">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Peak Input (A)" dataDxfId="6">
+    <tableColumn id="9" name="Peak Input (A)" dataDxfId="27">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Constant Input (A)" dataDxfId="7">
+    <tableColumn id="16" name="Constant Input (A)" dataDxfId="26">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Efficiency" dataDxfId="2">
+    <tableColumn id="2" name="Efficiency" dataDxfId="25">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Self Peak Consumption (W)" dataDxfId="1">
+    <tableColumn id="3" name="Self Peak Consumption (W)" dataDxfId="24">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Children Peak Consumption (W)" dataDxfId="29">
+    <tableColumn id="4" name="Children Peak Consumption (W)" dataDxfId="23">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total Peak Consumption (W)" dataDxfId="28">
+    <tableColumn id="6" name="Total Peak Consumption (W)" dataDxfId="22">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Self Constant Consumption (W)" dataDxfId="0">
+    <tableColumn id="12" name="Self Constant Consumption (W)" dataDxfId="21">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Children Constant Consumption (W)" dataDxfId="27">
+    <tableColumn id="14" name="Children Constant Consumption (W)" dataDxfId="20">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Total Constant Consumption (W)" dataDxfId="26">
+    <tableColumn id="15" name="Total Constant Consumption (W)" dataDxfId="19">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1090,28 +1138,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Results" displayName="Results" ref="A1:H30" totalsRowShown="0">
   <autoFilter ref="A1:H30"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ItemID" dataDxfId="25">
+    <tableColumn id="1" name="ItemID" dataDxfId="18">
       <calculatedColumnFormula>IF(IFERROR(Analysis[[#This Row],[ItemID]], 0)=0, "", Analysis[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Current Capacity" dataDxfId="24">
+    <tableColumn id="4" name="Current Capacity" dataDxfId="17">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (A)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Peak Current Used" dataDxfId="23">
+    <tableColumn id="5" name="Peak Current Used" dataDxfId="16">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Constant Current Used" dataDxfId="22">
+    <tableColumn id="8" name="Constant Current Used" dataDxfId="15">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]=0, Results[[#This Row],[ItemID]]=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Analysis[], COLUMN(Analysis[Constant Output (A)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Peak % Capacity" dataDxfId="21">
+    <tableColumn id="3" name="Peak % Capacity" dataDxfId="14">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Peak Current Used]]=""), "", Results[[#This Row],[Peak Current Used]]/Results[[#This Row],[Current Capacity]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Constant % Capacity" dataDxfId="20">
+    <tableColumn id="7" name="Constant % Capacity" dataDxfId="13">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Current Capacity]]=0, Results[[#This Row],[Current Capacity]]="", Results[[#This Row],[Constant Current Used]]=""), "", Results[[#This Row],[Constant Current Used]]/Results[[#This Row],[Current Capacity]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Battery (mAh)" dataDxfId="19">
+    <tableColumn id="9" name="Battery (mAh)" dataDxfId="12">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[ItemID]]="", IFERROR(ISBLANK(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE)), TRUE), IFERROR(VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE), TRUE)=""), "", VLOOKUP(Results[[#This Row],[ItemID]], Items[], COLUMN(Items[Battery (mAh)])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="18">
+    <tableColumn id="6" name="Battery Life (hrs)" dataDxfId="11">
       <calculatedColumnFormula>IF(OR(ISBLANK(Results[[#This Row],[ItemID]]), Results[[#This Row],[Constant Current Used]]="", Results[[#This Row],[Battery (mAh)]]=""), "", Results[[#This Row],[Battery (mAh)]]/Results[[#This Row],[Constant Current Used]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1123,15 +1171,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RailSummary" displayName="RailSummary" ref="O1:R8" totalsRowShown="0">
   <autoFilter ref="O1:R8"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Power Rail" dataDxfId="17"/>
-    <tableColumn id="2" name="Voltage (V)" dataDxfId="16">
+    <tableColumn id="1" name="Power Rail" dataDxfId="10"/>
+    <tableColumn id="2" name="Voltage (V)" dataDxfId="9">
       <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Output (V)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Current (W)" dataDxfId="15">
+    <tableColumn id="3" name="Current (A)" dataDxfId="8">
       <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", VLOOKUP(RailSummary[[#This Row],[Power Rail]], Analysis[], COLUMN(Analysis[Peak Output (A)])-COLUMN(Analysis[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Power (W)" dataDxfId="14">
-      <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", RailSummary[[#This Row],[Voltage (V)]]*RailSummary[[#This Row],[Current (W)]])</calculatedColumnFormula>
+    <tableColumn id="4" name="Power (W)" dataDxfId="7">
+      <calculatedColumnFormula>IF(ISBLANK(RailSummary[[#This Row],[Power Rail]]), "", RailSummary[[#This Row],[Voltage (V)]]*RailSummary[[#This Row],[Current (A)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1142,13 +1190,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Costs" displayName="Costs" ref="A1:C30">
   <autoFilter ref="A1:C30"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Item" totalsRowLabel="Total" dataDxfId="12">
+    <tableColumn id="1" name="Item" totalsRowLabel="Total" dataDxfId="5">
       <calculatedColumnFormula>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", Analysis[[#This Row],[ItemID]]=0), "", Analysis[[#This Row],[ItemID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Component Name" dataDxfId="11">
+    <tableColumn id="2" name="Component Name" dataDxfId="4">
       <calculatedColumnFormula>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Name])-COLUMN(Items[])+1, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Cost" totalsRowFunction="count" dataDxfId="10">
+    <tableColumn id="3" name="Cost" totalsRowFunction="count" dataDxfId="3">
       <calculatedColumnFormula>IF(OR(ISBLANK(Costs[[#This Row],[Item]]), Costs[[#This Row],[Item]]="", Costs[[#This Row],[Item]]=0), "", IF(ISNUMBER(VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE)), VLOOKUP(Costs[[#This Row],[Item]], Items[], COLUMN(Items[Price])-COLUMN(Items[])+1, FALSE), ""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1454,23 +1502,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -1494,10 +1542,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
         <v>12</v>
@@ -1506,10 +1554,10 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1517,7 +1565,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="7"/>
@@ -1543,16 +1591,16 @@
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E3" s="3">
         <v>8.48</v>
@@ -1574,19 +1622,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="F4" s="13">
         <v>2.5</v>
@@ -1607,10 +1655,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7"/>
@@ -1636,16 +1684,16 @@
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3">
         <v>180</v>
@@ -1669,16 +1717,16 @@
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="E7" s="3">
         <v>150</v>
@@ -1730,80 +1778,80 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>57</v>
+      <c r="A9" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E9" s="3">
-        <v>7.25</v>
+        <v>14</v>
       </c>
       <c r="F9" s="17">
-        <v>1020</v>
+        <v>765.6</v>
       </c>
       <c r="G9" s="17">
-        <v>120</v>
-      </c>
-      <c r="H9" s="13"/>
+        <v>14.4</v>
+      </c>
+      <c r="H9" s="13">
+        <v>12</v>
+      </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="7" t="s">
-        <v>59</v>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="E10" s="3">
-        <v>60</v>
-      </c>
-      <c r="F10" s="13">
-        <v>240</v>
-      </c>
-      <c r="G10" s="13">
-        <v>60</v>
-      </c>
-      <c r="H10" s="13"/>
+        <v>90</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2.4975000000000001</v>
+      </c>
+      <c r="G10" s="17">
+        <v>4.4549999999999999E-2</v>
+      </c>
+      <c r="H10" s="13">
+        <v>12</v>
+      </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="4">
-        <v>1</v>
-      </c>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E11" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F11" s="13">
-        <v>58.8</v>
+        <v>240</v>
       </c>
       <c r="G11" s="13">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -1812,14 +1860,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
+      <c r="F12" s="13">
+        <v>58.8</v>
+      </c>
+      <c r="G12" s="13">
+        <v>20</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1832,7 +1904,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,10 +1933,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>0</v>
@@ -1879,10 +1951,10 @@
         <v>4</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>12</v>
@@ -1891,10 +1963,10 @@
         <v>13</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1998,13 +2070,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
@@ -2052,13 +2124,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
@@ -2107,10 +2179,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>14</v>
@@ -2162,13 +2234,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
@@ -2217,13 +2289,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
@@ -2272,10 +2344,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>14</v>
@@ -2326,13 +2398,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
@@ -2381,68 +2453,65 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="E11" s="24" t="str">
+      <c r="E11" s="24" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
-      </c>
-      <c r="F11" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="18" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>BaneBot</v>
-      </c>
-      <c r="G11" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="18" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
+        <v>#N/A</v>
       </c>
       <c r="H11" s="19">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>7.25</v>
+        <v>14</v>
       </c>
       <c r="I11" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1020</v>
+        <v>765.6</v>
       </c>
       <c r="J11" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>120</v>
-      </c>
-      <c r="K11" s="20" t="str">
+        <v>14.4</v>
+      </c>
+      <c r="K11" s="20" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L11" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="20" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="M11" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M11" s="20" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N11" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="N11" s="26" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
@@ -2491,68 +2560,65 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="E13" s="24" t="str">
+      <c r="E13" s="24" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
-      </c>
-      <c r="F13" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="18" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>BaneBot</v>
-      </c>
-      <c r="G13" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G13" s="18" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
+        <v>#N/A</v>
       </c>
       <c r="H13" s="19">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>7.25</v>
+        <v>14</v>
       </c>
       <c r="I13" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1020</v>
+        <v>765.6</v>
       </c>
       <c r="J13" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>120</v>
-      </c>
-      <c r="K13" s="20" t="str">
+        <v>14.4</v>
+      </c>
+      <c r="K13" s="20" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L13" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L13" s="20" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="M13" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M13" s="20" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N13" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="N13" s="26" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
@@ -2601,68 +2667,65 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="E15" s="24" t="str">
+      <c r="E15" s="24" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
-      </c>
-      <c r="F15" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F15" s="18" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>BaneBot</v>
-      </c>
-      <c r="G15" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G15" s="18" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
+        <v>#N/A</v>
       </c>
       <c r="H15" s="19">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>7.25</v>
+        <v>14</v>
       </c>
       <c r="I15" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1020</v>
+        <v>765.6</v>
       </c>
       <c r="J15" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>120</v>
-      </c>
-      <c r="K15" s="20" t="str">
+        <v>14.4</v>
+      </c>
+      <c r="K15" s="20" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L15" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L15" s="20" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="M15" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M15" s="20" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N15" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="N15" s="26" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
@@ -2711,68 +2774,65 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="E17" s="24" t="str">
+      <c r="E17" s="24" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
-      </c>
-      <c r="F17" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F17" s="18" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>BaneBot</v>
-      </c>
-      <c r="G17" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G17" s="18" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
+        <v>#N/A</v>
       </c>
       <c r="H17" s="19">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>7.25</v>
+        <v>14</v>
       </c>
       <c r="I17" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1020</v>
+        <v>765.6</v>
       </c>
       <c r="J17" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>120</v>
-      </c>
-      <c r="K17" s="20" t="str">
+        <v>14.4</v>
+      </c>
+      <c r="K17" s="20" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L17" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L17" s="20" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="M17" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M17" s="20" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N17" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="N17" s="26" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
@@ -2821,68 +2881,65 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="E19" s="24" t="str">
+      <c r="E19" s="24" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
-      </c>
-      <c r="F19" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F19" s="18" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>BaneBot</v>
-      </c>
-      <c r="G19" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G19" s="18" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
+        <v>#N/A</v>
       </c>
       <c r="H19" s="19">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>7.25</v>
+        <v>14</v>
       </c>
       <c r="I19" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1020</v>
+        <v>765.6</v>
       </c>
       <c r="J19" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>120</v>
-      </c>
-      <c r="K19" s="20" t="str">
+        <v>14.4</v>
+      </c>
+      <c r="K19" s="20" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L19" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L19" s="20" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="M19" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M19" s="20" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N19" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="N19" s="26" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
@@ -2931,68 +2988,65 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
         <v>Dirty Power</v>
       </c>
-      <c r="E21" s="24" t="str">
+      <c r="E21" s="24" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Name])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>Banebots RS-550 Motor 19300rpm 12V 70.55oz-in</v>
-      </c>
-      <c r="F21" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F21" s="18" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Manufacturer])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>BaneBot</v>
-      </c>
-      <c r="G21" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G21" s="18" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Source])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>http://robotshop.com/en/banebots-rs-550-motor-12v-19300rpm.html</v>
+        <v>#N/A</v>
       </c>
       <c r="H21" s="19">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Price])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>7.25</v>
+        <v>14</v>
       </c>
       <c r="I21" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Peak Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1020</v>
+        <v>765.6</v>
       </c>
       <c r="J21" s="20">
-        <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Constant Consumption (W)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>120</v>
-      </c>
-      <c r="K21" s="20" t="str">
+        <v>14.4</v>
+      </c>
+      <c r="K21" s="20" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (V)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L21" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L21" s="20" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Output (A)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="M21" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M21" s="20" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Battery (mAh)])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N21" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="N21" s="26" t="e">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Component]]), Items[[#This Row],[Component]]="", Items[[#This Row],[Component]]=0), "", IF(ISBLANK(VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)), "", VLOOKUP(Items[[#This Row],[Component]], ComponentData[], COLUMN(ComponentData[Efficiency])-COLUMN(ComponentData[])+1, FALSE)))</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
@@ -3041,13 +3095,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D23" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
@@ -3096,13 +3150,13 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24" s="16" t="str">
         <f>IF(OR(ISBLANK(Items[[#This Row],[Supply Item]]), Items[[#This Row],[Supply Item]]="", Items[[#This Row],[Supply Item]]=0), "", VLOOKUP(Items[[#This Row],[Supply Item]], Analysis[], COLUMN(Items[Component])-COLUMN(Items[])+1, FALSE))</f>
@@ -3489,11 +3543,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3521,46 +3575,46 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" t="s">
         <v>75</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>76</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>77</v>
-      </c>
-      <c r="M1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3639,13 +3693,13 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>24</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>284.15406250000007</v>
-      </c>
-      <c r="F3" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>36.634062500000006</v>
+        <v>#N/A</v>
       </c>
       <c r="G3" s="12" t="str">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
@@ -3659,29 +3713,29 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="K3" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>6819.6975000000011</v>
-      </c>
-      <c r="L3" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="L3" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>6819.6975000000011</v>
-      </c>
-      <c r="M3" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="M3" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N3" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>879.21750000000009</v>
-      </c>
-      <c r="O3" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="O3" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>879.21750000000009</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -4011,49 +4065,49 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>540.41250000000002</v>
-      </c>
-      <c r="F9" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="F9" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>68.94583333333334</v>
-      </c>
-      <c r="G9" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="G9" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>283.71656250000007</v>
-      </c>
-      <c r="H9" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="H9" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>36.196562500000006</v>
+        <v>#N/A</v>
       </c>
       <c r="I9" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
         <v>0.95</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>324.24750000000034</v>
-      </c>
-      <c r="K9" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="K9" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>6484.9500000000007</v>
-      </c>
-      <c r="L9" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="L9" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>6809.1975000000011</v>
-      </c>
-      <c r="M9" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="M9" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>41.367500000000035</v>
-      </c>
-      <c r="N9" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N9" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>827.35</v>
-      </c>
-      <c r="O9" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="O9" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>868.71750000000009</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -4073,49 +4127,49 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="F10" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="G10" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="G10" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="H10" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="H10" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>10</v>
+        <v>#N/A</v>
       </c>
       <c r="I10" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="K10" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>1020</v>
-      </c>
-      <c r="L10" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="L10" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>1020</v>
-      </c>
-      <c r="M10" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="M10" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N10" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>120</v>
-      </c>
-      <c r="O10" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="O10" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>120</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -4131,53 +4185,53 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E11" s="12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="F11" s="12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G11" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="H11" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="H11" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="I11" s="5">
+        <v>#N/A</v>
+      </c>
+      <c r="I11" s="5" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="J11" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>1020</v>
+        <v>#N/A</v>
       </c>
       <c r="K11" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>1020</v>
-      </c>
-      <c r="M11" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="M11" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>120</v>
+        <v>#N/A</v>
       </c>
       <c r="N11" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>120</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -4197,49 +4251,49 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="F12" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="G12" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="G12" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="H12" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="H12" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>10</v>
+        <v>#N/A</v>
       </c>
       <c r="I12" s="5">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="K12" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>1020</v>
-      </c>
-      <c r="L12" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="L12" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>1020</v>
-      </c>
-      <c r="M12" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="M12" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Constant Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="N12" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Constant Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
-        <v>120</v>
-      </c>
-      <c r="O12" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="O12" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Constant Consumption (W)]]+Analysis[[#This Row],[Children Constant Consumption (W)]])</f>
-        <v>120</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -4255,53 +4309,53 @@
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]=""), "", VLOOKUP(Analysis[[#This Row],[Supply Item]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
         <v>12</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Output (V)])-COLUMN(Items[])+1, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E13" s="12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Peak Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="F13" s="12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Output (V)]]), ISTEXT(Analysis[[#This Row],[Output (V)]]), Analysis[[#This Row],[Output (V)]]&lt;=0), "", Analysis[[#This Row],[Children Constant Consumption (W)]]/Analysis[[#This Row],[Output (V)]])</f>
-        <v/>
-      </c>
-      <c r="G13" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="G13" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Peak Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>85</v>
-      </c>
-      <c r="H13" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="H13" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]="", ISBLANK(Analysis[[#This Row],[Supply Item]]), Analysis[[#This Row],[Supply Item]]="", Analysis[[#This Row],[Input (V)]]&lt;=0), "", Analysis[[#This Row],[Total Constant Consumption (W)]]/Analysis[[#This Row],[Input (V)]])</f>
-        <v>10</v>
-      </c>
-      <c r="I13" s="5">
+        <v>#N/A</v>
+      </c>
+      <c r="I13" s="5" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Efficiency])-COLUMN(Items[])+1, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="J13" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", VLOOKUP(Analysis[[#This Row],[ItemID]], Items[], COLUMN(Items[Peak Consumption (W)])-COLUMN(Items[])+1, FALSE)+(1-Analysis[[#This Row],[Efficiency]])*Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>1020</v>
+        <v>#N/A</v>
       </c>
       <c r="K13" s="12">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", SUMIFS(Analysis[Total Peak Consumption (W)], Analysis[Supply Item], Analysis[[#This Row],[ItemID]]))</f>
         <v>0</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="12" t="e">
         <f>IF(OR(ISBLANK(Analysis[[#This Row],[ItemID]]), Analysis[[#This Row],[ItemID]]=""), "", Analysis[[#This Row],[Self Peak Consumption (W)]]+Analysis[[#This Row],[Children Peak Consumption (W)]])</f>
-        <v>1020</v>
-      </c>
-      <c r="M13" s="12">
+ 